--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/BALANCE   HERRADURA  MAYO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/BALANCE   HERRADURA  MAYO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="281">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1158,6 +1158,15 @@
   </si>
   <si>
     <t>BALANCE      ABASTO 4 CARNES    H E R R A D U R A    MAYO        2 0 2 2</t>
+  </si>
+  <si>
+    <t>NOMINA # 19</t>
+  </si>
+  <si>
+    <t>LONGANIZA-ARABE</t>
+  </si>
+  <si>
+    <t>NOMINA # 20</t>
   </si>
 </sst>
 </file>
@@ -2926,6 +2935,56 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="27" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3007,58 +3066,8 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="27" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5508,23 +5517,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="292"/>
-      <c r="C1" s="294" t="s">
+      <c r="B1" s="274"/>
+      <c r="C1" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
-      <c r="F1" s="295"/>
-      <c r="G1" s="295"/>
-      <c r="H1" s="295"/>
-      <c r="I1" s="295"/>
-      <c r="J1" s="295"/>
-      <c r="K1" s="295"/>
-      <c r="L1" s="295"/>
-      <c r="M1" s="295"/>
+      <c r="D1" s="277"/>
+      <c r="E1" s="277"/>
+      <c r="F1" s="277"/>
+      <c r="G1" s="277"/>
+      <c r="H1" s="277"/>
+      <c r="I1" s="277"/>
+      <c r="J1" s="277"/>
+      <c r="K1" s="277"/>
+      <c r="L1" s="277"/>
+      <c r="M1" s="277"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="293"/>
+      <c r="B2" s="275"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -5534,21 +5543,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="297"/>
+      <c r="B3" s="278" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="279"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="298" t="s">
+      <c r="H3" s="280" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="298"/>
+      <c r="I3" s="280"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="265" t="s">
+      <c r="R3" s="285" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5563,14 +5572,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="299" t="s">
+      <c r="E4" s="281" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="300"/>
-      <c r="H4" s="301" t="s">
+      <c r="F4" s="282"/>
+      <c r="H4" s="283" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="302"/>
+      <c r="I4" s="284"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -5580,11 +5589,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="272" t="s">
+      <c r="P4" s="292" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="273"/>
-      <c r="R4" s="266"/>
+      <c r="Q4" s="293"/>
+      <c r="R4" s="286"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -7085,11 +7094,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="274">
+      <c r="M40" s="294">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="276">
+      <c r="N40" s="296">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -7115,8 +7124,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="275"/>
-      <c r="N41" s="277"/>
+      <c r="M41" s="295"/>
+      <c r="N41" s="297"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -7331,29 +7340,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="278" t="s">
+      <c r="H53" s="298" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="279"/>
+      <c r="I53" s="299"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="280">
+      <c r="K53" s="300">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="281"/>
-      <c r="M53" s="282">
+      <c r="L53" s="301"/>
+      <c r="M53" s="302">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="283"/>
+      <c r="N53" s="303"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="284" t="s">
+      <c r="D54" s="304" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="284"/>
+      <c r="E54" s="304"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -7364,22 +7373,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="285" t="s">
+      <c r="D55" s="305" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="285"/>
+      <c r="E55" s="305"/>
       <c r="F55" s="115">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="286" t="s">
+      <c r="I55" s="306" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="287"/>
-      <c r="K55" s="288">
+      <c r="J55" s="307"/>
+      <c r="K55" s="308">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="289"/>
+      <c r="L55" s="309"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -7410,11 +7419,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="290">
+      <c r="K57" s="310">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="291"/>
+      <c r="L57" s="311"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -7431,22 +7440,22 @@
       <c r="C59" s="133">
         <v>44591</v>
       </c>
-      <c r="D59" s="267" t="s">
+      <c r="D59" s="287" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="268"/>
+      <c r="E59" s="288"/>
       <c r="F59" s="134">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="269" t="s">
+      <c r="I59" s="289" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="270"/>
-      <c r="K59" s="271">
+      <c r="J59" s="290"/>
+      <c r="K59" s="291">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="271"/>
+      <c r="L59" s="291"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -7590,12 +7599,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -7611,6 +7614,12 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7674,21 +7683,21 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="304"/>
-      <c r="B3" s="305"/>
-      <c r="C3" s="306"/>
-      <c r="D3" s="307"/>
-      <c r="E3" s="306"/>
+      <c r="A3" s="265"/>
+      <c r="B3" s="266"/>
+      <c r="C3" s="267"/>
+      <c r="D3" s="268"/>
+      <c r="E3" s="267"/>
       <c r="F3" s="158">
         <f>C3-E3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="308"/>
-      <c r="B4" s="309"/>
+      <c r="A4" s="269"/>
+      <c r="B4" s="270"/>
       <c r="C4" s="132"/>
-      <c r="D4" s="310"/>
+      <c r="D4" s="271"/>
       <c r="E4" s="132"/>
       <c r="F4" s="196">
         <f>C4-E4+F3</f>
@@ -7696,10 +7705,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="308"/>
-      <c r="B5" s="309"/>
+      <c r="A5" s="269"/>
+      <c r="B5" s="270"/>
       <c r="C5" s="132"/>
-      <c r="D5" s="310"/>
+      <c r="D5" s="271"/>
       <c r="E5" s="132"/>
       <c r="F5" s="196">
         <f t="shared" ref="F5:F68" si="0">C5-E5+F4</f>
@@ -7707,10 +7716,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="308"/>
-      <c r="B6" s="309"/>
+      <c r="A6" s="269"/>
+      <c r="B6" s="270"/>
       <c r="C6" s="132"/>
-      <c r="D6" s="310"/>
+      <c r="D6" s="271"/>
       <c r="E6" s="132"/>
       <c r="F6" s="196">
         <f t="shared" si="0"/>
@@ -7719,10 +7728,10 @@
       <c r="G6" s="162"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="308"/>
-      <c r="B7" s="309"/>
+      <c r="A7" s="269"/>
+      <c r="B7" s="270"/>
       <c r="C7" s="132"/>
-      <c r="D7" s="310"/>
+      <c r="D7" s="271"/>
       <c r="E7" s="132"/>
       <c r="F7" s="196">
         <f t="shared" si="0"/>
@@ -7730,10 +7739,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="308"/>
-      <c r="B8" s="309"/>
+      <c r="A8" s="269"/>
+      <c r="B8" s="270"/>
       <c r="C8" s="132"/>
-      <c r="D8" s="310"/>
+      <c r="D8" s="271"/>
       <c r="E8" s="132"/>
       <c r="F8" s="196">
         <f t="shared" si="0"/>
@@ -7741,10 +7750,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="308"/>
-      <c r="B9" s="309"/>
+      <c r="A9" s="269"/>
+      <c r="B9" s="270"/>
       <c r="C9" s="132"/>
-      <c r="D9" s="310"/>
+      <c r="D9" s="271"/>
       <c r="E9" s="132"/>
       <c r="F9" s="196">
         <f t="shared" si="0"/>
@@ -7752,10 +7761,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="308"/>
-      <c r="B10" s="309"/>
+      <c r="A10" s="269"/>
+      <c r="B10" s="270"/>
       <c r="C10" s="132"/>
-      <c r="D10" s="310"/>
+      <c r="D10" s="271"/>
       <c r="E10" s="132"/>
       <c r="F10" s="196">
         <f t="shared" si="0"/>
@@ -7763,10 +7772,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="308"/>
-      <c r="B11" s="309"/>
+      <c r="A11" s="269"/>
+      <c r="B11" s="270"/>
       <c r="C11" s="132"/>
-      <c r="D11" s="310"/>
+      <c r="D11" s="271"/>
       <c r="E11" s="132"/>
       <c r="F11" s="196">
         <f t="shared" si="0"/>
@@ -7774,10 +7783,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="308"/>
-      <c r="B12" s="309"/>
+      <c r="A12" s="269"/>
+      <c r="B12" s="270"/>
       <c r="C12" s="132"/>
-      <c r="D12" s="310"/>
+      <c r="D12" s="271"/>
       <c r="E12" s="132"/>
       <c r="F12" s="196">
         <f t="shared" si="0"/>
@@ -7786,10 +7795,10 @@
       <c r="G12" s="162"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="308"/>
-      <c r="B13" s="309"/>
+      <c r="A13" s="269"/>
+      <c r="B13" s="270"/>
       <c r="C13" s="132"/>
-      <c r="D13" s="310"/>
+      <c r="D13" s="271"/>
       <c r="E13" s="132"/>
       <c r="F13" s="196">
         <f t="shared" si="0"/>
@@ -7797,10 +7806,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="308"/>
-      <c r="B14" s="309"/>
+      <c r="A14" s="269"/>
+      <c r="B14" s="270"/>
       <c r="C14" s="132"/>
-      <c r="D14" s="310"/>
+      <c r="D14" s="271"/>
       <c r="E14" s="132"/>
       <c r="F14" s="196">
         <f t="shared" si="0"/>
@@ -7808,10 +7817,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="308"/>
-      <c r="B15" s="309"/>
+      <c r="A15" s="269"/>
+      <c r="B15" s="270"/>
       <c r="C15" s="132"/>
-      <c r="D15" s="310"/>
+      <c r="D15" s="271"/>
       <c r="E15" s="132"/>
       <c r="F15" s="196">
         <f t="shared" si="0"/>
@@ -7819,10 +7828,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="308"/>
-      <c r="B16" s="309"/>
+      <c r="A16" s="269"/>
+      <c r="B16" s="270"/>
       <c r="C16" s="132"/>
-      <c r="D16" s="310"/>
+      <c r="D16" s="271"/>
       <c r="E16" s="132"/>
       <c r="F16" s="196">
         <f t="shared" si="0"/>
@@ -7830,10 +7839,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="308"/>
-      <c r="B17" s="309"/>
+      <c r="A17" s="269"/>
+      <c r="B17" s="270"/>
       <c r="C17" s="132"/>
-      <c r="D17" s="310"/>
+      <c r="D17" s="271"/>
       <c r="E17" s="132"/>
       <c r="F17" s="196">
         <f t="shared" si="0"/>
@@ -7841,10 +7850,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="308"/>
-      <c r="B18" s="309"/>
+      <c r="A18" s="269"/>
+      <c r="B18" s="270"/>
       <c r="C18" s="132"/>
-      <c r="D18" s="310"/>
+      <c r="D18" s="271"/>
       <c r="E18" s="132"/>
       <c r="F18" s="196">
         <f t="shared" si="0"/>
@@ -7852,10 +7861,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="308"/>
-      <c r="B19" s="309"/>
+      <c r="A19" s="269"/>
+      <c r="B19" s="270"/>
       <c r="C19" s="132"/>
-      <c r="D19" s="310"/>
+      <c r="D19" s="271"/>
       <c r="E19" s="132"/>
       <c r="F19" s="196">
         <f t="shared" si="0"/>
@@ -7863,10 +7872,10 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="308"/>
-      <c r="B20" s="309"/>
+      <c r="A20" s="269"/>
+      <c r="B20" s="270"/>
       <c r="C20" s="132"/>
-      <c r="D20" s="310"/>
+      <c r="D20" s="271"/>
       <c r="E20" s="132"/>
       <c r="F20" s="196">
         <f t="shared" si="0"/>
@@ -7874,10 +7883,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="308"/>
-      <c r="B21" s="309"/>
+      <c r="A21" s="269"/>
+      <c r="B21" s="270"/>
       <c r="C21" s="132"/>
-      <c r="D21" s="310"/>
+      <c r="D21" s="271"/>
       <c r="E21" s="132"/>
       <c r="F21" s="196">
         <f t="shared" si="0"/>
@@ -7885,10 +7894,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="308"/>
-      <c r="B22" s="309"/>
+      <c r="A22" s="269"/>
+      <c r="B22" s="270"/>
       <c r="C22" s="132"/>
-      <c r="D22" s="310"/>
+      <c r="D22" s="271"/>
       <c r="E22" s="132"/>
       <c r="F22" s="196">
         <f t="shared" si="0"/>
@@ -7896,10 +7905,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="308"/>
-      <c r="B23" s="309"/>
+      <c r="A23" s="269"/>
+      <c r="B23" s="270"/>
       <c r="C23" s="132"/>
-      <c r="D23" s="310"/>
+      <c r="D23" s="271"/>
       <c r="E23" s="132"/>
       <c r="F23" s="196">
         <f t="shared" si="0"/>
@@ -7907,10 +7916,10 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="308"/>
-      <c r="B24" s="309"/>
+      <c r="A24" s="269"/>
+      <c r="B24" s="270"/>
       <c r="C24" s="132"/>
-      <c r="D24" s="310"/>
+      <c r="D24" s="271"/>
       <c r="E24" s="132"/>
       <c r="F24" s="196">
         <f t="shared" si="0"/>
@@ -7919,10 +7928,10 @@
       <c r="G24" s="162"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="308"/>
-      <c r="B25" s="309"/>
+      <c r="A25" s="269"/>
+      <c r="B25" s="270"/>
       <c r="C25" s="132"/>
-      <c r="D25" s="310"/>
+      <c r="D25" s="271"/>
       <c r="E25" s="132"/>
       <c r="F25" s="196">
         <f t="shared" si="0"/>
@@ -7930,10 +7939,10 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="308"/>
-      <c r="B26" s="309"/>
+      <c r="A26" s="269"/>
+      <c r="B26" s="270"/>
       <c r="C26" s="132"/>
-      <c r="D26" s="310"/>
+      <c r="D26" s="271"/>
       <c r="E26" s="132"/>
       <c r="F26" s="196">
         <f t="shared" si="0"/>
@@ -7941,10 +7950,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="308"/>
-      <c r="B27" s="309"/>
+      <c r="A27" s="269"/>
+      <c r="B27" s="270"/>
       <c r="C27" s="132"/>
-      <c r="D27" s="310"/>
+      <c r="D27" s="271"/>
       <c r="E27" s="132"/>
       <c r="F27" s="196">
         <f t="shared" si="0"/>
@@ -7952,10 +7961,10 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="308"/>
-      <c r="B28" s="309"/>
+      <c r="A28" s="269"/>
+      <c r="B28" s="270"/>
       <c r="C28" s="132"/>
-      <c r="D28" s="310"/>
+      <c r="D28" s="271"/>
       <c r="E28" s="132"/>
       <c r="F28" s="196">
         <f t="shared" si="0"/>
@@ -7963,10 +7972,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="308"/>
-      <c r="B29" s="309"/>
+      <c r="A29" s="269"/>
+      <c r="B29" s="270"/>
       <c r="C29" s="132"/>
-      <c r="D29" s="310"/>
+      <c r="D29" s="271"/>
       <c r="E29" s="132"/>
       <c r="F29" s="196">
         <f t="shared" si="0"/>
@@ -7974,10 +7983,10 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="308"/>
-      <c r="B30" s="309"/>
+      <c r="A30" s="269"/>
+      <c r="B30" s="270"/>
       <c r="C30" s="132"/>
-      <c r="D30" s="308"/>
+      <c r="D30" s="269"/>
       <c r="E30" s="132"/>
       <c r="F30" s="196">
         <f t="shared" si="0"/>
@@ -7985,10 +7994,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="308"/>
-      <c r="B31" s="309"/>
+      <c r="A31" s="269"/>
+      <c r="B31" s="270"/>
       <c r="C31" s="132"/>
-      <c r="D31" s="310"/>
+      <c r="D31" s="271"/>
       <c r="E31" s="132"/>
       <c r="F31" s="196">
         <f t="shared" si="0"/>
@@ -7996,10 +8005,10 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="308"/>
-      <c r="B32" s="309"/>
+      <c r="A32" s="269"/>
+      <c r="B32" s="270"/>
       <c r="C32" s="132"/>
-      <c r="D32" s="310"/>
+      <c r="D32" s="271"/>
       <c r="E32" s="132"/>
       <c r="F32" s="196">
         <f t="shared" si="0"/>
@@ -8008,10 +8017,10 @@
       <c r="G32" s="162"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="308"/>
-      <c r="B33" s="309"/>
+      <c r="A33" s="269"/>
+      <c r="B33" s="270"/>
       <c r="C33" s="132"/>
-      <c r="D33" s="310"/>
+      <c r="D33" s="271"/>
       <c r="E33" s="132"/>
       <c r="F33" s="196">
         <f t="shared" si="0"/>
@@ -8019,10 +8028,10 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="308"/>
-      <c r="B34" s="309"/>
+      <c r="A34" s="269"/>
+      <c r="B34" s="270"/>
       <c r="C34" s="132"/>
-      <c r="D34" s="310"/>
+      <c r="D34" s="271"/>
       <c r="E34" s="132"/>
       <c r="F34" s="196">
         <f t="shared" si="0"/>
@@ -8030,10 +8039,10 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="308"/>
-      <c r="B35" s="309"/>
+      <c r="A35" s="269"/>
+      <c r="B35" s="270"/>
       <c r="C35" s="132"/>
-      <c r="D35" s="310"/>
+      <c r="D35" s="271"/>
       <c r="E35" s="132"/>
       <c r="F35" s="196">
         <f t="shared" si="0"/>
@@ -8041,10 +8050,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="308"/>
-      <c r="B36" s="309"/>
+      <c r="A36" s="269"/>
+      <c r="B36" s="270"/>
       <c r="C36" s="132"/>
-      <c r="D36" s="310"/>
+      <c r="D36" s="271"/>
       <c r="E36" s="132"/>
       <c r="F36" s="196">
         <f t="shared" si="0"/>
@@ -8052,10 +8061,10 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="308"/>
-      <c r="B37" s="309"/>
+      <c r="A37" s="269"/>
+      <c r="B37" s="270"/>
       <c r="C37" s="132"/>
-      <c r="D37" s="310"/>
+      <c r="D37" s="271"/>
       <c r="E37" s="132"/>
       <c r="F37" s="196">
         <f t="shared" si="0"/>
@@ -8063,10 +8072,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="308"/>
-      <c r="B38" s="309"/>
+      <c r="A38" s="269"/>
+      <c r="B38" s="270"/>
       <c r="C38" s="132"/>
-      <c r="D38" s="310"/>
+      <c r="D38" s="271"/>
       <c r="E38" s="132"/>
       <c r="F38" s="196">
         <f t="shared" si="0"/>
@@ -8074,10 +8083,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="308"/>
-      <c r="B39" s="309"/>
+      <c r="A39" s="269"/>
+      <c r="B39" s="270"/>
       <c r="C39" s="132"/>
-      <c r="D39" s="310"/>
+      <c r="D39" s="271"/>
       <c r="E39" s="132"/>
       <c r="F39" s="196">
         <f t="shared" si="0"/>
@@ -8085,10 +8094,10 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="308"/>
-      <c r="B40" s="309"/>
+      <c r="A40" s="269"/>
+      <c r="B40" s="270"/>
       <c r="C40" s="132"/>
-      <c r="D40" s="310"/>
+      <c r="D40" s="271"/>
       <c r="E40" s="86"/>
       <c r="F40" s="196">
         <f t="shared" si="0"/>
@@ -8096,10 +8105,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="308"/>
-      <c r="B41" s="309"/>
+      <c r="A41" s="269"/>
+      <c r="B41" s="270"/>
       <c r="C41" s="132"/>
-      <c r="D41" s="310"/>
+      <c r="D41" s="271"/>
       <c r="E41" s="86"/>
       <c r="F41" s="196">
         <f t="shared" si="0"/>
@@ -8107,10 +8116,10 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="310"/>
-      <c r="B42" s="311"/>
+      <c r="A42" s="271"/>
+      <c r="B42" s="272"/>
       <c r="C42" s="86"/>
-      <c r="D42" s="310"/>
+      <c r="D42" s="271"/>
       <c r="E42" s="86"/>
       <c r="F42" s="196">
         <f t="shared" si="0"/>
@@ -8680,10 +8689,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <sortState ref="B7:C9">
+    <sortCondition ref="B7:B9"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10497,23 +10511,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="292"/>
-      <c r="C1" s="294" t="s">
+      <c r="B1" s="274"/>
+      <c r="C1" s="276" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
-      <c r="F1" s="295"/>
-      <c r="G1" s="295"/>
-      <c r="H1" s="295"/>
-      <c r="I1" s="295"/>
-      <c r="J1" s="295"/>
-      <c r="K1" s="295"/>
-      <c r="L1" s="295"/>
-      <c r="M1" s="295"/>
+      <c r="D1" s="277"/>
+      <c r="E1" s="277"/>
+      <c r="F1" s="277"/>
+      <c r="G1" s="277"/>
+      <c r="H1" s="277"/>
+      <c r="I1" s="277"/>
+      <c r="J1" s="277"/>
+      <c r="K1" s="277"/>
+      <c r="L1" s="277"/>
+      <c r="M1" s="277"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="293"/>
+      <c r="B2" s="275"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -10523,21 +10537,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="297"/>
+      <c r="B3" s="278" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="279"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="298" t="s">
+      <c r="H3" s="280" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="298"/>
+      <c r="I3" s="280"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="265" t="s">
+      <c r="R3" s="285" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10552,14 +10566,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="299" t="s">
+      <c r="E4" s="281" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="300"/>
-      <c r="H4" s="301" t="s">
+      <c r="F4" s="282"/>
+      <c r="H4" s="283" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="302"/>
+      <c r="I4" s="284"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -10569,11 +10583,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="272" t="s">
+      <c r="P4" s="292" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="273"/>
-      <c r="R4" s="266"/>
+      <c r="Q4" s="293"/>
+      <c r="R4" s="286"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -12057,11 +12071,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="80"/>
-      <c r="M40" s="303">
+      <c r="M40" s="312">
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="276">
+      <c r="N40" s="296">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -12087,8 +12101,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="275"/>
-      <c r="N41" s="277"/>
+      <c r="M41" s="295"/>
+      <c r="N41" s="297"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -12303,29 +12317,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="278" t="s">
+      <c r="H53" s="298" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="279"/>
+      <c r="I53" s="299"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="280">
+      <c r="K53" s="300">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="281"/>
-      <c r="M53" s="282">
+      <c r="L53" s="301"/>
+      <c r="M53" s="302">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="283"/>
+      <c r="N53" s="303"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="284" t="s">
+      <c r="D54" s="304" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="284"/>
+      <c r="E54" s="304"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -12336,22 +12350,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="285" t="s">
+      <c r="D55" s="305" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="285"/>
+      <c r="E55" s="305"/>
       <c r="F55" s="115">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="286" t="s">
+      <c r="I55" s="306" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="287"/>
-      <c r="K55" s="288">
+      <c r="J55" s="307"/>
+      <c r="K55" s="308">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="289"/>
+      <c r="L55" s="309"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -12382,11 +12396,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="290">
+      <c r="K57" s="310">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="291"/>
+      <c r="L57" s="311"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -12403,22 +12417,22 @@
       <c r="C59" s="133">
         <v>44619</v>
       </c>
-      <c r="D59" s="267" t="s">
+      <c r="D59" s="287" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="268"/>
+      <c r="E59" s="288"/>
       <c r="F59" s="134">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="269" t="s">
+      <c r="I59" s="289" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="270"/>
-      <c r="K59" s="271">
+      <c r="J59" s="290"/>
+      <c r="K59" s="291">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="271"/>
+      <c r="L59" s="291"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -12562,18 +12576,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -12583,6 +12585,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13887,23 +13901,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="292"/>
-      <c r="C1" s="294" t="s">
+      <c r="B1" s="274"/>
+      <c r="C1" s="276" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
-      <c r="F1" s="295"/>
-      <c r="G1" s="295"/>
-      <c r="H1" s="295"/>
-      <c r="I1" s="295"/>
-      <c r="J1" s="295"/>
-      <c r="K1" s="295"/>
-      <c r="L1" s="295"/>
-      <c r="M1" s="295"/>
+      <c r="D1" s="277"/>
+      <c r="E1" s="277"/>
+      <c r="F1" s="277"/>
+      <c r="G1" s="277"/>
+      <c r="H1" s="277"/>
+      <c r="I1" s="277"/>
+      <c r="J1" s="277"/>
+      <c r="K1" s="277"/>
+      <c r="L1" s="277"/>
+      <c r="M1" s="277"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="293"/>
+      <c r="B2" s="275"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -13913,21 +13927,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="297"/>
+      <c r="B3" s="278" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="279"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="298" t="s">
+      <c r="H3" s="280" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="298"/>
+      <c r="I3" s="280"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="265" t="s">
+      <c r="R3" s="285" t="s">
         <v>38</v>
       </c>
     </row>
@@ -13942,14 +13956,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="299" t="s">
+      <c r="E4" s="281" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="300"/>
-      <c r="H4" s="301" t="s">
+      <c r="F4" s="282"/>
+      <c r="H4" s="283" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="302"/>
+      <c r="I4" s="284"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -13959,11 +13973,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="272" t="s">
+      <c r="P4" s="292" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="273"/>
-      <c r="R4" s="266"/>
+      <c r="Q4" s="293"/>
+      <c r="R4" s="286"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -15431,11 +15445,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="274">
+      <c r="M40" s="294">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="276">
+      <c r="N40" s="296">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -15465,8 +15479,8 @@
       <c r="L41" s="75">
         <v>25678</v>
       </c>
-      <c r="M41" s="275"/>
-      <c r="N41" s="277"/>
+      <c r="M41" s="295"/>
+      <c r="N41" s="297"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -15681,29 +15695,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="278" t="s">
+      <c r="H53" s="298" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="279"/>
+      <c r="I53" s="299"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="280">
+      <c r="K53" s="300">
         <f>I51+L51</f>
         <v>82963.709999999992</v>
       </c>
-      <c r="L53" s="281"/>
-      <c r="M53" s="282">
+      <c r="L53" s="301"/>
+      <c r="M53" s="302">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N53" s="283"/>
+      <c r="N53" s="303"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="284" t="s">
+      <c r="D54" s="304" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="284"/>
+      <c r="E54" s="304"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1831731.29</v>
@@ -15714,22 +15728,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="285" t="s">
+      <c r="D55" s="305" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="285"/>
+      <c r="E55" s="305"/>
       <c r="F55" s="115">
         <v>-1848136.64</v>
       </c>
-      <c r="I55" s="286" t="s">
+      <c r="I55" s="306" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="287"/>
-      <c r="K55" s="288">
+      <c r="J55" s="307"/>
+      <c r="K55" s="308">
         <f>F57+F58+F59</f>
         <v>203012.02000000014</v>
       </c>
-      <c r="L55" s="289"/>
+      <c r="L55" s="309"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -15760,11 +15774,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="290">
+      <c r="K57" s="310">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L57" s="291"/>
+      <c r="L57" s="311"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -15781,22 +15795,22 @@
       <c r="C59" s="133">
         <v>44647</v>
       </c>
-      <c r="D59" s="267" t="s">
+      <c r="D59" s="287" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="268"/>
+      <c r="E59" s="288"/>
       <c r="F59" s="134">
         <v>219417.37</v>
       </c>
-      <c r="I59" s="269" t="s">
+      <c r="I59" s="289" t="s">
         <v>226</v>
       </c>
-      <c r="J59" s="270"/>
-      <c r="K59" s="271">
+      <c r="J59" s="290"/>
+      <c r="K59" s="291">
         <f>K55+K57</f>
         <v>18669.830000000133</v>
       </c>
-      <c r="L59" s="271"/>
+      <c r="L59" s="291"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -15940,6 +15954,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -15949,18 +15975,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17411,8 +17425,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView topLeftCell="G19" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17435,23 +17449,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="292"/>
-      <c r="C1" s="294" t="s">
+      <c r="B1" s="274"/>
+      <c r="C1" s="276" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
-      <c r="F1" s="295"/>
-      <c r="G1" s="295"/>
-      <c r="H1" s="295"/>
-      <c r="I1" s="295"/>
-      <c r="J1" s="295"/>
-      <c r="K1" s="295"/>
-      <c r="L1" s="295"/>
-      <c r="M1" s="295"/>
+      <c r="D1" s="277"/>
+      <c r="E1" s="277"/>
+      <c r="F1" s="277"/>
+      <c r="G1" s="277"/>
+      <c r="H1" s="277"/>
+      <c r="I1" s="277"/>
+      <c r="J1" s="277"/>
+      <c r="K1" s="277"/>
+      <c r="L1" s="277"/>
+      <c r="M1" s="277"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="293"/>
+      <c r="B2" s="275"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -17461,21 +17475,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="297"/>
+      <c r="B3" s="278" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="279"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="298" t="s">
+      <c r="H3" s="280" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="298"/>
+      <c r="I3" s="280"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="265" t="s">
+      <c r="R3" s="285" t="s">
         <v>38</v>
       </c>
     </row>
@@ -17490,14 +17504,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="299" t="s">
+      <c r="E4" s="281" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="300"/>
-      <c r="H4" s="301" t="s">
+      <c r="F4" s="282"/>
+      <c r="H4" s="283" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="302"/>
+      <c r="I4" s="284"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -17507,11 +17521,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="272" t="s">
+      <c r="P4" s="292" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="273"/>
-      <c r="R4" s="266"/>
+      <c r="Q4" s="293"/>
+      <c r="R4" s="286"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -19154,11 +19168,11 @@
       <c r="L40" s="75">
         <v>30225</v>
       </c>
-      <c r="M40" s="274">
+      <c r="M40" s="294">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="276">
+      <c r="N40" s="296">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -19184,8 +19198,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="246"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="275"/>
-      <c r="N41" s="277"/>
+      <c r="M41" s="295"/>
+      <c r="N41" s="297"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -19400,29 +19414,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="278" t="s">
+      <c r="H53" s="298" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="279"/>
+      <c r="I53" s="299"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="280">
+      <c r="K53" s="300">
         <f>I51+L51</f>
         <v>86124</v>
       </c>
-      <c r="L53" s="281"/>
-      <c r="M53" s="282">
+      <c r="L53" s="301"/>
+      <c r="M53" s="302">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="283"/>
+      <c r="N53" s="303"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="284" t="s">
+      <c r="D54" s="304" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="284"/>
+      <c r="E54" s="304"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2185028</v>
@@ -19433,22 +19447,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="285" t="s">
+      <c r="D55" s="305" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="285"/>
+      <c r="E55" s="305"/>
       <c r="F55" s="115">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="286" t="s">
+      <c r="I55" s="306" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="287"/>
-      <c r="K55" s="288">
+      <c r="J55" s="307"/>
+      <c r="K55" s="308">
         <f>F57+F58+F59</f>
         <v>266670.11000000004</v>
       </c>
-      <c r="L55" s="289"/>
+      <c r="L55" s="309"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -19479,11 +19493,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="290">
+      <c r="K57" s="310">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="291"/>
+      <c r="L57" s="311"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -19500,20 +19514,20 @@
       <c r="C59" s="133">
         <v>44682</v>
       </c>
-      <c r="D59" s="267" t="s">
+      <c r="D59" s="287" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="268"/>
+      <c r="E59" s="288"/>
       <c r="F59" s="134">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="269"/>
-      <c r="J59" s="270"/>
-      <c r="K59" s="271">
+      <c r="I59" s="289"/>
+      <c r="J59" s="290"/>
+      <c r="K59" s="291">
         <f>K55+K57</f>
         <v>47252.740000000049</v>
       </c>
-      <c r="L59" s="271"/>
+      <c r="L59" s="291"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -19657,6 +19671,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -19666,18 +19692,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21132,8 +21146,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="J3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21156,23 +21170,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="292"/>
-      <c r="C1" s="294" t="s">
+      <c r="B1" s="274"/>
+      <c r="C1" s="276" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
-      <c r="F1" s="295"/>
-      <c r="G1" s="295"/>
-      <c r="H1" s="295"/>
-      <c r="I1" s="295"/>
-      <c r="J1" s="295"/>
-      <c r="K1" s="295"/>
-      <c r="L1" s="295"/>
-      <c r="M1" s="295"/>
+      <c r="D1" s="277"/>
+      <c r="E1" s="277"/>
+      <c r="F1" s="277"/>
+      <c r="G1" s="277"/>
+      <c r="H1" s="277"/>
+      <c r="I1" s="277"/>
+      <c r="J1" s="277"/>
+      <c r="K1" s="277"/>
+      <c r="L1" s="277"/>
+      <c r="M1" s="277"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="293"/>
+      <c r="B2" s="275"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -21182,21 +21196,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="297"/>
+      <c r="B3" s="278" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="279"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="298" t="s">
+      <c r="H3" s="280" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="298"/>
+      <c r="I3" s="280"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="265" t="s">
+      <c r="R3" s="285" t="s">
         <v>38</v>
       </c>
     </row>
@@ -21211,14 +21225,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="299" t="s">
+      <c r="E4" s="281" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="300"/>
-      <c r="H4" s="301" t="s">
+      <c r="F4" s="282"/>
+      <c r="H4" s="283" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="302"/>
+      <c r="I4" s="284"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -21228,11 +21242,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="272" t="s">
+      <c r="P4" s="292" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="273"/>
-      <c r="R4" s="266"/>
+      <c r="Q4" s="293"/>
+      <c r="R4" s="286"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -21377,37 +21391,45 @@
         <v>44686</v>
       </c>
       <c r="C8" s="26">
-        <v>0</v>
-      </c>
-      <c r="D8" s="41"/>
+        <v>1360</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>47</v>
+      </c>
       <c r="E8" s="28">
         <v>44686</v>
       </c>
-      <c r="F8" s="29"/>
+      <c r="F8" s="29">
+        <v>58940</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="30">
         <v>44686</v>
       </c>
-      <c r="I8" s="31"/>
+      <c r="I8" s="31">
+        <v>28</v>
+      </c>
       <c r="J8" s="44"/>
       <c r="K8" s="45"/>
       <c r="L8" s="40"/>
       <c r="M8" s="32">
-        <v>0</v>
+        <f>52916+15000</f>
+        <v>67916</v>
       </c>
       <c r="N8" s="33">
-        <v>0</v>
+        <v>897</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70201</v>
       </c>
       <c r="Q8" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="184">
+        <v>11261</v>
+      </c>
       <c r="S8">
         <v>9</v>
       </c>
@@ -21424,17 +21446,22 @@
       <c r="E9" s="28">
         <v>44687</v>
       </c>
-      <c r="F9" s="29"/>
+      <c r="F9" s="29">
+        <v>98700</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="30">
         <v>44687</v>
       </c>
-      <c r="I9" s="31"/>
+      <c r="I9" s="31">
+        <v>85</v>
+      </c>
       <c r="J9" s="38"/>
       <c r="K9" s="46"/>
       <c r="L9" s="40"/>
       <c r="M9" s="32">
-        <v>0</v>
+        <f>20000+40000+38615</f>
+        <v>98615</v>
       </c>
       <c r="N9" s="33">
         <v>0</v>
@@ -21442,7 +21469,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="34">
         <f>N9+M9+L9+I9+C9</f>
-        <v>0</v>
+        <v>98700</v>
       </c>
       <c r="Q9" s="13">
         <f t="shared" si="1"/>
@@ -21459,31 +21486,38 @@
         <v>44688</v>
       </c>
       <c r="C10" s="26">
-        <v>0</v>
-      </c>
-      <c r="D10" s="36"/>
+        <v>7184</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>49</v>
+      </c>
       <c r="E10" s="28">
         <v>44688</v>
       </c>
-      <c r="F10" s="29"/>
+      <c r="F10" s="29">
+        <v>102747</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="30">
         <v>44688</v>
       </c>
-      <c r="I10" s="31"/>
+      <c r="I10" s="31">
+        <v>60</v>
+      </c>
       <c r="J10" s="38"/>
       <c r="K10" s="47"/>
       <c r="L10" s="48"/>
       <c r="M10" s="32">
-        <v>0</v>
+        <f>40000+47403</f>
+        <v>87403</v>
       </c>
       <c r="N10" s="33">
-        <v>0</v>
+        <v>8100</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>102747</v>
       </c>
       <c r="Q10" s="13">
         <f t="shared" si="1"/>
@@ -21503,31 +21537,44 @@
         <v>44689</v>
       </c>
       <c r="C11" s="26">
-        <v>0</v>
-      </c>
-      <c r="D11" s="36"/>
+        <v>5204</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>49</v>
+      </c>
       <c r="E11" s="28">
         <v>44689</v>
       </c>
-      <c r="F11" s="29"/>
+      <c r="F11" s="29">
+        <v>114024</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="30">
         <v>44689</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="40"/>
+      <c r="I11" s="31">
+        <v>22</v>
+      </c>
+      <c r="J11" s="44">
+        <v>44689</v>
+      </c>
+      <c r="K11" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="L11" s="40">
+        <v>9717</v>
+      </c>
       <c r="M11" s="32">
-        <v>0</v>
+        <f>80000+18221</f>
+        <v>98221</v>
       </c>
       <c r="N11" s="33">
-        <v>0</v>
+        <v>860</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="34">
         <f>N11+M11+L11+I11+C11</f>
-        <v>0</v>
+        <v>114024</v>
       </c>
       <c r="Q11" s="13">
         <f>P11-F11</f>
@@ -21546,35 +21593,42 @@
         <v>44690</v>
       </c>
       <c r="C12" s="26">
-        <v>0</v>
-      </c>
-      <c r="D12" s="36"/>
+        <v>2800</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>47</v>
+      </c>
       <c r="E12" s="28">
         <v>44690</v>
       </c>
-      <c r="F12" s="29"/>
+      <c r="F12" s="29">
+        <v>85296</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="30">
         <v>44690</v>
       </c>
-      <c r="I12" s="31"/>
+      <c r="I12" s="31">
+        <v>39</v>
+      </c>
       <c r="J12" s="38"/>
       <c r="K12" s="50"/>
       <c r="L12" s="40"/>
       <c r="M12" s="32">
-        <v>0</v>
+        <f>57065+24240+200</f>
+        <v>81505</v>
       </c>
       <c r="N12" s="33">
-        <v>0</v>
+        <v>1152</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85496</v>
       </c>
       <c r="Q12" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R12" s="8"/>
       <c r="S12">
@@ -21587,31 +21641,38 @@
         <v>44691</v>
       </c>
       <c r="C13" s="26">
-        <v>0</v>
-      </c>
-      <c r="D13" s="41"/>
+        <v>800</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>47</v>
+      </c>
       <c r="E13" s="28">
         <v>44691</v>
       </c>
-      <c r="F13" s="29"/>
+      <c r="F13" s="29">
+        <v>92517</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="30">
         <v>44691</v>
       </c>
-      <c r="I13" s="31"/>
+      <c r="I13" s="31">
+        <v>19</v>
+      </c>
       <c r="J13" s="38"/>
       <c r="K13" s="39"/>
       <c r="L13" s="40"/>
       <c r="M13" s="32">
-        <v>0</v>
+        <f>20000+40000+31098</f>
+        <v>91098</v>
       </c>
       <c r="N13" s="33">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92517</v>
       </c>
       <c r="Q13" s="13">
         <f t="shared" si="1"/>
@@ -21634,25 +21695,29 @@
       <c r="E14" s="28">
         <v>44692</v>
       </c>
-      <c r="F14" s="29"/>
+      <c r="F14" s="29">
+        <v>35612</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="30">
         <v>44692</v>
       </c>
-      <c r="I14" s="31"/>
+      <c r="I14" s="31">
+        <v>309</v>
+      </c>
       <c r="J14" s="38"/>
       <c r="K14" s="45"/>
       <c r="L14" s="40"/>
       <c r="M14" s="32">
-        <v>0</v>
+        <v>35029</v>
       </c>
       <c r="N14" s="33">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35612</v>
       </c>
       <c r="Q14" s="13">
         <f t="shared" si="1"/>
@@ -21669,30 +21734,37 @@
         <v>44693</v>
       </c>
       <c r="C15" s="26">
-        <v>0</v>
-      </c>
-      <c r="D15" s="51"/>
+        <v>18388</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>49</v>
+      </c>
       <c r="E15" s="28">
         <v>44693</v>
       </c>
-      <c r="F15" s="29"/>
+      <c r="F15" s="29">
+        <v>69146</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="30">
         <v>44693</v>
       </c>
-      <c r="I15" s="31"/>
+      <c r="I15" s="31">
+        <v>90</v>
+      </c>
       <c r="J15" s="38"/>
       <c r="K15" s="45"/>
       <c r="L15" s="40"/>
       <c r="M15" s="32">
-        <v>0</v>
+        <f>30668+20000</f>
+        <v>50668</v>
       </c>
       <c r="N15" s="33">
         <v>0</v>
       </c>
       <c r="P15" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>69146</v>
       </c>
       <c r="Q15" s="13">
         <f t="shared" si="1"/>
@@ -21715,24 +21787,29 @@
       <c r="E16" s="28">
         <v>44694</v>
       </c>
-      <c r="F16" s="29"/>
+      <c r="F16" s="29">
+        <v>98563</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="30">
         <v>44694</v>
       </c>
-      <c r="I16" s="31"/>
+      <c r="I16" s="31">
+        <v>220</v>
+      </c>
       <c r="J16" s="38"/>
       <c r="K16" s="45"/>
       <c r="L16" s="9"/>
       <c r="M16" s="32">
-        <v>0</v>
+        <f>63232+25000</f>
+        <v>88232</v>
       </c>
       <c r="N16" s="33">
-        <v>0</v>
+        <v>10111</v>
       </c>
       <c r="P16" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98563</v>
       </c>
       <c r="Q16" s="13">
         <f t="shared" si="1"/>
@@ -21751,30 +21828,43 @@
         <v>44695</v>
       </c>
       <c r="C17" s="26">
-        <v>0</v>
-      </c>
-      <c r="D17" s="41"/>
+        <v>1411</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>279</v>
+      </c>
       <c r="E17" s="28">
         <v>44695</v>
       </c>
-      <c r="F17" s="29"/>
+      <c r="F17" s="29">
+        <v>149845</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="30">
         <v>44695</v>
       </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="48"/>
+      <c r="I17" s="31">
+        <v>364</v>
+      </c>
+      <c r="J17" s="38">
+        <v>44695</v>
+      </c>
+      <c r="K17" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="L17" s="48">
+        <v>11900</v>
+      </c>
       <c r="M17" s="32">
-        <v>0</v>
+        <f>12366+41750+45477+25000</f>
+        <v>124593</v>
       </c>
       <c r="N17" s="33">
-        <v>0</v>
+        <v>11577</v>
       </c>
       <c r="P17" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>149845</v>
       </c>
       <c r="Q17" s="13">
         <f t="shared" si="1"/>
@@ -21797,24 +21887,29 @@
       <c r="E18" s="28">
         <v>44696</v>
       </c>
-      <c r="F18" s="29"/>
+      <c r="F18" s="29">
+        <v>122601</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="30">
         <v>44696</v>
       </c>
-      <c r="I18" s="31"/>
+      <c r="I18" s="31">
+        <v>0</v>
+      </c>
       <c r="J18" s="38"/>
       <c r="K18" s="53"/>
       <c r="L18" s="40"/>
       <c r="M18" s="32">
-        <v>0</v>
+        <f>95000+26901</f>
+        <v>121901</v>
       </c>
       <c r="N18" s="33">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="P18" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>122601</v>
       </c>
       <c r="Q18" s="13">
         <f t="shared" si="1"/>
@@ -21837,29 +21932,34 @@
       <c r="E19" s="28">
         <v>44697</v>
       </c>
-      <c r="F19" s="29"/>
+      <c r="F19" s="29">
+        <v>62516</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="30">
         <v>44697</v>
       </c>
-      <c r="I19" s="31"/>
+      <c r="I19" s="31">
+        <v>59</v>
+      </c>
       <c r="J19" s="38"/>
       <c r="K19" s="54"/>
       <c r="L19" s="55"/>
       <c r="M19" s="32">
-        <v>0</v>
+        <f>22000+39329</f>
+        <v>61329</v>
       </c>
       <c r="N19" s="33">
-        <v>0</v>
+        <v>1130</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>62518</v>
       </c>
       <c r="Q19" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R19" s="8"/>
       <c r="S19">
@@ -21878,24 +21978,29 @@
       <c r="E20" s="28">
         <v>44698</v>
       </c>
-      <c r="F20" s="29"/>
+      <c r="F20" s="29">
+        <v>87181</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="30">
         <v>44698</v>
       </c>
-      <c r="I20" s="31"/>
+      <c r="I20" s="31">
+        <v>48</v>
+      </c>
       <c r="J20" s="38"/>
       <c r="K20" s="56"/>
       <c r="L20" s="48"/>
       <c r="M20" s="32">
-        <v>0</v>
+        <f>36535+50000</f>
+        <v>86535</v>
       </c>
       <c r="N20" s="33">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="P20" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>87181</v>
       </c>
       <c r="Q20" s="13">
         <f t="shared" si="1"/>
@@ -21912,30 +22017,37 @@
         <v>44699</v>
       </c>
       <c r="C21" s="26">
-        <v>0</v>
-      </c>
-      <c r="D21" s="36"/>
+        <v>2100</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>47</v>
+      </c>
       <c r="E21" s="28">
         <v>44699</v>
       </c>
-      <c r="F21" s="29"/>
+      <c r="F21" s="29">
+        <v>43454</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="30">
         <v>44699</v>
       </c>
-      <c r="I21" s="31"/>
+      <c r="I21" s="31">
+        <v>90</v>
+      </c>
       <c r="J21" s="38"/>
       <c r="K21" s="57"/>
       <c r="L21" s="48"/>
       <c r="M21" s="32">
-        <v>0</v>
+        <f>31220+10000</f>
+        <v>41220</v>
       </c>
       <c r="N21" s="33">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="P21" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43454</v>
       </c>
       <c r="Q21" s="13">
         <f t="shared" si="1"/>
@@ -22595,23 +22707,23 @@
       <c r="H40" s="37"/>
       <c r="I40" s="88"/>
       <c r="J40" s="73"/>
-      <c r="K40" s="312"/>
+      <c r="K40" s="273"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="274">
+      <c r="M40" s="294">
         <f>SUM(M5:M39)</f>
-        <v>169416</v>
-      </c>
-      <c r="N40" s="276">
+        <v>1303681</v>
+      </c>
+      <c r="N40" s="296">
         <f>SUM(N5:N39)</f>
-        <v>1374</v>
+        <v>37417</v>
       </c>
       <c r="P40" s="34">
         <f>SUM(P5:P39)</f>
-        <v>171045</v>
+        <v>1403650</v>
       </c>
       <c r="Q40" s="13">
         <f t="shared" si="1"/>
-        <v>171045</v>
+        <v>1403650</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22627,8 +22739,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="246"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="275"/>
-      <c r="N41" s="277"/>
+      <c r="M41" s="295"/>
+      <c r="N41" s="297"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -22801,7 +22913,7 @@
       </c>
       <c r="C51" s="106">
         <f>SUM(C5:C50)</f>
-        <v>0</v>
+        <v>39247</v>
       </c>
       <c r="D51" s="107"/>
       <c r="E51" s="108" t="s">
@@ -22809,7 +22921,7 @@
       </c>
       <c r="F51" s="109">
         <f>SUM(F5:F50)</f>
-        <v>171044</v>
+        <v>1392186</v>
       </c>
       <c r="G51" s="107"/>
       <c r="H51" s="110" t="s">
@@ -22817,7 +22929,7 @@
       </c>
       <c r="I51" s="111">
         <f>SUM(I5:I50)</f>
-        <v>255</v>
+        <v>1688</v>
       </c>
       <c r="J51" s="112"/>
       <c r="K51" s="113" t="s">
@@ -22825,7 +22937,7 @@
       </c>
       <c r="L51" s="114">
         <f>SUM(L5:L50)</f>
-        <v>0</v>
+        <v>21617</v>
       </c>
       <c r="M51" s="115"/>
       <c r="N51" s="115"/>
@@ -22843,32 +22955,32 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="278" t="s">
+      <c r="H53" s="298" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="279"/>
+      <c r="I53" s="299"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="280">
+      <c r="K53" s="300">
         <f>I51+L51</f>
-        <v>255</v>
-      </c>
-      <c r="L53" s="281"/>
-      <c r="M53" s="282">
+        <v>23305</v>
+      </c>
+      <c r="L53" s="301"/>
+      <c r="M53" s="302">
         <f>N40+M40</f>
-        <v>170790</v>
-      </c>
-      <c r="N53" s="283"/>
+        <v>1341098</v>
+      </c>
+      <c r="N53" s="303"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="284" t="s">
+      <c r="D54" s="304" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="284"/>
+      <c r="E54" s="304"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
-        <v>170789</v>
+        <v>1329634</v>
       </c>
       <c r="I54" s="121"/>
       <c r="J54" s="122"/>
@@ -22876,22 +22988,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="285" t="s">
+      <c r="D55" s="305" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="285"/>
+      <c r="E55" s="305"/>
       <c r="F55" s="115">
         <v>0</v>
       </c>
-      <c r="I55" s="286" t="s">
+      <c r="I55" s="306" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="287"/>
-      <c r="K55" s="288">
+      <c r="J55" s="307"/>
+      <c r="K55" s="308">
         <f>F57+F58+F59</f>
-        <v>170789</v>
-      </c>
-      <c r="L55" s="289"/>
+        <v>1329634</v>
+      </c>
+      <c r="L55" s="309"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -22915,18 +23027,18 @@
       </c>
       <c r="F57" s="115">
         <f>SUM(F54:F56)</f>
-        <v>170789</v>
+        <v>1329634</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="129" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="290">
+      <c r="K57" s="310">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="291"/>
+      <c r="L57" s="311"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -22941,20 +23053,20 @@
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C59" s="133"/>
-      <c r="D59" s="267" t="s">
+      <c r="D59" s="287" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="268"/>
+      <c r="E59" s="288"/>
       <c r="F59" s="134">
         <v>0</v>
       </c>
-      <c r="I59" s="269"/>
-      <c r="J59" s="270"/>
-      <c r="K59" s="271">
+      <c r="I59" s="289"/>
+      <c r="J59" s="290"/>
+      <c r="K59" s="291">
         <f>K55+K57</f>
-        <v>-127085.59000000003</v>
-      </c>
-      <c r="L59" s="271"/>
+        <v>1031759.4099999999</v>
+      </c>
+      <c r="L59" s="291"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -23098,6 +23210,20 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
@@ -23105,20 +23231,6 @@
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
     <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/BALANCE   HERRADURA  MAYO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/BALANCE   HERRADURA  MAYO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="311">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1167,6 +1167,96 @@
   </si>
   <si>
     <t>NOMINA # 20</t>
+  </si>
+  <si>
+    <t>20706 C</t>
+  </si>
+  <si>
+    <t>20835 C</t>
+  </si>
+  <si>
+    <t>20860 C</t>
+  </si>
+  <si>
+    <t>20866 C</t>
+  </si>
+  <si>
+    <t>20896 C</t>
+  </si>
+  <si>
+    <t>21054 C</t>
+  </si>
+  <si>
+    <t>21071 C</t>
+  </si>
+  <si>
+    <t>21121 C</t>
+  </si>
+  <si>
+    <t>21231 C</t>
+  </si>
+  <si>
+    <t>21240 C</t>
+  </si>
+  <si>
+    <t>21382 C</t>
+  </si>
+  <si>
+    <t>21466 C</t>
+  </si>
+  <si>
+    <t>21473 C</t>
+  </si>
+  <si>
+    <t>21551 C</t>
+  </si>
+  <si>
+    <t>21739 C</t>
+  </si>
+  <si>
+    <t>21898 C</t>
+  </si>
+  <si>
+    <t>21986 C</t>
+  </si>
+  <si>
+    <t>22046 C</t>
+  </si>
+  <si>
+    <t>22131 C</t>
+  </si>
+  <si>
+    <t>22278 C</t>
+  </si>
+  <si>
+    <t>22413 C</t>
+  </si>
+  <si>
+    <t>22508 C</t>
+  </si>
+  <si>
+    <t>22642 C</t>
+  </si>
+  <si>
+    <t>22873 C</t>
+  </si>
+  <si>
+    <t>22982 C</t>
+  </si>
+  <si>
+    <t>23013 C</t>
+  </si>
+  <si>
+    <t>23014 C</t>
+  </si>
+  <si>
+    <t>23115 C</t>
+  </si>
+  <si>
+    <t>23242 C</t>
+  </si>
+  <si>
+    <t>23292 C</t>
   </si>
 </sst>
 </file>
@@ -2952,39 +3042,6 @@
     <xf numFmtId="16" fontId="27" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3064,6 +3121,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5517,23 +5607,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="274"/>
-      <c r="C1" s="276" t="s">
+      <c r="B1" s="301"/>
+      <c r="C1" s="303" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="277"/>
-      <c r="E1" s="277"/>
-      <c r="F1" s="277"/>
-      <c r="G1" s="277"/>
-      <c r="H1" s="277"/>
-      <c r="I1" s="277"/>
-      <c r="J1" s="277"/>
-      <c r="K1" s="277"/>
-      <c r="L1" s="277"/>
-      <c r="M1" s="277"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="304"/>
+      <c r="J1" s="304"/>
+      <c r="K1" s="304"/>
+      <c r="L1" s="304"/>
+      <c r="M1" s="304"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="275"/>
+      <c r="B2" s="302"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -5543,21 +5633,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="278" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="279"/>
+      <c r="B3" s="305" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="306"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="280" t="s">
+      <c r="H3" s="307" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="280"/>
+      <c r="I3" s="307"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="285" t="s">
+      <c r="R3" s="274" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5572,14 +5662,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="281" t="s">
+      <c r="E4" s="308" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="282"/>
-      <c r="H4" s="283" t="s">
+      <c r="F4" s="309"/>
+      <c r="H4" s="310" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="284"/>
+      <c r="I4" s="311"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -5589,11 +5679,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="292" t="s">
+      <c r="P4" s="281" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="293"/>
-      <c r="R4" s="286"/>
+      <c r="Q4" s="282"/>
+      <c r="R4" s="275"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -7094,11 +7184,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="294">
+      <c r="M40" s="283">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="296">
+      <c r="N40" s="285">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -7124,8 +7214,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="295"/>
-      <c r="N41" s="297"/>
+      <c r="M41" s="284"/>
+      <c r="N41" s="286"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -7340,29 +7430,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="298" t="s">
+      <c r="H53" s="287" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="299"/>
+      <c r="I53" s="288"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="300">
+      <c r="K53" s="289">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="301"/>
-      <c r="M53" s="302">
+      <c r="L53" s="290"/>
+      <c r="M53" s="291">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="303"/>
+      <c r="N53" s="292"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="304" t="s">
+      <c r="D54" s="293" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="304"/>
+      <c r="E54" s="293"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -7373,22 +7463,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="305" t="s">
+      <c r="D55" s="294" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="305"/>
+      <c r="E55" s="294"/>
       <c r="F55" s="115">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="306" t="s">
+      <c r="I55" s="295" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="307"/>
-      <c r="K55" s="308">
+      <c r="J55" s="296"/>
+      <c r="K55" s="297">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="309"/>
+      <c r="L55" s="298"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -7419,11 +7509,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="310">
+      <c r="K57" s="299">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="311"/>
+      <c r="L57" s="300"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -7440,22 +7530,22 @@
       <c r="C59" s="133">
         <v>44591</v>
       </c>
-      <c r="D59" s="287" t="s">
+      <c r="D59" s="276" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="288"/>
+      <c r="E59" s="277"/>
       <c r="F59" s="134">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="289" t="s">
+      <c r="I59" s="278" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="290"/>
-      <c r="K59" s="291">
+      <c r="J59" s="279"/>
+      <c r="K59" s="280">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="291"/>
+      <c r="L59" s="280"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -7599,6 +7689,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -7614,12 +7710,6 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7635,8 +7725,8 @@
   </sheetPr>
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7683,336 +7773,516 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="265"/>
-      <c r="B3" s="266"/>
-      <c r="C3" s="267"/>
+      <c r="A3" s="265">
+        <v>44683</v>
+      </c>
+      <c r="B3" s="266" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="267">
+        <v>12615</v>
+      </c>
       <c r="D3" s="268"/>
       <c r="E3" s="267"/>
       <c r="F3" s="158">
         <f>C3-E3</f>
-        <v>0</v>
+        <v>12615</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="269"/>
-      <c r="B4" s="270"/>
-      <c r="C4" s="132"/>
+      <c r="A4" s="269">
+        <v>44684</v>
+      </c>
+      <c r="B4" s="270" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" s="132">
+        <v>17596.349999999999</v>
+      </c>
       <c r="D4" s="271"/>
       <c r="E4" s="132"/>
       <c r="F4" s="196">
         <f>C4-E4+F3</f>
-        <v>0</v>
+        <v>30211.35</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="269"/>
-      <c r="B5" s="270"/>
-      <c r="C5" s="132"/>
+      <c r="A5" s="269">
+        <v>44684</v>
+      </c>
+      <c r="B5" s="270" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="132">
+        <v>74815.3</v>
+      </c>
       <c r="D5" s="271"/>
       <c r="E5" s="132"/>
       <c r="F5" s="196">
         <f t="shared" ref="F5:F68" si="0">C5-E5+F4</f>
-        <v>0</v>
+        <v>105026.65</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="269"/>
-      <c r="B6" s="270"/>
-      <c r="C6" s="132"/>
+      <c r="A6" s="269">
+        <v>44684</v>
+      </c>
+      <c r="B6" s="270" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" s="132">
+        <v>41825.300000000003</v>
+      </c>
       <c r="D6" s="271"/>
       <c r="E6" s="132"/>
       <c r="F6" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>146851.95000000001</v>
       </c>
       <c r="G6" s="162"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="269"/>
-      <c r="B7" s="270"/>
-      <c r="C7" s="132"/>
+      <c r="A7" s="269">
+        <v>44685</v>
+      </c>
+      <c r="B7" s="270" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" s="132">
+        <v>16650.34</v>
+      </c>
       <c r="D7" s="271"/>
       <c r="E7" s="132"/>
       <c r="F7" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>163502.29</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="269"/>
-      <c r="B8" s="270"/>
-      <c r="C8" s="132"/>
+      <c r="A8" s="269">
+        <v>44686</v>
+      </c>
+      <c r="B8" s="270" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" s="132">
+        <v>123347.09</v>
+      </c>
       <c r="D8" s="271"/>
       <c r="E8" s="132"/>
       <c r="F8" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>286849.38</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="269"/>
-      <c r="B9" s="270"/>
-      <c r="C9" s="132"/>
+      <c r="A9" s="269">
+        <v>44686</v>
+      </c>
+      <c r="B9" s="270" t="s">
+        <v>287</v>
+      </c>
+      <c r="C9" s="132">
+        <v>8068.6</v>
+      </c>
       <c r="D9" s="271"/>
       <c r="E9" s="132"/>
       <c r="F9" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>294917.98</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="269"/>
-      <c r="B10" s="270"/>
-      <c r="C10" s="132"/>
+      <c r="A10" s="269">
+        <v>44687</v>
+      </c>
+      <c r="B10" s="270" t="s">
+        <v>288</v>
+      </c>
+      <c r="C10" s="132">
+        <v>150685.6</v>
+      </c>
       <c r="D10" s="271"/>
       <c r="E10" s="132"/>
       <c r="F10" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>445603.57999999996</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="269"/>
-      <c r="B11" s="270"/>
-      <c r="C11" s="132"/>
+      <c r="A11" s="269">
+        <v>44687</v>
+      </c>
+      <c r="B11" s="270" t="s">
+        <v>289</v>
+      </c>
+      <c r="C11" s="132">
+        <v>7806</v>
+      </c>
       <c r="D11" s="271"/>
       <c r="E11" s="132"/>
       <c r="F11" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>453409.57999999996</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="269"/>
-      <c r="B12" s="270"/>
-      <c r="C12" s="132"/>
+      <c r="A12" s="269">
+        <v>44688</v>
+      </c>
+      <c r="B12" s="270" t="s">
+        <v>290</v>
+      </c>
+      <c r="C12" s="132">
+        <v>3240</v>
+      </c>
       <c r="D12" s="271"/>
       <c r="E12" s="132"/>
       <c r="F12" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>456649.57999999996</v>
       </c>
       <c r="G12" s="162"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="269"/>
-      <c r="B13" s="270"/>
-      <c r="C13" s="132"/>
+      <c r="A13" s="269">
+        <v>44688</v>
+      </c>
+      <c r="B13" s="270" t="s">
+        <v>291</v>
+      </c>
+      <c r="C13" s="132">
+        <v>75100.639999999999</v>
+      </c>
       <c r="D13" s="271"/>
       <c r="E13" s="132"/>
       <c r="F13" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>531750.22</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="269"/>
-      <c r="B14" s="270"/>
-      <c r="C14" s="132"/>
+      <c r="A14" s="269">
+        <v>44690</v>
+      </c>
+      <c r="B14" s="270" t="s">
+        <v>292</v>
+      </c>
+      <c r="C14" s="132">
+        <v>119272.64</v>
+      </c>
       <c r="D14" s="271"/>
       <c r="E14" s="132"/>
       <c r="F14" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>651022.86</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="269"/>
-      <c r="B15" s="270"/>
-      <c r="C15" s="132"/>
+      <c r="A15" s="269">
+        <v>44690</v>
+      </c>
+      <c r="B15" s="270" t="s">
+        <v>293</v>
+      </c>
+      <c r="C15" s="132">
+        <v>1299.5999999999999</v>
+      </c>
       <c r="D15" s="271"/>
       <c r="E15" s="132"/>
       <c r="F15" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>652322.46</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="269"/>
-      <c r="B16" s="270"/>
-      <c r="C16" s="132"/>
+      <c r="A16" s="269">
+        <v>44690</v>
+      </c>
+      <c r="B16" s="270" t="s">
+        <v>294</v>
+      </c>
+      <c r="C16" s="132">
+        <v>259440</v>
+      </c>
       <c r="D16" s="271"/>
       <c r="E16" s="132"/>
       <c r="F16" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>911762.46</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="269"/>
-      <c r="B17" s="270"/>
-      <c r="C17" s="132"/>
+      <c r="A17" s="269">
+        <v>44692</v>
+      </c>
+      <c r="B17" s="270" t="s">
+        <v>295</v>
+      </c>
+      <c r="C17" s="132">
+        <v>111401.12</v>
+      </c>
       <c r="D17" s="271"/>
       <c r="E17" s="132"/>
       <c r="F17" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1023163.58</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="269"/>
-      <c r="B18" s="270"/>
-      <c r="C18" s="132"/>
+      <c r="A18" s="269">
+        <v>44693</v>
+      </c>
+      <c r="B18" s="270" t="s">
+        <v>296</v>
+      </c>
+      <c r="C18" s="132">
+        <v>35804.199999999997</v>
+      </c>
       <c r="D18" s="271"/>
       <c r="E18" s="132"/>
       <c r="F18" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1058967.78</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="269"/>
-      <c r="B19" s="270"/>
-      <c r="C19" s="132"/>
+      <c r="A19" s="269">
+        <v>44694</v>
+      </c>
+      <c r="B19" s="270" t="s">
+        <v>297</v>
+      </c>
+      <c r="C19" s="132">
+        <v>1607.16</v>
+      </c>
       <c r="D19" s="271"/>
       <c r="E19" s="132"/>
       <c r="F19" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1060574.94</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="269"/>
-      <c r="B20" s="270"/>
-      <c r="C20" s="132"/>
+      <c r="A20" s="269">
+        <v>44694</v>
+      </c>
+      <c r="B20" s="270" t="s">
+        <v>298</v>
+      </c>
+      <c r="C20" s="132">
+        <v>110870.6</v>
+      </c>
       <c r="D20" s="271"/>
       <c r="E20" s="132"/>
       <c r="F20" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1171445.54</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="269"/>
-      <c r="B21" s="270"/>
-      <c r="C21" s="132"/>
+      <c r="A21" s="269">
+        <v>44695</v>
+      </c>
+      <c r="B21" s="270" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21" s="132">
+        <v>130766.36</v>
+      </c>
       <c r="D21" s="271"/>
       <c r="E21" s="132"/>
       <c r="F21" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1302211.9000000001</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="269"/>
-      <c r="B22" s="270"/>
-      <c r="C22" s="132"/>
+      <c r="A22" s="269">
+        <v>44697</v>
+      </c>
+      <c r="B22" s="270" t="s">
+        <v>300</v>
+      </c>
+      <c r="C22" s="132">
+        <v>114866.53</v>
+      </c>
       <c r="D22" s="271"/>
       <c r="E22" s="132"/>
       <c r="F22" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1417078.4300000002</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="269"/>
-      <c r="B23" s="270"/>
-      <c r="C23" s="132"/>
+      <c r="A23" s="269">
+        <v>44698</v>
+      </c>
+      <c r="B23" s="270" t="s">
+        <v>301</v>
+      </c>
+      <c r="C23" s="132">
+        <v>6227.2</v>
+      </c>
       <c r="D23" s="271"/>
       <c r="E23" s="132"/>
       <c r="F23" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1423305.6300000001</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="269"/>
-      <c r="B24" s="270"/>
-      <c r="C24" s="132"/>
+      <c r="A24" s="269">
+        <v>44699</v>
+      </c>
+      <c r="B24" s="270" t="s">
+        <v>302</v>
+      </c>
+      <c r="C24" s="132">
+        <v>66522.98</v>
+      </c>
       <c r="D24" s="271"/>
       <c r="E24" s="132"/>
       <c r="F24" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1489828.61</v>
       </c>
       <c r="G24" s="162"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="269"/>
-      <c r="B25" s="270"/>
-      <c r="C25" s="132"/>
+      <c r="A25" s="269">
+        <v>44700</v>
+      </c>
+      <c r="B25" s="270" t="s">
+        <v>303</v>
+      </c>
+      <c r="C25" s="132">
+        <v>98570.79</v>
+      </c>
       <c r="D25" s="271"/>
       <c r="E25" s="132"/>
       <c r="F25" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1588399.4000000001</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="269"/>
-      <c r="B26" s="270"/>
-      <c r="C26" s="132"/>
+      <c r="A26" s="269">
+        <v>44702</v>
+      </c>
+      <c r="B26" s="270" t="s">
+        <v>304</v>
+      </c>
+      <c r="C26" s="132">
+        <v>94991.4</v>
+      </c>
       <c r="D26" s="271"/>
       <c r="E26" s="132"/>
       <c r="F26" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1683390.8</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="269"/>
-      <c r="B27" s="270"/>
-      <c r="C27" s="132"/>
+      <c r="A27" s="269">
+        <v>44702</v>
+      </c>
+      <c r="B27" s="270" t="s">
+        <v>305</v>
+      </c>
+      <c r="C27" s="132">
+        <v>39581.199999999997</v>
+      </c>
       <c r="D27" s="271"/>
       <c r="E27" s="132"/>
       <c r="F27" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1722972</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="269"/>
-      <c r="B28" s="270"/>
-      <c r="C28" s="132"/>
+      <c r="A28" s="269">
+        <v>44702</v>
+      </c>
+      <c r="B28" s="270" t="s">
+        <v>306</v>
+      </c>
+      <c r="C28" s="132">
+        <v>83382</v>
+      </c>
       <c r="D28" s="271"/>
       <c r="E28" s="132"/>
       <c r="F28" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1806354</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="269"/>
-      <c r="B29" s="270"/>
-      <c r="C29" s="132"/>
+      <c r="A29" s="269">
+        <v>44702</v>
+      </c>
+      <c r="B29" s="270" t="s">
+        <v>307</v>
+      </c>
+      <c r="C29" s="132">
+        <v>1534.4</v>
+      </c>
       <c r="D29" s="271"/>
       <c r="E29" s="132"/>
       <c r="F29" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1807888.4</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="269"/>
-      <c r="B30" s="270"/>
-      <c r="C30" s="132"/>
+      <c r="A30" s="269">
+        <v>44704</v>
+      </c>
+      <c r="B30" s="270" t="s">
+        <v>308</v>
+      </c>
+      <c r="C30" s="132">
+        <v>58225.08</v>
+      </c>
       <c r="D30" s="269"/>
       <c r="E30" s="132"/>
       <c r="F30" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1866113.48</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="269"/>
-      <c r="B31" s="270"/>
-      <c r="C31" s="132"/>
+      <c r="A31" s="269">
+        <v>44705</v>
+      </c>
+      <c r="B31" s="270" t="s">
+        <v>309</v>
+      </c>
+      <c r="C31" s="132">
+        <v>24879.42</v>
+      </c>
       <c r="D31" s="271"/>
       <c r="E31" s="132"/>
       <c r="F31" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1890992.9</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="269"/>
-      <c r="B32" s="270"/>
-      <c r="C32" s="132"/>
+      <c r="A32" s="269">
+        <v>44705</v>
+      </c>
+      <c r="B32" s="270" t="s">
+        <v>310</v>
+      </c>
+      <c r="C32" s="132">
+        <v>480</v>
+      </c>
       <c r="D32" s="271"/>
       <c r="E32" s="132"/>
       <c r="F32" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
       <c r="G32" s="162"/>
     </row>
@@ -8024,7 +8294,7 @@
       <c r="E33" s="132"/>
       <c r="F33" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -8035,7 +8305,7 @@
       <c r="E34" s="132"/>
       <c r="F34" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -8046,7 +8316,7 @@
       <c r="E35" s="132"/>
       <c r="F35" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -8057,7 +8327,7 @@
       <c r="E36" s="132"/>
       <c r="F36" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -8068,7 +8338,7 @@
       <c r="E37" s="132"/>
       <c r="F37" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -8079,7 +8349,7 @@
       <c r="E38" s="132"/>
       <c r="F38" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -8090,7 +8360,7 @@
       <c r="E39" s="132"/>
       <c r="F39" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -8101,7 +8371,7 @@
       <c r="E40" s="86"/>
       <c r="F40" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -8112,7 +8382,7 @@
       <c r="E41" s="86"/>
       <c r="F41" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -8123,7 +8393,7 @@
       <c r="E42" s="86"/>
       <c r="F42" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8134,7 +8404,7 @@
       <c r="E43" s="86"/>
       <c r="F43" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8145,7 +8415,7 @@
       <c r="E44" s="86"/>
       <c r="F44" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8156,7 +8426,7 @@
       <c r="E45" s="86"/>
       <c r="F45" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8167,7 +8437,7 @@
       <c r="E46" s="86"/>
       <c r="F46" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8178,7 +8448,7 @@
       <c r="E47" s="86"/>
       <c r="F47" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8189,7 +8459,7 @@
       <c r="E48" s="86"/>
       <c r="F48" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8200,7 +8470,7 @@
       <c r="E49" s="86"/>
       <c r="F49" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8211,7 +8481,7 @@
       <c r="E50" s="86"/>
       <c r="F50" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8222,7 +8492,7 @@
       <c r="E51" s="86"/>
       <c r="F51" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8233,7 +8503,7 @@
       <c r="E52" s="86"/>
       <c r="F52" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8244,7 +8514,7 @@
       <c r="E53" s="86"/>
       <c r="F53" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8255,7 +8525,7 @@
       <c r="E54" s="86"/>
       <c r="F54" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8266,7 +8536,7 @@
       <c r="E55" s="86"/>
       <c r="F55" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8277,7 +8547,7 @@
       <c r="E56" s="86"/>
       <c r="F56" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8288,7 +8558,7 @@
       <c r="E57" s="86"/>
       <c r="F57" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8299,7 +8569,7 @@
       <c r="E58" s="86"/>
       <c r="F58" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8310,7 +8580,7 @@
       <c r="E59" s="86"/>
       <c r="F59" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8321,7 +8591,7 @@
       <c r="E60" s="86"/>
       <c r="F60" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8332,7 +8602,7 @@
       <c r="E61" s="86"/>
       <c r="F61" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8343,7 +8613,7 @@
       <c r="E62" s="34"/>
       <c r="F62" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8354,7 +8624,7 @@
       <c r="E63" s="34"/>
       <c r="F63" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8365,7 +8635,7 @@
       <c r="E64" s="34"/>
       <c r="F64" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8376,7 +8646,7 @@
       <c r="E65" s="34"/>
       <c r="F65" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8387,7 +8657,7 @@
       <c r="E66" s="34"/>
       <c r="F66" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8398,7 +8668,7 @@
       <c r="E67" s="34"/>
       <c r="F67" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8409,7 +8679,7 @@
       <c r="E68" s="86"/>
       <c r="F68" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8420,7 +8690,7 @@
       <c r="E69" s="86"/>
       <c r="F69" s="196">
         <f t="shared" ref="F69:F78" si="1">C69-E69+F68</f>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8431,7 +8701,7 @@
       <c r="E70" s="86"/>
       <c r="F70" s="196">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8442,7 +8712,7 @@
       <c r="E71" s="86"/>
       <c r="F71" s="196">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8453,7 +8723,7 @@
       <c r="E72" s="86"/>
       <c r="F72" s="196">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8464,7 +8734,7 @@
       <c r="E73" s="86"/>
       <c r="F73" s="196">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8475,7 +8745,7 @@
       <c r="E74" s="86"/>
       <c r="F74" s="196">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8486,7 +8756,7 @@
       <c r="E75" s="86"/>
       <c r="F75" s="196">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8497,7 +8767,7 @@
       <c r="E76" s="86"/>
       <c r="F76" s="196">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8508,7 +8778,7 @@
       <c r="E77" s="86"/>
       <c r="F77" s="196">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8521,7 +8791,7 @@
       <c r="E78" s="34"/>
       <c r="F78" s="196">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -8529,7 +8799,7 @@
       <c r="B79" s="232"/>
       <c r="C79" s="251">
         <f>SUM(C3:C78)</f>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
       <c r="D79" s="189"/>
       <c r="E79" s="178">
@@ -8538,7 +8808,7 @@
       </c>
       <c r="F79" s="179">
         <f>F78</f>
-        <v>0</v>
+        <v>1891472.9</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -10511,23 +10781,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="274"/>
-      <c r="C1" s="276" t="s">
+      <c r="B1" s="301"/>
+      <c r="C1" s="303" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="277"/>
-      <c r="E1" s="277"/>
-      <c r="F1" s="277"/>
-      <c r="G1" s="277"/>
-      <c r="H1" s="277"/>
-      <c r="I1" s="277"/>
-      <c r="J1" s="277"/>
-      <c r="K1" s="277"/>
-      <c r="L1" s="277"/>
-      <c r="M1" s="277"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="304"/>
+      <c r="J1" s="304"/>
+      <c r="K1" s="304"/>
+      <c r="L1" s="304"/>
+      <c r="M1" s="304"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="275"/>
+      <c r="B2" s="302"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -10537,21 +10807,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="278" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="279"/>
+      <c r="B3" s="305" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="306"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="280" t="s">
+      <c r="H3" s="307" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="280"/>
+      <c r="I3" s="307"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="285" t="s">
+      <c r="R3" s="274" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10566,14 +10836,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="281" t="s">
+      <c r="E4" s="308" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="282"/>
-      <c r="H4" s="283" t="s">
+      <c r="F4" s="309"/>
+      <c r="H4" s="310" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="284"/>
+      <c r="I4" s="311"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -10583,11 +10853,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="292" t="s">
+      <c r="P4" s="281" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="293"/>
-      <c r="R4" s="286"/>
+      <c r="Q4" s="282"/>
+      <c r="R4" s="275"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -12075,7 +12345,7 @@
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="296">
+      <c r="N40" s="285">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -12101,8 +12371,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="295"/>
-      <c r="N41" s="297"/>
+      <c r="M41" s="284"/>
+      <c r="N41" s="286"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -12317,29 +12587,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="298" t="s">
+      <c r="H53" s="287" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="299"/>
+      <c r="I53" s="288"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="300">
+      <c r="K53" s="289">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="301"/>
-      <c r="M53" s="302">
+      <c r="L53" s="290"/>
+      <c r="M53" s="291">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="303"/>
+      <c r="N53" s="292"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="304" t="s">
+      <c r="D54" s="293" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="304"/>
+      <c r="E54" s="293"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -12350,22 +12620,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="305" t="s">
+      <c r="D55" s="294" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="305"/>
+      <c r="E55" s="294"/>
       <c r="F55" s="115">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="306" t="s">
+      <c r="I55" s="295" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="307"/>
-      <c r="K55" s="308">
+      <c r="J55" s="296"/>
+      <c r="K55" s="297">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="309"/>
+      <c r="L55" s="298"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -12396,11 +12666,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="310">
+      <c r="K57" s="299">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="311"/>
+      <c r="L57" s="300"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -12417,22 +12687,22 @@
       <c r="C59" s="133">
         <v>44619</v>
       </c>
-      <c r="D59" s="287" t="s">
+      <c r="D59" s="276" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="288"/>
+      <c r="E59" s="277"/>
       <c r="F59" s="134">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="289" t="s">
+      <c r="I59" s="278" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="290"/>
-      <c r="K59" s="291">
+      <c r="J59" s="279"/>
+      <c r="K59" s="280">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="291"/>
+      <c r="L59" s="280"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -12576,6 +12846,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -12585,18 +12867,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13901,23 +14171,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="274"/>
-      <c r="C1" s="276" t="s">
+      <c r="B1" s="301"/>
+      <c r="C1" s="303" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="277"/>
-      <c r="E1" s="277"/>
-      <c r="F1" s="277"/>
-      <c r="G1" s="277"/>
-      <c r="H1" s="277"/>
-      <c r="I1" s="277"/>
-      <c r="J1" s="277"/>
-      <c r="K1" s="277"/>
-      <c r="L1" s="277"/>
-      <c r="M1" s="277"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="304"/>
+      <c r="J1" s="304"/>
+      <c r="K1" s="304"/>
+      <c r="L1" s="304"/>
+      <c r="M1" s="304"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="275"/>
+      <c r="B2" s="302"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -13927,21 +14197,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="278" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="279"/>
+      <c r="B3" s="305" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="306"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="280" t="s">
+      <c r="H3" s="307" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="280"/>
+      <c r="I3" s="307"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="285" t="s">
+      <c r="R3" s="274" t="s">
         <v>38</v>
       </c>
     </row>
@@ -13956,14 +14226,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="281" t="s">
+      <c r="E4" s="308" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="282"/>
-      <c r="H4" s="283" t="s">
+      <c r="F4" s="309"/>
+      <c r="H4" s="310" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="284"/>
+      <c r="I4" s="311"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -13973,11 +14243,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="292" t="s">
+      <c r="P4" s="281" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="293"/>
-      <c r="R4" s="286"/>
+      <c r="Q4" s="282"/>
+      <c r="R4" s="275"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -15445,11 +15715,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="294">
+      <c r="M40" s="283">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="296">
+      <c r="N40" s="285">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -15479,8 +15749,8 @@
       <c r="L41" s="75">
         <v>25678</v>
       </c>
-      <c r="M41" s="295"/>
-      <c r="N41" s="297"/>
+      <c r="M41" s="284"/>
+      <c r="N41" s="286"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -15695,29 +15965,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="298" t="s">
+      <c r="H53" s="287" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="299"/>
+      <c r="I53" s="288"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="300">
+      <c r="K53" s="289">
         <f>I51+L51</f>
         <v>82963.709999999992</v>
       </c>
-      <c r="L53" s="301"/>
-      <c r="M53" s="302">
+      <c r="L53" s="290"/>
+      <c r="M53" s="291">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N53" s="303"/>
+      <c r="N53" s="292"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="304" t="s">
+      <c r="D54" s="293" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="304"/>
+      <c r="E54" s="293"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1831731.29</v>
@@ -15728,22 +15998,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="305" t="s">
+      <c r="D55" s="294" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="305"/>
+      <c r="E55" s="294"/>
       <c r="F55" s="115">
         <v>-1848136.64</v>
       </c>
-      <c r="I55" s="306" t="s">
+      <c r="I55" s="295" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="307"/>
-      <c r="K55" s="308">
+      <c r="J55" s="296"/>
+      <c r="K55" s="297">
         <f>F57+F58+F59</f>
         <v>203012.02000000014</v>
       </c>
-      <c r="L55" s="309"/>
+      <c r="L55" s="298"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -15774,11 +16044,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="310">
+      <c r="K57" s="299">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L57" s="311"/>
+      <c r="L57" s="300"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -15795,22 +16065,22 @@
       <c r="C59" s="133">
         <v>44647</v>
       </c>
-      <c r="D59" s="287" t="s">
+      <c r="D59" s="276" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="288"/>
+      <c r="E59" s="277"/>
       <c r="F59" s="134">
         <v>219417.37</v>
       </c>
-      <c r="I59" s="289" t="s">
+      <c r="I59" s="278" t="s">
         <v>226</v>
       </c>
-      <c r="J59" s="290"/>
-      <c r="K59" s="291">
+      <c r="J59" s="279"/>
+      <c r="K59" s="280">
         <f>K55+K57</f>
         <v>18669.830000000133</v>
       </c>
-      <c r="L59" s="291"/>
+      <c r="L59" s="280"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -15954,18 +16224,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -15975,6 +16233,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17449,23 +17719,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="274"/>
-      <c r="C1" s="276" t="s">
+      <c r="B1" s="301"/>
+      <c r="C1" s="303" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="277"/>
-      <c r="E1" s="277"/>
-      <c r="F1" s="277"/>
-      <c r="G1" s="277"/>
-      <c r="H1" s="277"/>
-      <c r="I1" s="277"/>
-      <c r="J1" s="277"/>
-      <c r="K1" s="277"/>
-      <c r="L1" s="277"/>
-      <c r="M1" s="277"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="304"/>
+      <c r="J1" s="304"/>
+      <c r="K1" s="304"/>
+      <c r="L1" s="304"/>
+      <c r="M1" s="304"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="275"/>
+      <c r="B2" s="302"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -17475,21 +17745,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="278" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="279"/>
+      <c r="B3" s="305" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="306"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="280" t="s">
+      <c r="H3" s="307" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="280"/>
+      <c r="I3" s="307"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="285" t="s">
+      <c r="R3" s="274" t="s">
         <v>38</v>
       </c>
     </row>
@@ -17504,14 +17774,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="281" t="s">
+      <c r="E4" s="308" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="282"/>
-      <c r="H4" s="283" t="s">
+      <c r="F4" s="309"/>
+      <c r="H4" s="310" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="284"/>
+      <c r="I4" s="311"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -17521,11 +17791,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="292" t="s">
+      <c r="P4" s="281" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="293"/>
-      <c r="R4" s="286"/>
+      <c r="Q4" s="282"/>
+      <c r="R4" s="275"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -19168,11 +19438,11 @@
       <c r="L40" s="75">
         <v>30225</v>
       </c>
-      <c r="M40" s="294">
+      <c r="M40" s="283">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="296">
+      <c r="N40" s="285">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -19198,8 +19468,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="246"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="295"/>
-      <c r="N41" s="297"/>
+      <c r="M41" s="284"/>
+      <c r="N41" s="286"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -19414,29 +19684,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="298" t="s">
+      <c r="H53" s="287" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="299"/>
+      <c r="I53" s="288"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="300">
+      <c r="K53" s="289">
         <f>I51+L51</f>
         <v>86124</v>
       </c>
-      <c r="L53" s="301"/>
-      <c r="M53" s="302">
+      <c r="L53" s="290"/>
+      <c r="M53" s="291">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="303"/>
+      <c r="N53" s="292"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="304" t="s">
+      <c r="D54" s="293" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="304"/>
+      <c r="E54" s="293"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2185028</v>
@@ -19447,22 +19717,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="305" t="s">
+      <c r="D55" s="294" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="305"/>
+      <c r="E55" s="294"/>
       <c r="F55" s="115">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="306" t="s">
+      <c r="I55" s="295" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="307"/>
-      <c r="K55" s="308">
+      <c r="J55" s="296"/>
+      <c r="K55" s="297">
         <f>F57+F58+F59</f>
         <v>266670.11000000004</v>
       </c>
-      <c r="L55" s="309"/>
+      <c r="L55" s="298"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -19493,11 +19763,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="310">
+      <c r="K57" s="299">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="311"/>
+      <c r="L57" s="300"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -19514,20 +19784,3559 @@
       <c r="C59" s="133">
         <v>44682</v>
       </c>
-      <c r="D59" s="287" t="s">
+      <c r="D59" s="276" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="288"/>
+      <c r="E59" s="277"/>
       <c r="F59" s="134">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="289"/>
-      <c r="J59" s="290"/>
-      <c r="K59" s="291">
+      <c r="I59" s="278"/>
+      <c r="J59" s="279"/>
+      <c r="K59" s="280">
         <f>K55+K57</f>
         <v>47252.740000000049</v>
       </c>
-      <c r="L59" s="291"/>
+      <c r="L59" s="280"/>
+    </row>
+    <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C60" s="135"/>
+      <c r="D60" s="136"/>
+      <c r="E60" s="137"/>
+      <c r="F60" s="138"/>
+      <c r="J60" s="139"/>
+    </row>
+    <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="140"/>
+      <c r="J61" s="140"/>
+      <c r="K61" s="141"/>
+      <c r="L61" s="141"/>
+    </row>
+    <row r="62" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="142"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="144"/>
+      <c r="E62" s="34"/>
+      <c r="I62" s="140"/>
+      <c r="J62" s="140"/>
+      <c r="K62" s="141"/>
+      <c r="L62" s="141"/>
+      <c r="M62" s="145"/>
+      <c r="N62" s="117"/>
+    </row>
+    <row r="63" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="142"/>
+      <c r="C63" s="146"/>
+      <c r="E63" s="34"/>
+      <c r="M63" s="145"/>
+      <c r="N63" s="117"/>
+    </row>
+    <row r="64" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="142"/>
+      <c r="C64" s="146"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="147"/>
+      <c r="L64" s="148"/>
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="142"/>
+      <c r="C65" s="146"/>
+      <c r="E65" s="34"/>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="142"/>
+      <c r="C66" s="146"/>
+      <c r="D66" s="149"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="150"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D67" s="149"/>
+      <c r="E67" s="151"/>
+      <c r="F67" s="34"/>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D68" s="149"/>
+      <c r="E68" s="151"/>
+      <c r="F68" s="34"/>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D69" s="149"/>
+      <c r="E69" s="151"/>
+      <c r="F69" s="34"/>
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D70" s="149"/>
+      <c r="E70" s="151"/>
+      <c r="F70" s="34"/>
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D71" s="149"/>
+      <c r="E71" s="151"/>
+      <c r="F71" s="34"/>
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D72" s="149"/>
+      <c r="E72" s="151"/>
+      <c r="F72" s="34"/>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D73" s="149"/>
+      <c r="E73" s="151"/>
+      <c r="F73" s="34"/>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D74" s="149"/>
+      <c r="E74" s="151"/>
+      <c r="F74" s="34"/>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D75" s="149"/>
+      <c r="E75" s="151"/>
+      <c r="F75" s="34"/>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D76" s="149"/>
+      <c r="E76" s="151"/>
+      <c r="F76" s="34"/>
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D77" s="149"/>
+      <c r="E77" s="151"/>
+      <c r="F77" s="34"/>
+      <c r="M77" s="1"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D78" s="149"/>
+      <c r="E78" s="151"/>
+      <c r="F78" s="34"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D79" s="149"/>
+      <c r="E79" s="149"/>
+      <c r="F79" s="150"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D80" s="149"/>
+      <c r="E80" s="149"/>
+      <c r="F80" s="150"/>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="149"/>
+      <c r="E81" s="149"/>
+      <c r="F81" s="150"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:G115"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" style="201" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="233" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="201" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="117"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="209" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="231"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="153" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="210" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="155" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="156" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="199" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="156" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="157" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="252">
+        <v>44679</v>
+      </c>
+      <c r="B3" s="253" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="254">
+        <v>38714.910000000003</v>
+      </c>
+      <c r="D3" s="239">
+        <v>44652</v>
+      </c>
+      <c r="E3" s="255">
+        <v>38714.910000000003</v>
+      </c>
+      <c r="F3" s="158">
+        <f>C3-E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="252">
+        <v>44679</v>
+      </c>
+      <c r="B4" s="253" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="254">
+        <v>7324.6</v>
+      </c>
+      <c r="D4" s="239">
+        <v>44652</v>
+      </c>
+      <c r="E4" s="255">
+        <v>7324.6</v>
+      </c>
+      <c r="F4" s="196">
+        <f>C4-E4+F3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="252">
+        <v>44680</v>
+      </c>
+      <c r="B5" s="253" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="254">
+        <v>794.4</v>
+      </c>
+      <c r="D5" s="239">
+        <v>44652</v>
+      </c>
+      <c r="E5" s="255">
+        <v>794.4</v>
+      </c>
+      <c r="F5" s="196">
+        <f t="shared" ref="F5:F47" si="0">C5-E5+F4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="252">
+        <v>44681</v>
+      </c>
+      <c r="B6" s="253" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="254">
+        <v>112563.39</v>
+      </c>
+      <c r="D6" s="239">
+        <v>44652</v>
+      </c>
+      <c r="E6" s="255">
+        <v>112563.39</v>
+      </c>
+      <c r="F6" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="162"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="252">
+        <v>44681</v>
+      </c>
+      <c r="B7" s="253" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="254">
+        <v>1341.6</v>
+      </c>
+      <c r="D7" s="239">
+        <v>44652</v>
+      </c>
+      <c r="E7" s="255">
+        <v>1341.6</v>
+      </c>
+      <c r="F7" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="249">
+        <v>44652</v>
+      </c>
+      <c r="B8" s="248" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="115">
+        <v>109475.36</v>
+      </c>
+      <c r="D8" s="239">
+        <v>44652</v>
+      </c>
+      <c r="E8" s="256">
+        <v>109475.36</v>
+      </c>
+      <c r="F8" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="249">
+        <v>44653</v>
+      </c>
+      <c r="B9" s="248" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" s="115">
+        <v>93380.9</v>
+      </c>
+      <c r="D9" s="241">
+        <v>44659</v>
+      </c>
+      <c r="E9" s="259">
+        <v>93380.9</v>
+      </c>
+      <c r="F9" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="249">
+        <v>44655</v>
+      </c>
+      <c r="B10" s="248" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="115">
+        <v>90010.89</v>
+      </c>
+      <c r="D10" s="241">
+        <v>44659</v>
+      </c>
+      <c r="E10" s="259">
+        <v>90010.89</v>
+      </c>
+      <c r="F10" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="249">
+        <v>44656</v>
+      </c>
+      <c r="B11" s="248" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" s="115">
+        <v>0</v>
+      </c>
+      <c r="D11" s="202" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="115">
+        <v>0</v>
+      </c>
+      <c r="F11" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="249">
+        <v>44656</v>
+      </c>
+      <c r="B12" s="248" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" s="115">
+        <v>20042.650000000001</v>
+      </c>
+      <c r="D12" s="241">
+        <v>44659</v>
+      </c>
+      <c r="E12" s="259">
+        <v>20042.650000000001</v>
+      </c>
+      <c r="F12" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="162"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="249">
+        <v>44657</v>
+      </c>
+      <c r="B13" s="248" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" s="115">
+        <v>91542.2</v>
+      </c>
+      <c r="D13" s="241">
+        <v>44659</v>
+      </c>
+      <c r="E13" s="259">
+        <v>91542.2</v>
+      </c>
+      <c r="F13" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="249">
+        <v>44658</v>
+      </c>
+      <c r="B14" s="248" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" s="115">
+        <v>98059.12</v>
+      </c>
+      <c r="D14" s="241">
+        <v>44659</v>
+      </c>
+      <c r="E14" s="259">
+        <v>98059.12</v>
+      </c>
+      <c r="F14" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="249">
+        <v>44659</v>
+      </c>
+      <c r="B15" s="248" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" s="115">
+        <v>82352.600000000006</v>
+      </c>
+      <c r="D15" s="200">
+        <v>44669</v>
+      </c>
+      <c r="E15" s="115">
+        <v>82352.600000000006</v>
+      </c>
+      <c r="F15" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="249">
+        <v>44660</v>
+      </c>
+      <c r="B16" s="248" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" s="115">
+        <v>10483.23</v>
+      </c>
+      <c r="D16" s="200">
+        <v>44669</v>
+      </c>
+      <c r="E16" s="115">
+        <v>10483.23</v>
+      </c>
+      <c r="F16" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="249">
+        <v>44660</v>
+      </c>
+      <c r="B17" s="248" t="s">
+        <v>251</v>
+      </c>
+      <c r="C17" s="115">
+        <v>58975.89</v>
+      </c>
+      <c r="D17" s="200">
+        <v>44669</v>
+      </c>
+      <c r="E17" s="115">
+        <v>58975.89</v>
+      </c>
+      <c r="F17" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="249">
+        <v>44660</v>
+      </c>
+      <c r="B18" s="248" t="s">
+        <v>252</v>
+      </c>
+      <c r="C18" s="115">
+        <v>8687</v>
+      </c>
+      <c r="D18" s="200">
+        <v>44669</v>
+      </c>
+      <c r="E18" s="115">
+        <v>8687</v>
+      </c>
+      <c r="F18" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="249">
+        <v>44662</v>
+      </c>
+      <c r="B19" s="248" t="s">
+        <v>253</v>
+      </c>
+      <c r="C19" s="115">
+        <v>66983.399999999994</v>
+      </c>
+      <c r="D19" s="200">
+        <v>44669</v>
+      </c>
+      <c r="E19" s="115">
+        <v>66983.399999999994</v>
+      </c>
+      <c r="F19" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="249">
+        <v>44663</v>
+      </c>
+      <c r="B20" s="248" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="115">
+        <v>35876.1</v>
+      </c>
+      <c r="D20" s="200">
+        <v>44669</v>
+      </c>
+      <c r="E20" s="115">
+        <v>35876.1</v>
+      </c>
+      <c r="F20" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="249">
+        <v>44664</v>
+      </c>
+      <c r="B21" s="248" t="s">
+        <v>255</v>
+      </c>
+      <c r="C21" s="115">
+        <v>68255.100000000006</v>
+      </c>
+      <c r="D21" s="200">
+        <v>44669</v>
+      </c>
+      <c r="E21" s="115">
+        <v>68255.100000000006</v>
+      </c>
+      <c r="F21" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="249">
+        <v>44665</v>
+      </c>
+      <c r="B22" s="248" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22" s="115">
+        <v>82981.11</v>
+      </c>
+      <c r="D22" s="200">
+        <v>44669</v>
+      </c>
+      <c r="E22" s="115">
+        <v>82981.11</v>
+      </c>
+      <c r="F22" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="249">
+        <v>44665</v>
+      </c>
+      <c r="B23" s="248" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="115">
+        <v>8015.15</v>
+      </c>
+      <c r="D23" s="200">
+        <v>44669</v>
+      </c>
+      <c r="E23" s="115">
+        <v>8015.15</v>
+      </c>
+      <c r="F23" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="249">
+        <v>44667</v>
+      </c>
+      <c r="B24" s="248" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="115">
+        <v>113918.95</v>
+      </c>
+      <c r="D24" s="200">
+        <v>44669</v>
+      </c>
+      <c r="E24" s="115">
+        <v>113918.95</v>
+      </c>
+      <c r="F24" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="162"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="249">
+        <v>44668</v>
+      </c>
+      <c r="B25" s="248" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="115">
+        <v>610.4</v>
+      </c>
+      <c r="D25" s="200">
+        <v>44669</v>
+      </c>
+      <c r="E25" s="115">
+        <v>610.4</v>
+      </c>
+      <c r="F25" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="249">
+        <v>44669</v>
+      </c>
+      <c r="B26" s="248" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" s="115">
+        <v>69241.3</v>
+      </c>
+      <c r="D26" s="200">
+        <v>44669</v>
+      </c>
+      <c r="E26" s="115">
+        <v>69241.3</v>
+      </c>
+      <c r="F26" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="249">
+        <v>44670</v>
+      </c>
+      <c r="B27" s="248" t="s">
+        <v>261</v>
+      </c>
+      <c r="C27" s="115">
+        <v>19804.8</v>
+      </c>
+      <c r="D27" s="257">
+        <v>44673</v>
+      </c>
+      <c r="E27" s="258">
+        <v>19804.8</v>
+      </c>
+      <c r="F27" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="249">
+        <v>44671</v>
+      </c>
+      <c r="B28" s="248" t="s">
+        <v>262</v>
+      </c>
+      <c r="C28" s="115">
+        <v>97519.7</v>
+      </c>
+      <c r="D28" s="257">
+        <v>44673</v>
+      </c>
+      <c r="E28" s="258">
+        <v>97519.7</v>
+      </c>
+      <c r="F28" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="249">
+        <v>44672</v>
+      </c>
+      <c r="B29" s="248" t="s">
+        <v>263</v>
+      </c>
+      <c r="C29" s="115">
+        <v>108559.18</v>
+      </c>
+      <c r="D29" s="257">
+        <v>44673</v>
+      </c>
+      <c r="E29" s="258">
+        <v>108559.18</v>
+      </c>
+      <c r="F29" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="249">
+        <v>44673</v>
+      </c>
+      <c r="B30" s="248" t="s">
+        <v>264</v>
+      </c>
+      <c r="C30" s="115">
+        <v>0</v>
+      </c>
+      <c r="D30" s="250" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="115">
+        <v>0</v>
+      </c>
+      <c r="F30" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="249">
+        <v>44673</v>
+      </c>
+      <c r="B31" s="248" t="s">
+        <v>265</v>
+      </c>
+      <c r="C31" s="115">
+        <v>90834.65</v>
+      </c>
+      <c r="D31" s="257">
+        <v>44673</v>
+      </c>
+      <c r="E31" s="258">
+        <v>90834.65</v>
+      </c>
+      <c r="F31" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="249">
+        <v>44673</v>
+      </c>
+      <c r="B32" s="248" t="s">
+        <v>266</v>
+      </c>
+      <c r="C32" s="115">
+        <v>6798</v>
+      </c>
+      <c r="D32" s="257">
+        <v>44673</v>
+      </c>
+      <c r="E32" s="258">
+        <v>6798</v>
+      </c>
+      <c r="F32" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="162"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="249">
+        <v>44674</v>
+      </c>
+      <c r="B33" s="248" t="s">
+        <v>267</v>
+      </c>
+      <c r="C33" s="115">
+        <v>106135.36</v>
+      </c>
+      <c r="D33" s="200">
+        <v>44681</v>
+      </c>
+      <c r="E33" s="115">
+        <v>106135.36</v>
+      </c>
+      <c r="F33" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="249">
+        <v>44676</v>
+      </c>
+      <c r="B34" s="248" t="s">
+        <v>268</v>
+      </c>
+      <c r="C34" s="115">
+        <v>53461.2</v>
+      </c>
+      <c r="D34" s="200">
+        <v>44681</v>
+      </c>
+      <c r="E34" s="115">
+        <v>53461.2</v>
+      </c>
+      <c r="F34" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="249">
+        <v>44677</v>
+      </c>
+      <c r="B35" s="248" t="s">
+        <v>269</v>
+      </c>
+      <c r="C35" s="115">
+        <v>106910.84</v>
+      </c>
+      <c r="D35" s="200">
+        <v>44681</v>
+      </c>
+      <c r="E35" s="115">
+        <v>106910.84</v>
+      </c>
+      <c r="F35" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="249">
+        <v>44678</v>
+      </c>
+      <c r="B36" s="248" t="s">
+        <v>270</v>
+      </c>
+      <c r="C36" s="115">
+        <v>73927.600000000006</v>
+      </c>
+      <c r="D36" s="200">
+        <v>44681</v>
+      </c>
+      <c r="E36" s="115">
+        <v>73927.600000000006</v>
+      </c>
+      <c r="F36" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="249">
+        <v>44679</v>
+      </c>
+      <c r="B37" s="248" t="s">
+        <v>271</v>
+      </c>
+      <c r="C37" s="115">
+        <v>94122.1</v>
+      </c>
+      <c r="D37" s="200">
+        <v>44681</v>
+      </c>
+      <c r="E37" s="115">
+        <v>94122.1</v>
+      </c>
+      <c r="F37" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="249">
+        <v>44679</v>
+      </c>
+      <c r="B38" s="248" t="s">
+        <v>272</v>
+      </c>
+      <c r="C38" s="115">
+        <v>3672</v>
+      </c>
+      <c r="D38" s="200">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="115">
+        <v>3672</v>
+      </c>
+      <c r="F38" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="249">
+        <v>44680</v>
+      </c>
+      <c r="B39" s="248" t="s">
+        <v>273</v>
+      </c>
+      <c r="C39" s="115">
+        <v>66412.5</v>
+      </c>
+      <c r="D39" s="200">
+        <v>44681</v>
+      </c>
+      <c r="E39" s="115">
+        <v>66412.5</v>
+      </c>
+      <c r="F39" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="249" t="s">
+        <v>274</v>
+      </c>
+      <c r="B40" s="248" t="s">
+        <v>275</v>
+      </c>
+      <c r="C40" s="115">
+        <v>101114.1</v>
+      </c>
+      <c r="D40" s="200"/>
+      <c r="E40" s="195"/>
+      <c r="F40" s="196">
+        <f t="shared" si="0"/>
+        <v>101114.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="249" t="s">
+        <v>274</v>
+      </c>
+      <c r="B41" s="248" t="s">
+        <v>276</v>
+      </c>
+      <c r="C41" s="115">
+        <v>28591.200000000001</v>
+      </c>
+      <c r="D41" s="200"/>
+      <c r="E41" s="195"/>
+      <c r="F41" s="196">
+        <f t="shared" si="0"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="211"/>
+      <c r="B42" s="194"/>
+      <c r="C42" s="195"/>
+      <c r="D42" s="200"/>
+      <c r="E42" s="195"/>
+      <c r="F42" s="196">
+        <f t="shared" si="0"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="163"/>
+      <c r="B43" s="160"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="159"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="196">
+        <f t="shared" si="0"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="164"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="166"/>
+      <c r="D44" s="159"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="196">
+        <f t="shared" si="0"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="164"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="166"/>
+      <c r="D45" s="159"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="196">
+        <f t="shared" si="0"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="164"/>
+      <c r="B46" s="165"/>
+      <c r="C46" s="166"/>
+      <c r="D46" s="159"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="196">
+        <f t="shared" si="0"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="164"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="166"/>
+      <c r="D47" s="159"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="196">
+        <f t="shared" si="0"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="164"/>
+      <c r="B48" s="165"/>
+      <c r="C48" s="166"/>
+      <c r="D48" s="159"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="196">
+        <f t="shared" ref="F48:F78" si="1">C48-E48+F47</f>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="164"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="159"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="196">
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="164"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="159"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="196">
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="164"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="166"/>
+      <c r="D51" s="159"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="196">
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="164"/>
+      <c r="B52" s="165"/>
+      <c r="C52" s="166"/>
+      <c r="D52" s="159"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="196">
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="164"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="166"/>
+      <c r="D53" s="159"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="196">
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="164"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="166"/>
+      <c r="D54" s="159"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="196">
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="164"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="166"/>
+      <c r="D55" s="159"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="196">
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="164"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="166"/>
+      <c r="D56" s="159"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="196">
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="164"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="166"/>
+      <c r="D57" s="159"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="196">
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="164"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="166"/>
+      <c r="D58" s="159"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="196">
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="164"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="166"/>
+      <c r="D59" s="159"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="196">
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="164"/>
+      <c r="B60" s="165"/>
+      <c r="C60" s="166"/>
+      <c r="D60" s="159"/>
+      <c r="E60" s="86"/>
+      <c r="F60" s="196">
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="164"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="166"/>
+      <c r="D61" s="159"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="196">
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="167"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="169"/>
+      <c r="D62" s="170"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="196">
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="167"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="169"/>
+      <c r="D63" s="170"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="196">
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="167"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="169"/>
+      <c r="D64" s="170"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="196">
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="167"/>
+      <c r="B65" s="168"/>
+      <c r="C65" s="169"/>
+      <c r="D65" s="170"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="196">
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="167"/>
+      <c r="B66" s="168"/>
+      <c r="C66" s="169"/>
+      <c r="D66" s="170"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="196">
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="167"/>
+      <c r="B67" s="168"/>
+      <c r="C67" s="169"/>
+      <c r="D67" s="170"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="196">
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="164"/>
+      <c r="B68" s="165"/>
+      <c r="C68" s="166"/>
+      <c r="D68" s="171"/>
+      <c r="E68" s="86"/>
+      <c r="F68" s="196">
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="164"/>
+      <c r="B69" s="165"/>
+      <c r="C69" s="166"/>
+      <c r="D69" s="171"/>
+      <c r="E69" s="86"/>
+      <c r="F69" s="196">
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="164"/>
+      <c r="B70" s="165"/>
+      <c r="C70" s="166"/>
+      <c r="D70" s="171"/>
+      <c r="E70" s="86"/>
+      <c r="F70" s="196">
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="164"/>
+      <c r="B71" s="165"/>
+      <c r="C71" s="166"/>
+      <c r="D71" s="171"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="196">
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="164"/>
+      <c r="B72" s="165"/>
+      <c r="C72" s="166"/>
+      <c r="D72" s="171"/>
+      <c r="E72" s="86"/>
+      <c r="F72" s="196">
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="164"/>
+      <c r="B73" s="165"/>
+      <c r="C73" s="166"/>
+      <c r="D73" s="171"/>
+      <c r="E73" s="86"/>
+      <c r="F73" s="196">
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="164"/>
+      <c r="B74" s="165"/>
+      <c r="C74" s="166"/>
+      <c r="D74" s="171"/>
+      <c r="E74" s="86"/>
+      <c r="F74" s="196">
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="164"/>
+      <c r="B75" s="165"/>
+      <c r="C75" s="166"/>
+      <c r="D75" s="171"/>
+      <c r="E75" s="86"/>
+      <c r="F75" s="196">
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="164"/>
+      <c r="B76" s="165"/>
+      <c r="C76" s="166"/>
+      <c r="D76" s="171"/>
+      <c r="E76" s="86"/>
+      <c r="F76" s="196">
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="164"/>
+      <c r="B77" s="165"/>
+      <c r="C77" s="166"/>
+      <c r="D77" s="171"/>
+      <c r="E77" s="86"/>
+      <c r="F77" s="196">
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="172"/>
+      <c r="B78" s="173"/>
+      <c r="C78" s="34">
+        <v>0</v>
+      </c>
+      <c r="D78" s="174"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="196">
+        <f t="shared" si="1"/>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="212"/>
+      <c r="B79" s="232"/>
+      <c r="C79" s="251">
+        <f>SUM(C3:C78)</f>
+        <v>2227493.48</v>
+      </c>
+      <c r="D79" s="189"/>
+      <c r="E79" s="178">
+        <f>SUM(E3:E78)</f>
+        <v>2097788.1799999997</v>
+      </c>
+      <c r="F79" s="179">
+        <f>F78</f>
+        <v>129705.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D80" s="170"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="170"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="234"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="234"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="234"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="234"/>
+      <c r="F85" s="117"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="234"/>
+      <c r="F86" s="117"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="234"/>
+      <c r="F87" s="117"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="234"/>
+      <c r="F88" s="117"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="234"/>
+      <c r="F89" s="117"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="234"/>
+      <c r="F90" s="117"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="234"/>
+      <c r="F91" s="117"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="234"/>
+      <c r="F92" s="117"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="234"/>
+      <c r="F93" s="117"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="234"/>
+      <c r="E94" s="117"/>
+      <c r="F94" s="117"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="234"/>
+      <c r="E95" s="117"/>
+      <c r="F95" s="117"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="234"/>
+      <c r="E96" s="117"/>
+      <c r="F96" s="117"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="234"/>
+      <c r="E97" s="117"/>
+      <c r="F97" s="117"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="234"/>
+      <c r="E98" s="117"/>
+      <c r="F98" s="117"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="234"/>
+      <c r="E99" s="117"/>
+      <c r="F99" s="117"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="234"/>
+      <c r="E100" s="117"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="234"/>
+      <c r="E101" s="117"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="234"/>
+      <c r="E102" s="117"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="234"/>
+      <c r="E103" s="117"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="234"/>
+      <c r="E104" s="117"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="234"/>
+      <c r="E105" s="117"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="234"/>
+      <c r="E106" s="117"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="234"/>
+      <c r="E107" s="117"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="234"/>
+      <c r="E108" s="117"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="234"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="234"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="234"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="234"/>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="234"/>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" s="234"/>
+    </row>
+    <row r="115" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C115" s="180"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:U81"/>
+  <sheetViews>
+    <sheetView topLeftCell="J3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="116" customWidth="1"/>
+    <col min="3" max="3" width="16" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="12" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" style="245" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B1" s="301"/>
+      <c r="C1" s="303" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="304"/>
+      <c r="J1" s="304"/>
+      <c r="K1" s="304"/>
+      <c r="L1" s="304"/>
+      <c r="M1" s="304"/>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="302"/>
+      <c r="C2" s="3"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="305" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="306"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="H3" s="307" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="307"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
+      <c r="R3" s="274" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17">
+        <v>297874.59000000003</v>
+      </c>
+      <c r="D4" s="18">
+        <v>44682</v>
+      </c>
+      <c r="E4" s="308" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="309"/>
+      <c r="H4" s="310" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="311"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="281" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="282"/>
+      <c r="R4" s="275"/>
+    </row>
+    <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="25">
+        <v>44683</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28">
+        <v>44683</v>
+      </c>
+      <c r="F5" s="29">
+        <v>59482</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="30">
+        <v>44683</v>
+      </c>
+      <c r="I5" s="31">
+        <v>147</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="182"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="32">
+        <f>22600+35936</f>
+        <v>58536</v>
+      </c>
+      <c r="N5" s="33">
+        <v>800</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="34">
+        <f>N5+M5+L5+I5+C5</f>
+        <v>59483</v>
+      </c>
+      <c r="Q5" s="13">
+        <f>P5-F5</f>
+        <v>1</v>
+      </c>
+      <c r="R5" s="9"/>
+    </row>
+    <row r="6" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25">
+        <v>44684</v>
+      </c>
+      <c r="C6" s="26">
+        <v>0</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="28">
+        <v>44684</v>
+      </c>
+      <c r="F6" s="29">
+        <v>78395</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="30">
+        <v>44684</v>
+      </c>
+      <c r="I6" s="31">
+        <v>10</v>
+      </c>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="32">
+        <f>30000+48311</f>
+        <v>78311</v>
+      </c>
+      <c r="N6" s="33">
+        <v>74</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="34">
+        <f t="shared" ref="P6:P39" si="0">N6+M6+L6+I6+C6</f>
+        <v>78395</v>
+      </c>
+      <c r="Q6" s="13">
+        <f t="shared" ref="Q6:Q40" si="1">P6-F6</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="8"/>
+      <c r="S6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25">
+        <v>44685</v>
+      </c>
+      <c r="C7" s="26">
+        <v>0</v>
+      </c>
+      <c r="D7" s="41"/>
+      <c r="E7" s="28">
+        <v>44685</v>
+      </c>
+      <c r="F7" s="29">
+        <v>33167</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="30">
+        <v>44685</v>
+      </c>
+      <c r="I7" s="31">
+        <v>98</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="32">
+        <f>5000+27569</f>
+        <v>32569</v>
+      </c>
+      <c r="N7" s="33">
+        <v>500</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="34">
+        <f t="shared" si="0"/>
+        <v>33167</v>
+      </c>
+      <c r="Q7" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="9"/>
+      <c r="S7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25">
+        <v>44686</v>
+      </c>
+      <c r="C8" s="26">
+        <v>1360</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="28">
+        <v>44686</v>
+      </c>
+      <c r="F8" s="29">
+        <v>58940</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="30">
+        <v>44686</v>
+      </c>
+      <c r="I8" s="31">
+        <v>28</v>
+      </c>
+      <c r="J8" s="44"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="32">
+        <f>52916+15000</f>
+        <v>67916</v>
+      </c>
+      <c r="N8" s="33">
+        <v>897</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="34">
+        <f t="shared" si="0"/>
+        <v>70201</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>0</v>
+      </c>
+      <c r="R8" s="184">
+        <v>11261</v>
+      </c>
+      <c r="S8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25">
+        <v>44687</v>
+      </c>
+      <c r="C9" s="26">
+        <v>0</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="E9" s="28">
+        <v>44687</v>
+      </c>
+      <c r="F9" s="29">
+        <v>98700</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="30">
+        <v>44687</v>
+      </c>
+      <c r="I9" s="31">
+        <v>85</v>
+      </c>
+      <c r="J9" s="38"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="32">
+        <f>20000+40000+38615</f>
+        <v>98615</v>
+      </c>
+      <c r="N9" s="33">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="34">
+        <f>N9+M9+L9+I9+C9</f>
+        <v>98700</v>
+      </c>
+      <c r="Q9" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="8"/>
+      <c r="S9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25">
+        <v>44688</v>
+      </c>
+      <c r="C10" s="26">
+        <v>7184</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="28">
+        <v>44688</v>
+      </c>
+      <c r="F10" s="29">
+        <v>102747</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="30">
+        <v>44688</v>
+      </c>
+      <c r="I10" s="31">
+        <v>60</v>
+      </c>
+      <c r="J10" s="38"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="32">
+        <f>40000+47403</f>
+        <v>87403</v>
+      </c>
+      <c r="N10" s="33">
+        <v>8100</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="34">
+        <f t="shared" si="0"/>
+        <v>102747</v>
+      </c>
+      <c r="Q10" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="9"/>
+      <c r="S10">
+        <v>-14</v>
+      </c>
+      <c r="U10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25">
+        <v>44689</v>
+      </c>
+      <c r="C11" s="26">
+        <v>5204</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="28">
+        <v>44689</v>
+      </c>
+      <c r="F11" s="29">
+        <v>114024</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="30">
+        <v>44689</v>
+      </c>
+      <c r="I11" s="31">
+        <v>22</v>
+      </c>
+      <c r="J11" s="44">
+        <v>44689</v>
+      </c>
+      <c r="K11" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="L11" s="40">
+        <v>9717</v>
+      </c>
+      <c r="M11" s="32">
+        <f>80000+18221</f>
+        <v>98221</v>
+      </c>
+      <c r="N11" s="33">
+        <v>860</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="34">
+        <f>N11+M11+L11+I11+C11</f>
+        <v>114024</v>
+      </c>
+      <c r="Q11" s="13">
+        <f>P11-F11</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25">
+        <v>44690</v>
+      </c>
+      <c r="C12" s="26">
+        <v>2800</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="28">
+        <v>44690</v>
+      </c>
+      <c r="F12" s="29">
+        <v>85296</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="30">
+        <v>44690</v>
+      </c>
+      <c r="I12" s="31">
+        <v>39</v>
+      </c>
+      <c r="J12" s="38"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="32">
+        <f>57065+24240+200</f>
+        <v>81505</v>
+      </c>
+      <c r="N12" s="33">
+        <v>1152</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="34">
+        <f t="shared" si="0"/>
+        <v>85496</v>
+      </c>
+      <c r="Q12" s="13">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="R12" s="8"/>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="24"/>
+      <c r="B13" s="25">
+        <v>44691</v>
+      </c>
+      <c r="C13" s="26">
+        <v>800</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="28">
+        <v>44691</v>
+      </c>
+      <c r="F13" s="29">
+        <v>92517</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="30">
+        <v>44691</v>
+      </c>
+      <c r="I13" s="31">
+        <v>19</v>
+      </c>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="32">
+        <f>20000+40000+31098</f>
+        <v>91098</v>
+      </c>
+      <c r="N13" s="33">
+        <v>600</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="34">
+        <f t="shared" si="0"/>
+        <v>92517</v>
+      </c>
+      <c r="Q13" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="185"/>
+      <c r="S13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25">
+        <v>44692</v>
+      </c>
+      <c r="C14" s="26">
+        <v>0</v>
+      </c>
+      <c r="D14" s="51"/>
+      <c r="E14" s="28">
+        <v>44692</v>
+      </c>
+      <c r="F14" s="29">
+        <v>35612</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="30">
+        <v>44692</v>
+      </c>
+      <c r="I14" s="31">
+        <v>309</v>
+      </c>
+      <c r="J14" s="38"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="32">
+        <v>35029</v>
+      </c>
+      <c r="N14" s="33">
+        <v>274</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="34">
+        <f t="shared" si="0"/>
+        <v>35612</v>
+      </c>
+      <c r="Q14" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="185"/>
+      <c r="S14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25">
+        <v>44693</v>
+      </c>
+      <c r="C15" s="26">
+        <v>18388</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="28">
+        <v>44693</v>
+      </c>
+      <c r="F15" s="29">
+        <v>69146</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="30">
+        <v>44693</v>
+      </c>
+      <c r="I15" s="31">
+        <v>90</v>
+      </c>
+      <c r="J15" s="38"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="32">
+        <f>30668+20000</f>
+        <v>50668</v>
+      </c>
+      <c r="N15" s="33">
+        <v>0</v>
+      </c>
+      <c r="P15" s="34">
+        <f t="shared" si="0"/>
+        <v>69146</v>
+      </c>
+      <c r="Q15" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="8"/>
+      <c r="S15">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25">
+        <v>44694</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="28">
+        <v>44694</v>
+      </c>
+      <c r="F16" s="29">
+        <v>98563</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="30">
+        <v>44694</v>
+      </c>
+      <c r="I16" s="31">
+        <v>220</v>
+      </c>
+      <c r="J16" s="38"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="32">
+        <f>63232+25000</f>
+        <v>88232</v>
+      </c>
+      <c r="N16" s="33">
+        <v>10111</v>
+      </c>
+      <c r="P16" s="34">
+        <f t="shared" si="0"/>
+        <v>98563</v>
+      </c>
+      <c r="Q16" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25">
+        <v>44695</v>
+      </c>
+      <c r="C17" s="26">
+        <v>1411</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="E17" s="28">
+        <v>44695</v>
+      </c>
+      <c r="F17" s="29">
+        <v>149845</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="30">
+        <v>44695</v>
+      </c>
+      <c r="I17" s="31">
+        <v>364</v>
+      </c>
+      <c r="J17" s="38">
+        <v>44695</v>
+      </c>
+      <c r="K17" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="L17" s="48">
+        <v>11900</v>
+      </c>
+      <c r="M17" s="32">
+        <f>12366+41750+45477+25000</f>
+        <v>124593</v>
+      </c>
+      <c r="N17" s="33">
+        <v>11577</v>
+      </c>
+      <c r="P17" s="34">
+        <f t="shared" si="0"/>
+        <v>149845</v>
+      </c>
+      <c r="Q17" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="8"/>
+      <c r="S17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25">
+        <v>44696</v>
+      </c>
+      <c r="C18" s="26">
+        <v>0</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="28">
+        <v>44696</v>
+      </c>
+      <c r="F18" s="29">
+        <v>122601</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="30">
+        <v>44696</v>
+      </c>
+      <c r="I18" s="31">
+        <v>0</v>
+      </c>
+      <c r="J18" s="38"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="32">
+        <f>95000+26901</f>
+        <v>121901</v>
+      </c>
+      <c r="N18" s="33">
+        <v>700</v>
+      </c>
+      <c r="P18" s="34">
+        <f t="shared" si="0"/>
+        <v>122601</v>
+      </c>
+      <c r="Q18" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="8"/>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25">
+        <v>44697</v>
+      </c>
+      <c r="C19" s="26">
+        <v>0</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="28">
+        <v>44697</v>
+      </c>
+      <c r="F19" s="29">
+        <v>62516</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="30">
+        <v>44697</v>
+      </c>
+      <c r="I19" s="31">
+        <v>59</v>
+      </c>
+      <c r="J19" s="38"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="32">
+        <f>22000+39329</f>
+        <v>61329</v>
+      </c>
+      <c r="N19" s="33">
+        <v>1130</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="34">
+        <f t="shared" si="0"/>
+        <v>62518</v>
+      </c>
+      <c r="Q19" s="13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R19" s="8"/>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="24"/>
+      <c r="B20" s="25">
+        <v>44698</v>
+      </c>
+      <c r="C20" s="26">
+        <v>0</v>
+      </c>
+      <c r="D20" s="36"/>
+      <c r="E20" s="28">
+        <v>44698</v>
+      </c>
+      <c r="F20" s="29">
+        <v>87181</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="30">
+        <v>44698</v>
+      </c>
+      <c r="I20" s="31">
+        <v>48</v>
+      </c>
+      <c r="J20" s="38"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="32">
+        <f>36535+50000</f>
+        <v>86535</v>
+      </c>
+      <c r="N20" s="33">
+        <v>598</v>
+      </c>
+      <c r="P20" s="34">
+        <f t="shared" si="0"/>
+        <v>87181</v>
+      </c>
+      <c r="Q20" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="8"/>
+      <c r="S20">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25">
+        <v>44699</v>
+      </c>
+      <c r="C21" s="26">
+        <v>2100</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="28">
+        <v>44699</v>
+      </c>
+      <c r="F21" s="29">
+        <v>43454</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="30">
+        <v>44699</v>
+      </c>
+      <c r="I21" s="31">
+        <v>90</v>
+      </c>
+      <c r="J21" s="38"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="32">
+        <f>31220+10000</f>
+        <v>41220</v>
+      </c>
+      <c r="N21" s="33">
+        <v>44</v>
+      </c>
+      <c r="P21" s="34">
+        <f t="shared" si="0"/>
+        <v>43454</v>
+      </c>
+      <c r="Q21" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="8"/>
+      <c r="S21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25">
+        <v>44700</v>
+      </c>
+      <c r="C22" s="26">
+        <v>0</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" s="28">
+        <v>44700</v>
+      </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="30">
+        <v>44700</v>
+      </c>
+      <c r="I22" s="31"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="32">
+        <v>0</v>
+      </c>
+      <c r="N22" s="33">
+        <v>0</v>
+      </c>
+      <c r="P22" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="8"/>
+      <c r="S22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="24"/>
+      <c r="B23" s="25">
+        <v>44701</v>
+      </c>
+      <c r="C23" s="26">
+        <v>0</v>
+      </c>
+      <c r="D23" s="36"/>
+      <c r="E23" s="28">
+        <v>44701</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="30">
+        <v>44701</v>
+      </c>
+      <c r="I23" s="31"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="32">
+        <v>0</v>
+      </c>
+      <c r="N23" s="33">
+        <v>0</v>
+      </c>
+      <c r="P23" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="8"/>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="24"/>
+      <c r="B24" s="25">
+        <v>44702</v>
+      </c>
+      <c r="C24" s="26">
+        <v>0</v>
+      </c>
+      <c r="D24" s="41"/>
+      <c r="E24" s="28">
+        <v>44702</v>
+      </c>
+      <c r="F24" s="29"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="30">
+        <v>44702</v>
+      </c>
+      <c r="I24" s="31"/>
+      <c r="J24" s="181"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="32">
+        <v>0</v>
+      </c>
+      <c r="N24" s="33">
+        <v>0</v>
+      </c>
+      <c r="P24" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="8"/>
+      <c r="S24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25">
+        <v>44703</v>
+      </c>
+      <c r="C25" s="26">
+        <v>0</v>
+      </c>
+      <c r="D25" s="36"/>
+      <c r="E25" s="28">
+        <v>44703</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="30">
+        <v>44703</v>
+      </c>
+      <c r="I25" s="31"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="32">
+        <v>0</v>
+      </c>
+      <c r="N25" s="33">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
+        <v>8</v>
+      </c>
+      <c r="P25" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="8"/>
+      <c r="S25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="24"/>
+      <c r="B26" s="25">
+        <v>44704</v>
+      </c>
+      <c r="C26" s="26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="36"/>
+      <c r="E26" s="28">
+        <v>44704</v>
+      </c>
+      <c r="F26" s="29"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="30">
+        <v>44704</v>
+      </c>
+      <c r="I26" s="31"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="32">
+        <v>0</v>
+      </c>
+      <c r="N26" s="33">
+        <v>0</v>
+      </c>
+      <c r="P26" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="9"/>
+      <c r="S26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="24"/>
+      <c r="B27" s="25">
+        <v>44705</v>
+      </c>
+      <c r="C27" s="26">
+        <v>0</v>
+      </c>
+      <c r="D27" s="41"/>
+      <c r="E27" s="28">
+        <v>44705</v>
+      </c>
+      <c r="F27" s="29"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="30">
+        <v>44705</v>
+      </c>
+      <c r="I27" s="31"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="32">
+        <v>0</v>
+      </c>
+      <c r="N27" s="33">
+        <v>0</v>
+      </c>
+      <c r="P27" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="8"/>
+      <c r="S27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="24"/>
+      <c r="B28" s="25">
+        <v>44706</v>
+      </c>
+      <c r="C28" s="26">
+        <v>0</v>
+      </c>
+      <c r="D28" s="41"/>
+      <c r="E28" s="28">
+        <v>44706</v>
+      </c>
+      <c r="F28" s="29"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="30">
+        <v>44706</v>
+      </c>
+      <c r="I28" s="31"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="32">
+        <v>0</v>
+      </c>
+      <c r="N28" s="33">
+        <v>0</v>
+      </c>
+      <c r="P28" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="8"/>
+      <c r="S28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25">
+        <v>44707</v>
+      </c>
+      <c r="C29" s="26">
+        <v>0</v>
+      </c>
+      <c r="D29" s="71"/>
+      <c r="E29" s="28">
+        <v>44707</v>
+      </c>
+      <c r="F29" s="29"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="30">
+        <v>44707</v>
+      </c>
+      <c r="I29" s="31"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="32">
+        <v>0</v>
+      </c>
+      <c r="N29" s="33">
+        <v>0</v>
+      </c>
+      <c r="P29" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="8"/>
+      <c r="S29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="24"/>
+      <c r="B30" s="25">
+        <v>44708</v>
+      </c>
+      <c r="C30" s="26">
+        <v>0</v>
+      </c>
+      <c r="D30" s="71"/>
+      <c r="E30" s="28">
+        <v>44708</v>
+      </c>
+      <c r="F30" s="29"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="30">
+        <v>44708</v>
+      </c>
+      <c r="I30" s="31"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="32">
+        <v>0</v>
+      </c>
+      <c r="N30" s="33">
+        <v>0</v>
+      </c>
+      <c r="P30" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="8"/>
+    </row>
+    <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="24"/>
+      <c r="B31" s="25">
+        <v>44709</v>
+      </c>
+      <c r="C31" s="26">
+        <v>0</v>
+      </c>
+      <c r="D31" s="83"/>
+      <c r="E31" s="28">
+        <v>44709</v>
+      </c>
+      <c r="F31" s="29"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="30">
+        <v>44709</v>
+      </c>
+      <c r="I31" s="31"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="32">
+        <v>0</v>
+      </c>
+      <c r="N31" s="33">
+        <v>0</v>
+      </c>
+      <c r="P31" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="8"/>
+    </row>
+    <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="24"/>
+      <c r="B32" s="25">
+        <v>44710</v>
+      </c>
+      <c r="C32" s="26">
+        <v>0</v>
+      </c>
+      <c r="D32" s="78"/>
+      <c r="E32" s="28">
+        <v>44710</v>
+      </c>
+      <c r="F32" s="29"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="30">
+        <v>44710</v>
+      </c>
+      <c r="I32" s="31"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="32">
+        <v>0</v>
+      </c>
+      <c r="N32" s="33">
+        <v>0</v>
+      </c>
+      <c r="P32" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="24"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="32">
+        <v>0</v>
+      </c>
+      <c r="N33" s="33">
+        <v>0</v>
+      </c>
+      <c r="P33" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="8"/>
+    </row>
+    <row r="34" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="32">
+        <v>0</v>
+      </c>
+      <c r="N34" s="33">
+        <v>0</v>
+      </c>
+      <c r="P34" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="24"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="32">
+        <v>0</v>
+      </c>
+      <c r="N35" s="33">
+        <v>0</v>
+      </c>
+      <c r="P35" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="8"/>
+    </row>
+    <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="24"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="32">
+        <v>0</v>
+      </c>
+      <c r="N36" s="33">
+        <v>0</v>
+      </c>
+      <c r="P36" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="8"/>
+    </row>
+    <row r="37" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="24"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="221"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="32">
+        <v>0</v>
+      </c>
+      <c r="N37" s="33">
+        <v>0</v>
+      </c>
+      <c r="P37" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="24"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="32">
+        <v>0</v>
+      </c>
+      <c r="N38" s="33">
+        <v>0</v>
+      </c>
+      <c r="P38" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="24"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="32">
+        <v>0</v>
+      </c>
+      <c r="N39" s="33">
+        <v>0</v>
+      </c>
+      <c r="P39" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="24"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="273"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="283">
+        <f>SUM(M5:M39)</f>
+        <v>1303681</v>
+      </c>
+      <c r="N40" s="285">
+        <f>SUM(N5:N39)</f>
+        <v>37417</v>
+      </c>
+      <c r="P40" s="34">
+        <f>SUM(P5:P39)</f>
+        <v>1403650</v>
+      </c>
+      <c r="Q40" s="13">
+        <f t="shared" si="1"/>
+        <v>1403650</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="24"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="260"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="261"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="246"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="284"/>
+      <c r="N41" s="286"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="9"/>
+    </row>
+    <row r="42" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="24"/>
+      <c r="B42" s="159"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="263"/>
+      <c r="F42" s="246"/>
+      <c r="G42" s="262"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="96"/>
+      <c r="N42" s="97"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="9"/>
+    </row>
+    <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="24"/>
+      <c r="B43" s="159"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="263"/>
+      <c r="F43" s="246"/>
+      <c r="G43" s="262"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="96"/>
+      <c r="N43" s="97"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="9"/>
+    </row>
+    <row r="44" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="24"/>
+      <c r="B44" s="159"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="263"/>
+      <c r="F44" s="246"/>
+      <c r="G44" s="262"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="96"/>
+      <c r="N44" s="97"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="9"/>
+    </row>
+    <row r="45" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="24"/>
+      <c r="B45" s="159"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="263"/>
+      <c r="F45" s="246"/>
+      <c r="G45" s="262"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="97"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="9"/>
+    </row>
+    <row r="46" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="24"/>
+      <c r="B46" s="264"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="92"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="80"/>
+      <c r="M46" s="96"/>
+      <c r="N46" s="97"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="9"/>
+    </row>
+    <row r="47" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="24"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="93"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="80"/>
+      <c r="M47" s="96"/>
+      <c r="N47" s="97"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="9"/>
+    </row>
+    <row r="48" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="24"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="92"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="94"/>
+      <c r="I48" s="95"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="80"/>
+      <c r="M48" s="96"/>
+      <c r="N48" s="97"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="9"/>
+    </row>
+    <row r="49" spans="1:17" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="24"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="94"/>
+      <c r="I49" s="95"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="80"/>
+      <c r="M49" s="96"/>
+      <c r="N49" s="97"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="9"/>
+    </row>
+    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="24"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="26">
+        <v>0</v>
+      </c>
+      <c r="D50" s="99"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="90"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="95"/>
+      <c r="J50" s="102"/>
+      <c r="K50" s="103"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="104"/>
+      <c r="N50" s="33"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="9"/>
+    </row>
+    <row r="51" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="106">
+        <f>SUM(C5:C50)</f>
+        <v>39247</v>
+      </c>
+      <c r="D51" s="107"/>
+      <c r="E51" s="108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="109">
+        <f>SUM(F5:F50)</f>
+        <v>1392186</v>
+      </c>
+      <c r="G51" s="107"/>
+      <c r="H51" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="111">
+        <f>SUM(I5:I50)</f>
+        <v>1688</v>
+      </c>
+      <c r="J51" s="112"/>
+      <c r="K51" s="113" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="114">
+        <f>SUM(L5:L50)</f>
+        <v>21617</v>
+      </c>
+      <c r="M51" s="115"/>
+      <c r="N51" s="115"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="9"/>
+    </row>
+    <row r="52" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="9"/>
+    </row>
+    <row r="53" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="117"/>
+      <c r="B53" s="118"/>
+      <c r="C53" s="1"/>
+      <c r="H53" s="287" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="288"/>
+      <c r="J53" s="119"/>
+      <c r="K53" s="289">
+        <f>I51+L51</f>
+        <v>23305</v>
+      </c>
+      <c r="L53" s="290"/>
+      <c r="M53" s="291">
+        <f>N40+M40</f>
+        <v>1341098</v>
+      </c>
+      <c r="N53" s="292"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="9"/>
+    </row>
+    <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D54" s="293" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="293"/>
+      <c r="F54" s="120">
+        <f>F51-K53-C51</f>
+        <v>1329634</v>
+      </c>
+      <c r="I54" s="121"/>
+      <c r="J54" s="122"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="9"/>
+    </row>
+    <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D55" s="294" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="294"/>
+      <c r="F55" s="115">
+        <v>0</v>
+      </c>
+      <c r="I55" s="295" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="296"/>
+      <c r="K55" s="297">
+        <f>F57+F58+F59</f>
+        <v>1329634</v>
+      </c>
+      <c r="L55" s="298"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="9"/>
+    </row>
+    <row r="56" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D56" s="123"/>
+      <c r="E56" s="117"/>
+      <c r="F56" s="124">
+        <v>0</v>
+      </c>
+      <c r="I56" s="125"/>
+      <c r="J56" s="126"/>
+      <c r="K56" s="127"/>
+      <c r="L56" s="128"/>
+    </row>
+    <row r="57" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="115">
+        <f>SUM(F54:F56)</f>
+        <v>1329634</v>
+      </c>
+      <c r="H57" s="24"/>
+      <c r="I57" s="129" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="130"/>
+      <c r="K57" s="299">
+        <f>-C4</f>
+        <v>-297874.59000000003</v>
+      </c>
+      <c r="L57" s="300"/>
+    </row>
+    <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="131" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C59" s="133"/>
+      <c r="D59" s="276" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="277"/>
+      <c r="F59" s="134">
+        <v>0</v>
+      </c>
+      <c r="I59" s="278"/>
+      <c r="J59" s="279"/>
+      <c r="K59" s="280">
+        <f>K55+K57</f>
+        <v>1031759.4099999999</v>
+      </c>
+      <c r="L59" s="280"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -19693,3545 +23502,6 @@
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
-  </sheetPr>
-  <dimension ref="A1:G115"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A22" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" style="201" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="233" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="201" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="117"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="209" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="231"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="153" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="210" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="155" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="156" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="199" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="156" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="157" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="252">
-        <v>44679</v>
-      </c>
-      <c r="B3" s="253" t="s">
-        <v>237</v>
-      </c>
-      <c r="C3" s="254">
-        <v>38714.910000000003</v>
-      </c>
-      <c r="D3" s="239">
-        <v>44652</v>
-      </c>
-      <c r="E3" s="255">
-        <v>38714.910000000003</v>
-      </c>
-      <c r="F3" s="158">
-        <f>C3-E3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="252">
-        <v>44679</v>
-      </c>
-      <c r="B4" s="253" t="s">
-        <v>238</v>
-      </c>
-      <c r="C4" s="254">
-        <v>7324.6</v>
-      </c>
-      <c r="D4" s="239">
-        <v>44652</v>
-      </c>
-      <c r="E4" s="255">
-        <v>7324.6</v>
-      </c>
-      <c r="F4" s="196">
-        <f>C4-E4+F3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="252">
-        <v>44680</v>
-      </c>
-      <c r="B5" s="253" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" s="254">
-        <v>794.4</v>
-      </c>
-      <c r="D5" s="239">
-        <v>44652</v>
-      </c>
-      <c r="E5" s="255">
-        <v>794.4</v>
-      </c>
-      <c r="F5" s="196">
-        <f t="shared" ref="F5:F47" si="0">C5-E5+F4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="252">
-        <v>44681</v>
-      </c>
-      <c r="B6" s="253" t="s">
-        <v>240</v>
-      </c>
-      <c r="C6" s="254">
-        <v>112563.39</v>
-      </c>
-      <c r="D6" s="239">
-        <v>44652</v>
-      </c>
-      <c r="E6" s="255">
-        <v>112563.39</v>
-      </c>
-      <c r="F6" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="162"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="252">
-        <v>44681</v>
-      </c>
-      <c r="B7" s="253" t="s">
-        <v>241</v>
-      </c>
-      <c r="C7" s="254">
-        <v>1341.6</v>
-      </c>
-      <c r="D7" s="239">
-        <v>44652</v>
-      </c>
-      <c r="E7" s="255">
-        <v>1341.6</v>
-      </c>
-      <c r="F7" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="249">
-        <v>44652</v>
-      </c>
-      <c r="B8" s="248" t="s">
-        <v>242</v>
-      </c>
-      <c r="C8" s="115">
-        <v>109475.36</v>
-      </c>
-      <c r="D8" s="239">
-        <v>44652</v>
-      </c>
-      <c r="E8" s="256">
-        <v>109475.36</v>
-      </c>
-      <c r="F8" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="249">
-        <v>44653</v>
-      </c>
-      <c r="B9" s="248" t="s">
-        <v>243</v>
-      </c>
-      <c r="C9" s="115">
-        <v>93380.9</v>
-      </c>
-      <c r="D9" s="241">
-        <v>44659</v>
-      </c>
-      <c r="E9" s="259">
-        <v>93380.9</v>
-      </c>
-      <c r="F9" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="249">
-        <v>44655</v>
-      </c>
-      <c r="B10" s="248" t="s">
-        <v>244</v>
-      </c>
-      <c r="C10" s="115">
-        <v>90010.89</v>
-      </c>
-      <c r="D10" s="241">
-        <v>44659</v>
-      </c>
-      <c r="E10" s="259">
-        <v>90010.89</v>
-      </c>
-      <c r="F10" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="249">
-        <v>44656</v>
-      </c>
-      <c r="B11" s="248" t="s">
-        <v>245</v>
-      </c>
-      <c r="C11" s="115">
-        <v>0</v>
-      </c>
-      <c r="D11" s="202" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="115">
-        <v>0</v>
-      </c>
-      <c r="F11" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="249">
-        <v>44656</v>
-      </c>
-      <c r="B12" s="248" t="s">
-        <v>246</v>
-      </c>
-      <c r="C12" s="115">
-        <v>20042.650000000001</v>
-      </c>
-      <c r="D12" s="241">
-        <v>44659</v>
-      </c>
-      <c r="E12" s="259">
-        <v>20042.650000000001</v>
-      </c>
-      <c r="F12" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="162"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="249">
-        <v>44657</v>
-      </c>
-      <c r="B13" s="248" t="s">
-        <v>247</v>
-      </c>
-      <c r="C13" s="115">
-        <v>91542.2</v>
-      </c>
-      <c r="D13" s="241">
-        <v>44659</v>
-      </c>
-      <c r="E13" s="259">
-        <v>91542.2</v>
-      </c>
-      <c r="F13" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="249">
-        <v>44658</v>
-      </c>
-      <c r="B14" s="248" t="s">
-        <v>248</v>
-      </c>
-      <c r="C14" s="115">
-        <v>98059.12</v>
-      </c>
-      <c r="D14" s="241">
-        <v>44659</v>
-      </c>
-      <c r="E14" s="259">
-        <v>98059.12</v>
-      </c>
-      <c r="F14" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="249">
-        <v>44659</v>
-      </c>
-      <c r="B15" s="248" t="s">
-        <v>249</v>
-      </c>
-      <c r="C15" s="115">
-        <v>82352.600000000006</v>
-      </c>
-      <c r="D15" s="200">
-        <v>44669</v>
-      </c>
-      <c r="E15" s="115">
-        <v>82352.600000000006</v>
-      </c>
-      <c r="F15" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="249">
-        <v>44660</v>
-      </c>
-      <c r="B16" s="248" t="s">
-        <v>250</v>
-      </c>
-      <c r="C16" s="115">
-        <v>10483.23</v>
-      </c>
-      <c r="D16" s="200">
-        <v>44669</v>
-      </c>
-      <c r="E16" s="115">
-        <v>10483.23</v>
-      </c>
-      <c r="F16" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="249">
-        <v>44660</v>
-      </c>
-      <c r="B17" s="248" t="s">
-        <v>251</v>
-      </c>
-      <c r="C17" s="115">
-        <v>58975.89</v>
-      </c>
-      <c r="D17" s="200">
-        <v>44669</v>
-      </c>
-      <c r="E17" s="115">
-        <v>58975.89</v>
-      </c>
-      <c r="F17" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="249">
-        <v>44660</v>
-      </c>
-      <c r="B18" s="248" t="s">
-        <v>252</v>
-      </c>
-      <c r="C18" s="115">
-        <v>8687</v>
-      </c>
-      <c r="D18" s="200">
-        <v>44669</v>
-      </c>
-      <c r="E18" s="115">
-        <v>8687</v>
-      </c>
-      <c r="F18" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="249">
-        <v>44662</v>
-      </c>
-      <c r="B19" s="248" t="s">
-        <v>253</v>
-      </c>
-      <c r="C19" s="115">
-        <v>66983.399999999994</v>
-      </c>
-      <c r="D19" s="200">
-        <v>44669</v>
-      </c>
-      <c r="E19" s="115">
-        <v>66983.399999999994</v>
-      </c>
-      <c r="F19" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="249">
-        <v>44663</v>
-      </c>
-      <c r="B20" s="248" t="s">
-        <v>254</v>
-      </c>
-      <c r="C20" s="115">
-        <v>35876.1</v>
-      </c>
-      <c r="D20" s="200">
-        <v>44669</v>
-      </c>
-      <c r="E20" s="115">
-        <v>35876.1</v>
-      </c>
-      <c r="F20" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="249">
-        <v>44664</v>
-      </c>
-      <c r="B21" s="248" t="s">
-        <v>255</v>
-      </c>
-      <c r="C21" s="115">
-        <v>68255.100000000006</v>
-      </c>
-      <c r="D21" s="200">
-        <v>44669</v>
-      </c>
-      <c r="E21" s="115">
-        <v>68255.100000000006</v>
-      </c>
-      <c r="F21" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="249">
-        <v>44665</v>
-      </c>
-      <c r="B22" s="248" t="s">
-        <v>256</v>
-      </c>
-      <c r="C22" s="115">
-        <v>82981.11</v>
-      </c>
-      <c r="D22" s="200">
-        <v>44669</v>
-      </c>
-      <c r="E22" s="115">
-        <v>82981.11</v>
-      </c>
-      <c r="F22" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="249">
-        <v>44665</v>
-      </c>
-      <c r="B23" s="248" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="115">
-        <v>8015.15</v>
-      </c>
-      <c r="D23" s="200">
-        <v>44669</v>
-      </c>
-      <c r="E23" s="115">
-        <v>8015.15</v>
-      </c>
-      <c r="F23" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="249">
-        <v>44667</v>
-      </c>
-      <c r="B24" s="248" t="s">
-        <v>258</v>
-      </c>
-      <c r="C24" s="115">
-        <v>113918.95</v>
-      </c>
-      <c r="D24" s="200">
-        <v>44669</v>
-      </c>
-      <c r="E24" s="115">
-        <v>113918.95</v>
-      </c>
-      <c r="F24" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="162"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="249">
-        <v>44668</v>
-      </c>
-      <c r="B25" s="248" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="115">
-        <v>610.4</v>
-      </c>
-      <c r="D25" s="200">
-        <v>44669</v>
-      </c>
-      <c r="E25" s="115">
-        <v>610.4</v>
-      </c>
-      <c r="F25" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="249">
-        <v>44669</v>
-      </c>
-      <c r="B26" s="248" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="115">
-        <v>69241.3</v>
-      </c>
-      <c r="D26" s="200">
-        <v>44669</v>
-      </c>
-      <c r="E26" s="115">
-        <v>69241.3</v>
-      </c>
-      <c r="F26" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="249">
-        <v>44670</v>
-      </c>
-      <c r="B27" s="248" t="s">
-        <v>261</v>
-      </c>
-      <c r="C27" s="115">
-        <v>19804.8</v>
-      </c>
-      <c r="D27" s="257">
-        <v>44673</v>
-      </c>
-      <c r="E27" s="258">
-        <v>19804.8</v>
-      </c>
-      <c r="F27" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="249">
-        <v>44671</v>
-      </c>
-      <c r="B28" s="248" t="s">
-        <v>262</v>
-      </c>
-      <c r="C28" s="115">
-        <v>97519.7</v>
-      </c>
-      <c r="D28" s="257">
-        <v>44673</v>
-      </c>
-      <c r="E28" s="258">
-        <v>97519.7</v>
-      </c>
-      <c r="F28" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="249">
-        <v>44672</v>
-      </c>
-      <c r="B29" s="248" t="s">
-        <v>263</v>
-      </c>
-      <c r="C29" s="115">
-        <v>108559.18</v>
-      </c>
-      <c r="D29" s="257">
-        <v>44673</v>
-      </c>
-      <c r="E29" s="258">
-        <v>108559.18</v>
-      </c>
-      <c r="F29" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="249">
-        <v>44673</v>
-      </c>
-      <c r="B30" s="248" t="s">
-        <v>264</v>
-      </c>
-      <c r="C30" s="115">
-        <v>0</v>
-      </c>
-      <c r="D30" s="250" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" s="115">
-        <v>0</v>
-      </c>
-      <c r="F30" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="249">
-        <v>44673</v>
-      </c>
-      <c r="B31" s="248" t="s">
-        <v>265</v>
-      </c>
-      <c r="C31" s="115">
-        <v>90834.65</v>
-      </c>
-      <c r="D31" s="257">
-        <v>44673</v>
-      </c>
-      <c r="E31" s="258">
-        <v>90834.65</v>
-      </c>
-      <c r="F31" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="249">
-        <v>44673</v>
-      </c>
-      <c r="B32" s="248" t="s">
-        <v>266</v>
-      </c>
-      <c r="C32" s="115">
-        <v>6798</v>
-      </c>
-      <c r="D32" s="257">
-        <v>44673</v>
-      </c>
-      <c r="E32" s="258">
-        <v>6798</v>
-      </c>
-      <c r="F32" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="162"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="249">
-        <v>44674</v>
-      </c>
-      <c r="B33" s="248" t="s">
-        <v>267</v>
-      </c>
-      <c r="C33" s="115">
-        <v>106135.36</v>
-      </c>
-      <c r="D33" s="200">
-        <v>44681</v>
-      </c>
-      <c r="E33" s="115">
-        <v>106135.36</v>
-      </c>
-      <c r="F33" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="249">
-        <v>44676</v>
-      </c>
-      <c r="B34" s="248" t="s">
-        <v>268</v>
-      </c>
-      <c r="C34" s="115">
-        <v>53461.2</v>
-      </c>
-      <c r="D34" s="200">
-        <v>44681</v>
-      </c>
-      <c r="E34" s="115">
-        <v>53461.2</v>
-      </c>
-      <c r="F34" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="249">
-        <v>44677</v>
-      </c>
-      <c r="B35" s="248" t="s">
-        <v>269</v>
-      </c>
-      <c r="C35" s="115">
-        <v>106910.84</v>
-      </c>
-      <c r="D35" s="200">
-        <v>44681</v>
-      </c>
-      <c r="E35" s="115">
-        <v>106910.84</v>
-      </c>
-      <c r="F35" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="249">
-        <v>44678</v>
-      </c>
-      <c r="B36" s="248" t="s">
-        <v>270</v>
-      </c>
-      <c r="C36" s="115">
-        <v>73927.600000000006</v>
-      </c>
-      <c r="D36" s="200">
-        <v>44681</v>
-      </c>
-      <c r="E36" s="115">
-        <v>73927.600000000006</v>
-      </c>
-      <c r="F36" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="249">
-        <v>44679</v>
-      </c>
-      <c r="B37" s="248" t="s">
-        <v>271</v>
-      </c>
-      <c r="C37" s="115">
-        <v>94122.1</v>
-      </c>
-      <c r="D37" s="200">
-        <v>44681</v>
-      </c>
-      <c r="E37" s="115">
-        <v>94122.1</v>
-      </c>
-      <c r="F37" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="249">
-        <v>44679</v>
-      </c>
-      <c r="B38" s="248" t="s">
-        <v>272</v>
-      </c>
-      <c r="C38" s="115">
-        <v>3672</v>
-      </c>
-      <c r="D38" s="200">
-        <v>44681</v>
-      </c>
-      <c r="E38" s="115">
-        <v>3672</v>
-      </c>
-      <c r="F38" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="249">
-        <v>44680</v>
-      </c>
-      <c r="B39" s="248" t="s">
-        <v>273</v>
-      </c>
-      <c r="C39" s="115">
-        <v>66412.5</v>
-      </c>
-      <c r="D39" s="200">
-        <v>44681</v>
-      </c>
-      <c r="E39" s="115">
-        <v>66412.5</v>
-      </c>
-      <c r="F39" s="196">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="249" t="s">
-        <v>274</v>
-      </c>
-      <c r="B40" s="248" t="s">
-        <v>275</v>
-      </c>
-      <c r="C40" s="115">
-        <v>101114.1</v>
-      </c>
-      <c r="D40" s="200"/>
-      <c r="E40" s="195"/>
-      <c r="F40" s="196">
-        <f t="shared" si="0"/>
-        <v>101114.1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="249" t="s">
-        <v>274</v>
-      </c>
-      <c r="B41" s="248" t="s">
-        <v>276</v>
-      </c>
-      <c r="C41" s="115">
-        <v>28591.200000000001</v>
-      </c>
-      <c r="D41" s="200"/>
-      <c r="E41" s="195"/>
-      <c r="F41" s="196">
-        <f t="shared" si="0"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="211"/>
-      <c r="B42" s="194"/>
-      <c r="C42" s="195"/>
-      <c r="D42" s="200"/>
-      <c r="E42" s="195"/>
-      <c r="F42" s="196">
-        <f t="shared" si="0"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="163"/>
-      <c r="B43" s="160"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="159"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="196">
-        <f t="shared" si="0"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="164"/>
-      <c r="B44" s="165"/>
-      <c r="C44" s="166"/>
-      <c r="D44" s="159"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="196">
-        <f t="shared" si="0"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="164"/>
-      <c r="B45" s="165"/>
-      <c r="C45" s="166"/>
-      <c r="D45" s="159"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="196">
-        <f t="shared" si="0"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="164"/>
-      <c r="B46" s="165"/>
-      <c r="C46" s="166"/>
-      <c r="D46" s="159"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="196">
-        <f t="shared" si="0"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="164"/>
-      <c r="B47" s="165"/>
-      <c r="C47" s="166"/>
-      <c r="D47" s="159"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="196">
-        <f t="shared" si="0"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="164"/>
-      <c r="B48" s="165"/>
-      <c r="C48" s="166"/>
-      <c r="D48" s="159"/>
-      <c r="E48" s="86"/>
-      <c r="F48" s="196">
-        <f t="shared" ref="F48:F78" si="1">C48-E48+F47</f>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="164"/>
-      <c r="B49" s="165"/>
-      <c r="C49" s="166"/>
-      <c r="D49" s="159"/>
-      <c r="E49" s="86"/>
-      <c r="F49" s="196">
-        <f t="shared" si="1"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="164"/>
-      <c r="B50" s="165"/>
-      <c r="C50" s="166"/>
-      <c r="D50" s="159"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="196">
-        <f t="shared" si="1"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="164"/>
-      <c r="B51" s="165"/>
-      <c r="C51" s="166"/>
-      <c r="D51" s="159"/>
-      <c r="E51" s="86"/>
-      <c r="F51" s="196">
-        <f t="shared" si="1"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="164"/>
-      <c r="B52" s="165"/>
-      <c r="C52" s="166"/>
-      <c r="D52" s="159"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="196">
-        <f t="shared" si="1"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="164"/>
-      <c r="B53" s="165"/>
-      <c r="C53" s="166"/>
-      <c r="D53" s="159"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="196">
-        <f t="shared" si="1"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="164"/>
-      <c r="B54" s="165"/>
-      <c r="C54" s="166"/>
-      <c r="D54" s="159"/>
-      <c r="E54" s="86"/>
-      <c r="F54" s="196">
-        <f t="shared" si="1"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="164"/>
-      <c r="B55" s="165"/>
-      <c r="C55" s="166"/>
-      <c r="D55" s="159"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="196">
-        <f t="shared" si="1"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="164"/>
-      <c r="B56" s="165"/>
-      <c r="C56" s="166"/>
-      <c r="D56" s="159"/>
-      <c r="E56" s="86"/>
-      <c r="F56" s="196">
-        <f t="shared" si="1"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="164"/>
-      <c r="B57" s="165"/>
-      <c r="C57" s="166"/>
-      <c r="D57" s="159"/>
-      <c r="E57" s="86"/>
-      <c r="F57" s="196">
-        <f t="shared" si="1"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="164"/>
-      <c r="B58" s="165"/>
-      <c r="C58" s="166"/>
-      <c r="D58" s="159"/>
-      <c r="E58" s="86"/>
-      <c r="F58" s="196">
-        <f t="shared" si="1"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="164"/>
-      <c r="B59" s="165"/>
-      <c r="C59" s="166"/>
-      <c r="D59" s="159"/>
-      <c r="E59" s="86"/>
-      <c r="F59" s="196">
-        <f t="shared" si="1"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="164"/>
-      <c r="B60" s="165"/>
-      <c r="C60" s="166"/>
-      <c r="D60" s="159"/>
-      <c r="E60" s="86"/>
-      <c r="F60" s="196">
-        <f t="shared" si="1"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="164"/>
-      <c r="B61" s="165"/>
-      <c r="C61" s="166"/>
-      <c r="D61" s="159"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="196">
-        <f t="shared" si="1"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="167"/>
-      <c r="B62" s="168"/>
-      <c r="C62" s="169"/>
-      <c r="D62" s="170"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="196">
-        <f t="shared" si="1"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="167"/>
-      <c r="B63" s="168"/>
-      <c r="C63" s="169"/>
-      <c r="D63" s="170"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="196">
-        <f t="shared" si="1"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="167"/>
-      <c r="B64" s="168"/>
-      <c r="C64" s="169"/>
-      <c r="D64" s="170"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="196">
-        <f t="shared" si="1"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="167"/>
-      <c r="B65" s="168"/>
-      <c r="C65" s="169"/>
-      <c r="D65" s="170"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="196">
-        <f t="shared" si="1"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="167"/>
-      <c r="B66" s="168"/>
-      <c r="C66" s="169"/>
-      <c r="D66" s="170"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="196">
-        <f t="shared" si="1"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="167"/>
-      <c r="B67" s="168"/>
-      <c r="C67" s="169"/>
-      <c r="D67" s="170"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="196">
-        <f t="shared" si="1"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="164"/>
-      <c r="B68" s="165"/>
-      <c r="C68" s="166"/>
-      <c r="D68" s="171"/>
-      <c r="E68" s="86"/>
-      <c r="F68" s="196">
-        <f t="shared" si="1"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="164"/>
-      <c r="B69" s="165"/>
-      <c r="C69" s="166"/>
-      <c r="D69" s="171"/>
-      <c r="E69" s="86"/>
-      <c r="F69" s="196">
-        <f t="shared" si="1"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="164"/>
-      <c r="B70" s="165"/>
-      <c r="C70" s="166"/>
-      <c r="D70" s="171"/>
-      <c r="E70" s="86"/>
-      <c r="F70" s="196">
-        <f t="shared" si="1"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="164"/>
-      <c r="B71" s="165"/>
-      <c r="C71" s="166"/>
-      <c r="D71" s="171"/>
-      <c r="E71" s="86"/>
-      <c r="F71" s="196">
-        <f t="shared" si="1"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="164"/>
-      <c r="B72" s="165"/>
-      <c r="C72" s="166"/>
-      <c r="D72" s="171"/>
-      <c r="E72" s="86"/>
-      <c r="F72" s="196">
-        <f t="shared" si="1"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="164"/>
-      <c r="B73" s="165"/>
-      <c r="C73" s="166"/>
-      <c r="D73" s="171"/>
-      <c r="E73" s="86"/>
-      <c r="F73" s="196">
-        <f t="shared" si="1"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="164"/>
-      <c r="B74" s="165"/>
-      <c r="C74" s="166"/>
-      <c r="D74" s="171"/>
-      <c r="E74" s="86"/>
-      <c r="F74" s="196">
-        <f t="shared" si="1"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="164"/>
-      <c r="B75" s="165"/>
-      <c r="C75" s="166"/>
-      <c r="D75" s="171"/>
-      <c r="E75" s="86"/>
-      <c r="F75" s="196">
-        <f t="shared" si="1"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="164"/>
-      <c r="B76" s="165"/>
-      <c r="C76" s="166"/>
-      <c r="D76" s="171"/>
-      <c r="E76" s="86"/>
-      <c r="F76" s="196">
-        <f t="shared" si="1"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="164"/>
-      <c r="B77" s="165"/>
-      <c r="C77" s="166"/>
-      <c r="D77" s="171"/>
-      <c r="E77" s="86"/>
-      <c r="F77" s="196">
-        <f t="shared" si="1"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="172"/>
-      <c r="B78" s="173"/>
-      <c r="C78" s="34">
-        <v>0</v>
-      </c>
-      <c r="D78" s="174"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="196">
-        <f t="shared" si="1"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="212"/>
-      <c r="B79" s="232"/>
-      <c r="C79" s="251">
-        <f>SUM(C3:C78)</f>
-        <v>2227493.48</v>
-      </c>
-      <c r="D79" s="189"/>
-      <c r="E79" s="178">
-        <f>SUM(E3:E78)</f>
-        <v>2097788.1799999997</v>
-      </c>
-      <c r="F79" s="179">
-        <f>F78</f>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D80" s="170"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D81" s="170"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="234"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="234"/>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="234"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="234"/>
-      <c r="F85" s="117"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="234"/>
-      <c r="F86" s="117"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="234"/>
-      <c r="F87" s="117"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="234"/>
-      <c r="F88" s="117"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="234"/>
-      <c r="F89" s="117"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="234"/>
-      <c r="F90" s="117"/>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="234"/>
-      <c r="F91" s="117"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="234"/>
-      <c r="F92" s="117"/>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="234"/>
-      <c r="F93" s="117"/>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="234"/>
-      <c r="E94" s="117"/>
-      <c r="F94" s="117"/>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="234"/>
-      <c r="E95" s="117"/>
-      <c r="F95" s="117"/>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="234"/>
-      <c r="E96" s="117"/>
-      <c r="F96" s="117"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="234"/>
-      <c r="E97" s="117"/>
-      <c r="F97" s="117"/>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="234"/>
-      <c r="E98" s="117"/>
-      <c r="F98" s="117"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="234"/>
-      <c r="E99" s="117"/>
-      <c r="F99" s="117"/>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="234"/>
-      <c r="E100" s="117"/>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B101" s="234"/>
-      <c r="E101" s="117"/>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="234"/>
-      <c r="E102" s="117"/>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="234"/>
-      <c r="E103" s="117"/>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="234"/>
-      <c r="E104" s="117"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="234"/>
-      <c r="E105" s="117"/>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B106" s="234"/>
-      <c r="E106" s="117"/>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B107" s="234"/>
-      <c r="E107" s="117"/>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B108" s="234"/>
-      <c r="E108" s="117"/>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B109" s="234"/>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B110" s="234"/>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="234"/>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="234"/>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" s="234"/>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B114" s="234"/>
-    </row>
-    <row r="115" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C115" s="180"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
-  <dimension ref="A1:U81"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="116" customWidth="1"/>
-    <col min="3" max="3" width="16" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="2.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="12" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" style="245" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="274"/>
-      <c r="C1" s="276" t="s">
-        <v>277</v>
-      </c>
-      <c r="D1" s="277"/>
-      <c r="E1" s="277"/>
-      <c r="F1" s="277"/>
-      <c r="G1" s="277"/>
-      <c r="H1" s="277"/>
-      <c r="I1" s="277"/>
-      <c r="J1" s="277"/>
-      <c r="K1" s="277"/>
-      <c r="L1" s="277"/>
-      <c r="M1" s="277"/>
-    </row>
-    <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="275"/>
-      <c r="C2" s="3"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="9"/>
-    </row>
-    <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="278" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="279"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="H3" s="280" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="280"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="14"/>
-      <c r="R3" s="285" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17">
-        <v>297874.59000000003</v>
-      </c>
-      <c r="D4" s="18">
-        <v>44682</v>
-      </c>
-      <c r="E4" s="281" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="282"/>
-      <c r="H4" s="283" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="284"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="292" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q4" s="293"/>
-      <c r="R4" s="286"/>
-    </row>
-    <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="25">
-        <v>44683</v>
-      </c>
-      <c r="C5" s="26">
-        <v>0</v>
-      </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28">
-        <v>44683</v>
-      </c>
-      <c r="F5" s="29">
-        <v>59482</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="30">
-        <v>44683</v>
-      </c>
-      <c r="I5" s="31">
-        <v>147</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="182"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="32">
-        <f>22600+35936</f>
-        <v>58536</v>
-      </c>
-      <c r="N5" s="33">
-        <v>800</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="34">
-        <f>N5+M5+L5+I5+C5</f>
-        <v>59483</v>
-      </c>
-      <c r="Q5" s="13">
-        <f>P5-F5</f>
-        <v>1</v>
-      </c>
-      <c r="R5" s="9"/>
-    </row>
-    <row r="6" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25">
-        <v>44684</v>
-      </c>
-      <c r="C6" s="26">
-        <v>0</v>
-      </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="28">
-        <v>44684</v>
-      </c>
-      <c r="F6" s="29">
-        <v>78395</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="30">
-        <v>44684</v>
-      </c>
-      <c r="I6" s="31">
-        <v>10</v>
-      </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="32">
-        <f>30000+48311</f>
-        <v>78311</v>
-      </c>
-      <c r="N6" s="33">
-        <v>74</v>
-      </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="34">
-        <f t="shared" ref="P6:P39" si="0">N6+M6+L6+I6+C6</f>
-        <v>78395</v>
-      </c>
-      <c r="Q6" s="13">
-        <f t="shared" ref="Q6:Q40" si="1">P6-F6</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="8"/>
-      <c r="S6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25">
-        <v>44685</v>
-      </c>
-      <c r="C7" s="26">
-        <v>0</v>
-      </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="28">
-        <v>44685</v>
-      </c>
-      <c r="F7" s="29">
-        <v>33167</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="30">
-        <v>44685</v>
-      </c>
-      <c r="I7" s="31">
-        <v>98</v>
-      </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="32">
-        <f>5000+27569</f>
-        <v>32569</v>
-      </c>
-      <c r="N7" s="33">
-        <v>500</v>
-      </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="34">
-        <f t="shared" si="0"/>
-        <v>33167</v>
-      </c>
-      <c r="Q7" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="9"/>
-      <c r="S7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25">
-        <v>44686</v>
-      </c>
-      <c r="C8" s="26">
-        <v>1360</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="28">
-        <v>44686</v>
-      </c>
-      <c r="F8" s="29">
-        <v>58940</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="30">
-        <v>44686</v>
-      </c>
-      <c r="I8" s="31">
-        <v>28</v>
-      </c>
-      <c r="J8" s="44"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="32">
-        <f>52916+15000</f>
-        <v>67916</v>
-      </c>
-      <c r="N8" s="33">
-        <v>897</v>
-      </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="34">
-        <f t="shared" si="0"/>
-        <v>70201</v>
-      </c>
-      <c r="Q8" s="13">
-        <v>0</v>
-      </c>
-      <c r="R8" s="184">
-        <v>11261</v>
-      </c>
-      <c r="S8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25">
-        <v>44687</v>
-      </c>
-      <c r="C9" s="26">
-        <v>0</v>
-      </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="28">
-        <v>44687</v>
-      </c>
-      <c r="F9" s="29">
-        <v>98700</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="30">
-        <v>44687</v>
-      </c>
-      <c r="I9" s="31">
-        <v>85</v>
-      </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="32">
-        <f>20000+40000+38615</f>
-        <v>98615</v>
-      </c>
-      <c r="N9" s="33">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="34">
-        <f>N9+M9+L9+I9+C9</f>
-        <v>98700</v>
-      </c>
-      <c r="Q9" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="8"/>
-      <c r="S9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25">
-        <v>44688</v>
-      </c>
-      <c r="C10" s="26">
-        <v>7184</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="28">
-        <v>44688</v>
-      </c>
-      <c r="F10" s="29">
-        <v>102747</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="30">
-        <v>44688</v>
-      </c>
-      <c r="I10" s="31">
-        <v>60</v>
-      </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="32">
-        <f>40000+47403</f>
-        <v>87403</v>
-      </c>
-      <c r="N10" s="33">
-        <v>8100</v>
-      </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="34">
-        <f t="shared" si="0"/>
-        <v>102747</v>
-      </c>
-      <c r="Q10" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="9"/>
-      <c r="S10">
-        <v>-14</v>
-      </c>
-      <c r="U10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25">
-        <v>44689</v>
-      </c>
-      <c r="C11" s="26">
-        <v>5204</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="28">
-        <v>44689</v>
-      </c>
-      <c r="F11" s="29">
-        <v>114024</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="30">
-        <v>44689</v>
-      </c>
-      <c r="I11" s="31">
-        <v>22</v>
-      </c>
-      <c r="J11" s="44">
-        <v>44689</v>
-      </c>
-      <c r="K11" s="49" t="s">
-        <v>278</v>
-      </c>
-      <c r="L11" s="40">
-        <v>9717</v>
-      </c>
-      <c r="M11" s="32">
-        <f>80000+18221</f>
-        <v>98221</v>
-      </c>
-      <c r="N11" s="33">
-        <v>860</v>
-      </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="34">
-        <f>N11+M11+L11+I11+C11</f>
-        <v>114024</v>
-      </c>
-      <c r="Q11" s="13">
-        <f>P11-F11</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25">
-        <v>44690</v>
-      </c>
-      <c r="C12" s="26">
-        <v>2800</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="28">
-        <v>44690</v>
-      </c>
-      <c r="F12" s="29">
-        <v>85296</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="30">
-        <v>44690</v>
-      </c>
-      <c r="I12" s="31">
-        <v>39</v>
-      </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="32">
-        <f>57065+24240+200</f>
-        <v>81505</v>
-      </c>
-      <c r="N12" s="33">
-        <v>1152</v>
-      </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="34">
-        <f t="shared" si="0"/>
-        <v>85496</v>
-      </c>
-      <c r="Q12" s="13">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="R12" s="8"/>
-      <c r="S12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25">
-        <v>44691</v>
-      </c>
-      <c r="C13" s="26">
-        <v>800</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="28">
-        <v>44691</v>
-      </c>
-      <c r="F13" s="29">
-        <v>92517</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="30">
-        <v>44691</v>
-      </c>
-      <c r="I13" s="31">
-        <v>19</v>
-      </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="32">
-        <f>20000+40000+31098</f>
-        <v>91098</v>
-      </c>
-      <c r="N13" s="33">
-        <v>600</v>
-      </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="34">
-        <f t="shared" si="0"/>
-        <v>92517</v>
-      </c>
-      <c r="Q13" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="185"/>
-      <c r="S13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25">
-        <v>44692</v>
-      </c>
-      <c r="C14" s="26">
-        <v>0</v>
-      </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="28">
-        <v>44692</v>
-      </c>
-      <c r="F14" s="29">
-        <v>35612</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="30">
-        <v>44692</v>
-      </c>
-      <c r="I14" s="31">
-        <v>309</v>
-      </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="32">
-        <v>35029</v>
-      </c>
-      <c r="N14" s="33">
-        <v>274</v>
-      </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="34">
-        <f t="shared" si="0"/>
-        <v>35612</v>
-      </c>
-      <c r="Q14" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="185"/>
-      <c r="S14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25">
-        <v>44693</v>
-      </c>
-      <c r="C15" s="26">
-        <v>18388</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="28">
-        <v>44693</v>
-      </c>
-      <c r="F15" s="29">
-        <v>69146</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="30">
-        <v>44693</v>
-      </c>
-      <c r="I15" s="31">
-        <v>90</v>
-      </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="32">
-        <f>30668+20000</f>
-        <v>50668</v>
-      </c>
-      <c r="N15" s="33">
-        <v>0</v>
-      </c>
-      <c r="P15" s="34">
-        <f t="shared" si="0"/>
-        <v>69146</v>
-      </c>
-      <c r="Q15" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="8"/>
-      <c r="S15">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25">
-        <v>44694</v>
-      </c>
-      <c r="C16" s="26">
-        <v>0</v>
-      </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="28">
-        <v>44694</v>
-      </c>
-      <c r="F16" s="29">
-        <v>98563</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="30">
-        <v>44694</v>
-      </c>
-      <c r="I16" s="31">
-        <v>220</v>
-      </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="32">
-        <f>63232+25000</f>
-        <v>88232</v>
-      </c>
-      <c r="N16" s="33">
-        <v>10111</v>
-      </c>
-      <c r="P16" s="34">
-        <f t="shared" si="0"/>
-        <v>98563</v>
-      </c>
-      <c r="Q16" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="S16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25">
-        <v>44695</v>
-      </c>
-      <c r="C17" s="26">
-        <v>1411</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="E17" s="28">
-        <v>44695</v>
-      </c>
-      <c r="F17" s="29">
-        <v>149845</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="30">
-        <v>44695</v>
-      </c>
-      <c r="I17" s="31">
-        <v>364</v>
-      </c>
-      <c r="J17" s="38">
-        <v>44695</v>
-      </c>
-      <c r="K17" s="52" t="s">
-        <v>280</v>
-      </c>
-      <c r="L17" s="48">
-        <v>11900</v>
-      </c>
-      <c r="M17" s="32">
-        <f>12366+41750+45477+25000</f>
-        <v>124593</v>
-      </c>
-      <c r="N17" s="33">
-        <v>11577</v>
-      </c>
-      <c r="P17" s="34">
-        <f t="shared" si="0"/>
-        <v>149845</v>
-      </c>
-      <c r="Q17" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="8"/>
-      <c r="S17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25">
-        <v>44696</v>
-      </c>
-      <c r="C18" s="26">
-        <v>0</v>
-      </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="28">
-        <v>44696</v>
-      </c>
-      <c r="F18" s="29">
-        <v>122601</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="30">
-        <v>44696</v>
-      </c>
-      <c r="I18" s="31">
-        <v>0</v>
-      </c>
-      <c r="J18" s="38"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="32">
-        <f>95000+26901</f>
-        <v>121901</v>
-      </c>
-      <c r="N18" s="33">
-        <v>700</v>
-      </c>
-      <c r="P18" s="34">
-        <f t="shared" si="0"/>
-        <v>122601</v>
-      </c>
-      <c r="Q18" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="8"/>
-      <c r="S18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25">
-        <v>44697</v>
-      </c>
-      <c r="C19" s="26">
-        <v>0</v>
-      </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="28">
-        <v>44697</v>
-      </c>
-      <c r="F19" s="29">
-        <v>62516</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="30">
-        <v>44697</v>
-      </c>
-      <c r="I19" s="31">
-        <v>59</v>
-      </c>
-      <c r="J19" s="38"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="32">
-        <f>22000+39329</f>
-        <v>61329</v>
-      </c>
-      <c r="N19" s="33">
-        <v>1130</v>
-      </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="34">
-        <f t="shared" si="0"/>
-        <v>62518</v>
-      </c>
-      <c r="Q19" s="13">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="R19" s="8"/>
-      <c r="S19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25">
-        <v>44698</v>
-      </c>
-      <c r="C20" s="26">
-        <v>0</v>
-      </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="28">
-        <v>44698</v>
-      </c>
-      <c r="F20" s="29">
-        <v>87181</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="30">
-        <v>44698</v>
-      </c>
-      <c r="I20" s="31">
-        <v>48</v>
-      </c>
-      <c r="J20" s="38"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="32">
-        <f>36535+50000</f>
-        <v>86535</v>
-      </c>
-      <c r="N20" s="33">
-        <v>598</v>
-      </c>
-      <c r="P20" s="34">
-        <f t="shared" si="0"/>
-        <v>87181</v>
-      </c>
-      <c r="Q20" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="8"/>
-      <c r="S20">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25">
-        <v>44699</v>
-      </c>
-      <c r="C21" s="26">
-        <v>2100</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="28">
-        <v>44699</v>
-      </c>
-      <c r="F21" s="29">
-        <v>43454</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="30">
-        <v>44699</v>
-      </c>
-      <c r="I21" s="31">
-        <v>90</v>
-      </c>
-      <c r="J21" s="38"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="32">
-        <f>31220+10000</f>
-        <v>41220</v>
-      </c>
-      <c r="N21" s="33">
-        <v>44</v>
-      </c>
-      <c r="P21" s="34">
-        <f t="shared" si="0"/>
-        <v>43454</v>
-      </c>
-      <c r="Q21" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="8"/>
-      <c r="S21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25">
-        <v>44700</v>
-      </c>
-      <c r="C22" s="26">
-        <v>0</v>
-      </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="28">
-        <v>44700</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="30">
-        <v>44700</v>
-      </c>
-      <c r="I22" s="31"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="32">
-        <v>0</v>
-      </c>
-      <c r="N22" s="33">
-        <v>0</v>
-      </c>
-      <c r="P22" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="8"/>
-      <c r="S22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25">
-        <v>44701</v>
-      </c>
-      <c r="C23" s="26">
-        <v>0</v>
-      </c>
-      <c r="D23" s="36"/>
-      <c r="E23" s="28">
-        <v>44701</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="30">
-        <v>44701</v>
-      </c>
-      <c r="I23" s="31"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="32">
-        <v>0</v>
-      </c>
-      <c r="N23" s="33">
-        <v>0</v>
-      </c>
-      <c r="P23" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="8"/>
-      <c r="S23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25">
-        <v>44702</v>
-      </c>
-      <c r="C24" s="26">
-        <v>0</v>
-      </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="28">
-        <v>44702</v>
-      </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="30">
-        <v>44702</v>
-      </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="181"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="32">
-        <v>0</v>
-      </c>
-      <c r="N24" s="33">
-        <v>0</v>
-      </c>
-      <c r="P24" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="8"/>
-      <c r="S24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25">
-        <v>44703</v>
-      </c>
-      <c r="C25" s="26">
-        <v>0</v>
-      </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="28">
-        <v>44703</v>
-      </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="30">
-        <v>44703</v>
-      </c>
-      <c r="I25" s="31"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="32">
-        <v>0</v>
-      </c>
-      <c r="N25" s="33">
-        <v>0</v>
-      </c>
-      <c r="O25" t="s">
-        <v>8</v>
-      </c>
-      <c r="P25" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="8"/>
-      <c r="S25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25">
-        <v>44704</v>
-      </c>
-      <c r="C26" s="26">
-        <v>0</v>
-      </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="28">
-        <v>44704</v>
-      </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="30">
-        <v>44704</v>
-      </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="32">
-        <v>0</v>
-      </c>
-      <c r="N26" s="33">
-        <v>0</v>
-      </c>
-      <c r="P26" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="9"/>
-      <c r="S26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25">
-        <v>44705</v>
-      </c>
-      <c r="C27" s="26">
-        <v>0</v>
-      </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="28">
-        <v>44705</v>
-      </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="30">
-        <v>44705</v>
-      </c>
-      <c r="I27" s="31"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="32">
-        <v>0</v>
-      </c>
-      <c r="N27" s="33">
-        <v>0</v>
-      </c>
-      <c r="P27" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="8"/>
-      <c r="S27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25">
-        <v>44706</v>
-      </c>
-      <c r="C28" s="26">
-        <v>0</v>
-      </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="28">
-        <v>44706</v>
-      </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="30">
-        <v>44706</v>
-      </c>
-      <c r="I28" s="31"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="32">
-        <v>0</v>
-      </c>
-      <c r="N28" s="33">
-        <v>0</v>
-      </c>
-      <c r="P28" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="8"/>
-      <c r="S28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="24"/>
-      <c r="B29" s="25">
-        <v>44707</v>
-      </c>
-      <c r="C29" s="26">
-        <v>0</v>
-      </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="28">
-        <v>44707</v>
-      </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="30">
-        <v>44707</v>
-      </c>
-      <c r="I29" s="31"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="32">
-        <v>0</v>
-      </c>
-      <c r="N29" s="33">
-        <v>0</v>
-      </c>
-      <c r="P29" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="8"/>
-      <c r="S29">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25">
-        <v>44708</v>
-      </c>
-      <c r="C30" s="26">
-        <v>0</v>
-      </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="28">
-        <v>44708</v>
-      </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="30">
-        <v>44708</v>
-      </c>
-      <c r="I30" s="31"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="32">
-        <v>0</v>
-      </c>
-      <c r="N30" s="33">
-        <v>0</v>
-      </c>
-      <c r="P30" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="8"/>
-    </row>
-    <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="24"/>
-      <c r="B31" s="25">
-        <v>44709</v>
-      </c>
-      <c r="C31" s="26">
-        <v>0</v>
-      </c>
-      <c r="D31" s="83"/>
-      <c r="E31" s="28">
-        <v>44709</v>
-      </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="30">
-        <v>44709</v>
-      </c>
-      <c r="I31" s="31"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="32">
-        <v>0</v>
-      </c>
-      <c r="N31" s="33">
-        <v>0</v>
-      </c>
-      <c r="P31" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="8"/>
-    </row>
-    <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="24"/>
-      <c r="B32" s="25">
-        <v>44710</v>
-      </c>
-      <c r="C32" s="26">
-        <v>0</v>
-      </c>
-      <c r="D32" s="78"/>
-      <c r="E32" s="28">
-        <v>44710</v>
-      </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="30">
-        <v>44710</v>
-      </c>
-      <c r="I32" s="31"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="32">
-        <v>0</v>
-      </c>
-      <c r="N32" s="33">
-        <v>0</v>
-      </c>
-      <c r="P32" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="24"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="32">
-        <v>0</v>
-      </c>
-      <c r="N33" s="33">
-        <v>0</v>
-      </c>
-      <c r="P33" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="61">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R33" s="8"/>
-    </row>
-    <row r="34" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="24"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="32">
-        <v>0</v>
-      </c>
-      <c r="N34" s="33">
-        <v>0</v>
-      </c>
-      <c r="P34" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="24"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="80"/>
-      <c r="M35" s="32">
-        <v>0</v>
-      </c>
-      <c r="N35" s="33">
-        <v>0</v>
-      </c>
-      <c r="P35" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R35" s="8"/>
-    </row>
-    <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="24"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="80"/>
-      <c r="M36" s="32">
-        <v>0</v>
-      </c>
-      <c r="N36" s="33">
-        <v>0</v>
-      </c>
-      <c r="P36" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="8"/>
-    </row>
-    <row r="37" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="24"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="221"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="32">
-        <v>0</v>
-      </c>
-      <c r="N37" s="33">
-        <v>0</v>
-      </c>
-      <c r="P37" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="24"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="80"/>
-      <c r="M38" s="32">
-        <v>0</v>
-      </c>
-      <c r="N38" s="33">
-        <v>0</v>
-      </c>
-      <c r="P38" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="61">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="24"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="73"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="32">
-        <v>0</v>
-      </c>
-      <c r="N39" s="33">
-        <v>0</v>
-      </c>
-      <c r="P39" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="24"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="273"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="294">
-        <f>SUM(M5:M39)</f>
-        <v>1303681</v>
-      </c>
-      <c r="N40" s="296">
-        <f>SUM(N5:N39)</f>
-        <v>37417</v>
-      </c>
-      <c r="P40" s="34">
-        <f>SUM(P5:P39)</f>
-        <v>1403650</v>
-      </c>
-      <c r="Q40" s="13">
-        <f t="shared" si="1"/>
-        <v>1403650</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="24"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="260"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="261"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="73"/>
-      <c r="K41" s="246"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="295"/>
-      <c r="N41" s="297"/>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="9"/>
-    </row>
-    <row r="42" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="24"/>
-      <c r="B42" s="159"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="263"/>
-      <c r="F42" s="246"/>
-      <c r="G42" s="262"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="95"/>
-      <c r="J42" s="73"/>
-      <c r="K42" s="76"/>
-      <c r="L42" s="80"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="97"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="9"/>
-    </row>
-    <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="24"/>
-      <c r="B43" s="159"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="263"/>
-      <c r="F43" s="246"/>
-      <c r="G43" s="262"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="95"/>
-      <c r="J43" s="73"/>
-      <c r="K43" s="76"/>
-      <c r="L43" s="80"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="97"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="9"/>
-    </row>
-    <row r="44" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="24"/>
-      <c r="B44" s="159"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="263"/>
-      <c r="F44" s="246"/>
-      <c r="G44" s="262"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="73"/>
-      <c r="K44" s="76"/>
-      <c r="L44" s="80"/>
-      <c r="M44" s="96"/>
-      <c r="N44" s="97"/>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="9"/>
-    </row>
-    <row r="45" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="24"/>
-      <c r="B45" s="159"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="263"/>
-      <c r="F45" s="246"/>
-      <c r="G45" s="262"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="95"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="76"/>
-      <c r="L45" s="80"/>
-      <c r="M45" s="96"/>
-      <c r="N45" s="97"/>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="9"/>
-    </row>
-    <row r="46" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="24"/>
-      <c r="B46" s="264"/>
-      <c r="C46" s="90"/>
-      <c r="D46" s="91"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="93"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="95"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="76"/>
-      <c r="L46" s="80"/>
-      <c r="M46" s="96"/>
-      <c r="N46" s="97"/>
-      <c r="P46" s="34"/>
-      <c r="Q46" s="9"/>
-    </row>
-    <row r="47" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="24"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="90"/>
-      <c r="D47" s="91"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="94"/>
-      <c r="I47" s="95"/>
-      <c r="J47" s="73"/>
-      <c r="K47" s="76"/>
-      <c r="L47" s="80"/>
-      <c r="M47" s="96"/>
-      <c r="N47" s="97"/>
-      <c r="P47" s="34"/>
-      <c r="Q47" s="9"/>
-    </row>
-    <row r="48" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="24"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="90"/>
-      <c r="D48" s="91"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="93"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="94"/>
-      <c r="I48" s="95"/>
-      <c r="J48" s="73"/>
-      <c r="K48" s="76"/>
-      <c r="L48" s="80"/>
-      <c r="M48" s="96"/>
-      <c r="N48" s="97"/>
-      <c r="P48" s="34"/>
-      <c r="Q48" s="9"/>
-    </row>
-    <row r="49" spans="1:17" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="24"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="90"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="94"/>
-      <c r="I49" s="95"/>
-      <c r="J49" s="73"/>
-      <c r="K49" s="76"/>
-      <c r="L49" s="80"/>
-      <c r="M49" s="96"/>
-      <c r="N49" s="97"/>
-      <c r="P49" s="34"/>
-      <c r="Q49" s="9"/>
-    </row>
-    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="24"/>
-      <c r="B50" s="98"/>
-      <c r="C50" s="26">
-        <v>0</v>
-      </c>
-      <c r="D50" s="99"/>
-      <c r="E50" s="100"/>
-      <c r="F50" s="90"/>
-      <c r="H50" s="101"/>
-      <c r="I50" s="95"/>
-      <c r="J50" s="102"/>
-      <c r="K50" s="103"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="104"/>
-      <c r="N50" s="33"/>
-      <c r="P50" s="34"/>
-      <c r="Q50" s="9"/>
-    </row>
-    <row r="51" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="105" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="106">
-        <f>SUM(C5:C50)</f>
-        <v>39247</v>
-      </c>
-      <c r="D51" s="107"/>
-      <c r="E51" s="108" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="109">
-        <f>SUM(F5:F50)</f>
-        <v>1392186</v>
-      </c>
-      <c r="G51" s="107"/>
-      <c r="H51" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="I51" s="111">
-        <f>SUM(I5:I50)</f>
-        <v>1688</v>
-      </c>
-      <c r="J51" s="112"/>
-      <c r="K51" s="113" t="s">
-        <v>11</v>
-      </c>
-      <c r="L51" s="114">
-        <f>SUM(L5:L50)</f>
-        <v>21617</v>
-      </c>
-      <c r="M51" s="115"/>
-      <c r="N51" s="115"/>
-      <c r="P51" s="34"/>
-      <c r="Q51" s="9"/>
-    </row>
-    <row r="52" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="9"/>
-    </row>
-    <row r="53" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="117"/>
-      <c r="B53" s="118"/>
-      <c r="C53" s="1"/>
-      <c r="H53" s="298" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" s="299"/>
-      <c r="J53" s="119"/>
-      <c r="K53" s="300">
-        <f>I51+L51</f>
-        <v>23305</v>
-      </c>
-      <c r="L53" s="301"/>
-      <c r="M53" s="302">
-        <f>N40+M40</f>
-        <v>1341098</v>
-      </c>
-      <c r="N53" s="303"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="9"/>
-    </row>
-    <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="304" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="304"/>
-      <c r="F54" s="120">
-        <f>F51-K53-C51</f>
-        <v>1329634</v>
-      </c>
-      <c r="I54" s="121"/>
-      <c r="J54" s="122"/>
-      <c r="P54" s="34"/>
-      <c r="Q54" s="9"/>
-    </row>
-    <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="305" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="305"/>
-      <c r="F55" s="115">
-        <v>0</v>
-      </c>
-      <c r="I55" s="306" t="s">
-        <v>15</v>
-      </c>
-      <c r="J55" s="307"/>
-      <c r="K55" s="308">
-        <f>F57+F58+F59</f>
-        <v>1329634</v>
-      </c>
-      <c r="L55" s="309"/>
-      <c r="P55" s="34"/>
-      <c r="Q55" s="9"/>
-    </row>
-    <row r="56" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D56" s="123"/>
-      <c r="E56" s="117"/>
-      <c r="F56" s="124">
-        <v>0</v>
-      </c>
-      <c r="I56" s="125"/>
-      <c r="J56" s="126"/>
-      <c r="K56" s="127"/>
-      <c r="L56" s="128"/>
-    </row>
-    <row r="57" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="117" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" s="115">
-        <f>SUM(F54:F56)</f>
-        <v>1329634</v>
-      </c>
-      <c r="H57" s="24"/>
-      <c r="I57" s="129" t="s">
-        <v>17</v>
-      </c>
-      <c r="J57" s="130"/>
-      <c r="K57" s="310">
-        <f>-C4</f>
-        <v>-297874.59000000003</v>
-      </c>
-      <c r="L57" s="311"/>
-    </row>
-    <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D58" s="131" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="117" t="s">
-        <v>19</v>
-      </c>
-      <c r="F58" s="132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C59" s="133"/>
-      <c r="D59" s="287" t="s">
-        <v>20</v>
-      </c>
-      <c r="E59" s="288"/>
-      <c r="F59" s="134">
-        <v>0</v>
-      </c>
-      <c r="I59" s="289"/>
-      <c r="J59" s="290"/>
-      <c r="K59" s="291">
-        <f>K55+K57</f>
-        <v>1031759.4099999999</v>
-      </c>
-      <c r="L59" s="291"/>
-    </row>
-    <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C60" s="135"/>
-      <c r="D60" s="136"/>
-      <c r="E60" s="137"/>
-      <c r="F60" s="138"/>
-      <c r="J60" s="139"/>
-    </row>
-    <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I61" s="140"/>
-      <c r="J61" s="140"/>
-      <c r="K61" s="141"/>
-      <c r="L61" s="141"/>
-    </row>
-    <row r="62" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="142"/>
-      <c r="C62" s="143"/>
-      <c r="D62" s="144"/>
-      <c r="E62" s="34"/>
-      <c r="I62" s="140"/>
-      <c r="J62" s="140"/>
-      <c r="K62" s="141"/>
-      <c r="L62" s="141"/>
-      <c r="M62" s="145"/>
-      <c r="N62" s="117"/>
-    </row>
-    <row r="63" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="142"/>
-      <c r="C63" s="146"/>
-      <c r="E63" s="34"/>
-      <c r="M63" s="145"/>
-      <c r="N63" s="117"/>
-    </row>
-    <row r="64" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="142"/>
-      <c r="C64" s="146"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="147"/>
-      <c r="L64" s="148"/>
-      <c r="M64" s="1"/>
-    </row>
-    <row r="65" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="142"/>
-      <c r="C65" s="146"/>
-      <c r="E65" s="34"/>
-      <c r="M65" s="1"/>
-    </row>
-    <row r="66" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="142"/>
-      <c r="C66" s="146"/>
-      <c r="D66" s="149"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="150"/>
-      <c r="M66" s="1"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D67" s="149"/>
-      <c r="E67" s="151"/>
-      <c r="F67" s="34"/>
-      <c r="M67" s="1"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D68" s="149"/>
-      <c r="E68" s="151"/>
-      <c r="F68" s="34"/>
-      <c r="M68" s="1"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D69" s="149"/>
-      <c r="E69" s="151"/>
-      <c r="F69" s="34"/>
-      <c r="M69" s="1"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D70" s="149"/>
-      <c r="E70" s="151"/>
-      <c r="F70" s="34"/>
-      <c r="M70" s="1"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D71" s="149"/>
-      <c r="E71" s="151"/>
-      <c r="F71" s="34"/>
-      <c r="M71" s="1"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D72" s="149"/>
-      <c r="E72" s="151"/>
-      <c r="F72" s="34"/>
-      <c r="M72" s="1"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D73" s="149"/>
-      <c r="E73" s="151"/>
-      <c r="F73" s="34"/>
-      <c r="M73" s="1"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D74" s="149"/>
-      <c r="E74" s="151"/>
-      <c r="F74" s="34"/>
-      <c r="M74" s="1"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D75" s="149"/>
-      <c r="E75" s="151"/>
-      <c r="F75" s="34"/>
-      <c r="M75" s="1"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D76" s="149"/>
-      <c r="E76" s="151"/>
-      <c r="F76" s="34"/>
-      <c r="M76" s="1"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D77" s="149"/>
-      <c r="E77" s="151"/>
-      <c r="F77" s="34"/>
-      <c r="M77" s="1"/>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D78" s="149"/>
-      <c r="E78" s="151"/>
-      <c r="F78" s="34"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D79" s="149"/>
-      <c r="E79" s="149"/>
-      <c r="F79" s="150"/>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D80" s="149"/>
-      <c r="E80" s="149"/>
-      <c r="F80" s="150"/>
-    </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D81" s="149"/>
-      <c r="E81" s="149"/>
-      <c r="F81" s="150"/>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/BALANCE   HERRADURA  MAYO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/BALANCE   HERRADURA  MAYO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="312">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1257,6 +1257,9 @@
   </si>
   <si>
     <t>23292 C</t>
+  </si>
+  <si>
+    <t>NOMINA # 21</t>
   </si>
 </sst>
 </file>
@@ -7725,7 +7728,7 @@
   </sheetPr>
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -21416,8 +21419,11 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView topLeftCell="J3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="J17" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22340,24 +22346,29 @@
       <c r="E22" s="28">
         <v>44700</v>
       </c>
-      <c r="F22" s="29"/>
+      <c r="F22" s="29">
+        <v>65355</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="30">
         <v>44700</v>
       </c>
-      <c r="I22" s="31"/>
+      <c r="I22" s="31">
+        <v>56</v>
+      </c>
       <c r="J22" s="38"/>
       <c r="K22" s="45"/>
       <c r="L22" s="58"/>
       <c r="M22" s="32">
-        <v>0</v>
+        <f>30000+35299</f>
+        <v>65299</v>
       </c>
       <c r="N22" s="33">
         <v>0</v>
       </c>
       <c r="P22" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>65355</v>
       </c>
       <c r="Q22" s="13">
         <f t="shared" si="1"/>
@@ -22374,30 +22385,37 @@
         <v>44701</v>
       </c>
       <c r="C23" s="26">
-        <v>0</v>
-      </c>
-      <c r="D23" s="36"/>
+        <v>19197</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>49</v>
+      </c>
       <c r="E23" s="28">
         <v>44701</v>
       </c>
-      <c r="F23" s="29"/>
+      <c r="F23" s="29">
+        <v>86439</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="30">
         <v>44701</v>
       </c>
-      <c r="I23" s="31"/>
+      <c r="I23" s="31">
+        <v>169</v>
+      </c>
       <c r="J23" s="59"/>
       <c r="K23" s="60"/>
       <c r="L23" s="48"/>
       <c r="M23" s="32">
-        <v>0</v>
+        <f>30000+36609</f>
+        <v>66609</v>
       </c>
       <c r="N23" s="33">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="P23" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86439</v>
       </c>
       <c r="Q23" s="13">
         <f t="shared" si="1"/>
@@ -22414,34 +22432,47 @@
         <v>44702</v>
       </c>
       <c r="C24" s="26">
-        <v>0</v>
-      </c>
-      <c r="D24" s="41"/>
+        <v>15</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>34</v>
+      </c>
       <c r="E24" s="28">
         <v>44702</v>
       </c>
-      <c r="F24" s="29"/>
+      <c r="F24" s="29">
+        <v>91965</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="30">
         <v>44702</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="181"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="63"/>
+      <c r="I24" s="31">
+        <v>60</v>
+      </c>
+      <c r="J24" s="181">
+        <v>44702</v>
+      </c>
+      <c r="K24" s="62" t="s">
+        <v>311</v>
+      </c>
+      <c r="L24" s="63">
+        <v>10800</v>
+      </c>
       <c r="M24" s="32">
-        <v>0</v>
+        <f>44952+5623+20000</f>
+        <v>70575</v>
       </c>
       <c r="N24" s="33">
-        <v>0</v>
+        <v>10516</v>
       </c>
       <c r="P24" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>91966</v>
       </c>
       <c r="Q24" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="8"/>
       <c r="S24">
@@ -22460,31 +22491,36 @@
       <c r="E25" s="28">
         <v>44703</v>
       </c>
-      <c r="F25" s="29"/>
+      <c r="F25" s="29">
+        <v>118336</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="30">
         <v>44703</v>
       </c>
-      <c r="I25" s="31"/>
+      <c r="I25" s="31">
+        <v>0</v>
+      </c>
       <c r="J25" s="64"/>
       <c r="K25" s="65"/>
       <c r="L25" s="66"/>
       <c r="M25" s="32">
-        <v>0</v>
+        <f>100000+14710</f>
+        <v>114710</v>
       </c>
       <c r="N25" s="33">
-        <v>0</v>
+        <v>3628</v>
       </c>
       <c r="O25" t="s">
         <v>8</v>
       </c>
       <c r="P25" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>118338</v>
       </c>
       <c r="Q25" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R25" s="8"/>
       <c r="S25">
@@ -22503,24 +22539,29 @@
       <c r="E26" s="28">
         <v>44704</v>
       </c>
-      <c r="F26" s="29"/>
+      <c r="F26" s="29">
+        <v>50361</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="30">
         <v>44704</v>
       </c>
-      <c r="I26" s="31"/>
+      <c r="I26" s="31">
+        <v>53</v>
+      </c>
       <c r="J26" s="38"/>
       <c r="K26" s="62"/>
       <c r="L26" s="48"/>
       <c r="M26" s="32">
-        <v>0</v>
+        <f>44308+6000</f>
+        <v>50308</v>
       </c>
       <c r="N26" s="33">
         <v>0</v>
       </c>
       <c r="P26" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50361</v>
       </c>
       <c r="Q26" s="13">
         <f t="shared" si="1"/>
@@ -22981,19 +23022,19 @@
       <c r="L40" s="75"/>
       <c r="M40" s="283">
         <f>SUM(M5:M39)</f>
-        <v>1303681</v>
+        <v>1671182</v>
       </c>
       <c r="N40" s="285">
         <f>SUM(N5:N39)</f>
-        <v>37417</v>
+        <v>52025</v>
       </c>
       <c r="P40" s="34">
         <f>SUM(P5:P39)</f>
-        <v>1403650</v>
+        <v>1816109</v>
       </c>
       <c r="Q40" s="13">
         <f t="shared" si="1"/>
-        <v>1403650</v>
+        <v>1816109</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23183,7 +23224,7 @@
       </c>
       <c r="C51" s="106">
         <f>SUM(C5:C50)</f>
-        <v>39247</v>
+        <v>58459</v>
       </c>
       <c r="D51" s="107"/>
       <c r="E51" s="108" t="s">
@@ -23191,7 +23232,7 @@
       </c>
       <c r="F51" s="109">
         <f>SUM(F5:F50)</f>
-        <v>1392186</v>
+        <v>1804642</v>
       </c>
       <c r="G51" s="107"/>
       <c r="H51" s="110" t="s">
@@ -23199,7 +23240,7 @@
       </c>
       <c r="I51" s="111">
         <f>SUM(I5:I50)</f>
-        <v>1688</v>
+        <v>2026</v>
       </c>
       <c r="J51" s="112"/>
       <c r="K51" s="113" t="s">
@@ -23207,7 +23248,7 @@
       </c>
       <c r="L51" s="114">
         <f>SUM(L5:L50)</f>
-        <v>21617</v>
+        <v>32417</v>
       </c>
       <c r="M51" s="115"/>
       <c r="N51" s="115"/>
@@ -23232,12 +23273,12 @@
       <c r="J53" s="119"/>
       <c r="K53" s="289">
         <f>I51+L51</f>
-        <v>23305</v>
+        <v>34443</v>
       </c>
       <c r="L53" s="290"/>
       <c r="M53" s="291">
         <f>N40+M40</f>
-        <v>1341098</v>
+        <v>1723207</v>
       </c>
       <c r="N53" s="292"/>
       <c r="P53" s="34"/>
@@ -23250,7 +23291,7 @@
       <c r="E54" s="293"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
-        <v>1329634</v>
+        <v>1711740</v>
       </c>
       <c r="I54" s="121"/>
       <c r="J54" s="122"/>
@@ -23271,7 +23312,7 @@
       <c r="J55" s="296"/>
       <c r="K55" s="297">
         <f>F57+F58+F59</f>
-        <v>1329634</v>
+        <v>1711740</v>
       </c>
       <c r="L55" s="298"/>
       <c r="P55" s="34"/>
@@ -23297,7 +23338,7 @@
       </c>
       <c r="F57" s="115">
         <f>SUM(F54:F56)</f>
-        <v>1329634</v>
+        <v>1711740</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="129" t="s">
@@ -23334,7 +23375,7 @@
       <c r="J59" s="279"/>
       <c r="K59" s="280">
         <f>K55+K57</f>
-        <v>1031759.4099999999</v>
+        <v>1413865.41</v>
       </c>
       <c r="L59" s="280"/>
     </row>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/BALANCE   HERRADURA  MAYO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/BALANCE   HERRADURA  MAYO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="322">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1260,6 +1260,36 @@
   </si>
   <si>
     <t>NOMINA # 21</t>
+  </si>
+  <si>
+    <t>LONGANIZA-CHORIZO</t>
+  </si>
+  <si>
+    <t>NOMINA # 22</t>
+  </si>
+  <si>
+    <t>23421 C</t>
+  </si>
+  <si>
+    <t>23555 C</t>
+  </si>
+  <si>
+    <t>23752 C</t>
+  </si>
+  <si>
+    <t>Material de Limpieza</t>
+  </si>
+  <si>
+    <t>Fumigacion</t>
+  </si>
+  <si>
+    <t>COMISIONES BANCARIAS</t>
+  </si>
+  <si>
+    <t>Comisiones Banco</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxx</t>
   </si>
 </sst>
 </file>
@@ -2540,7 +2570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="313">
+  <cellXfs count="319">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2980,9 +3010,6 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3042,8 +3069,43 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="27" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="17" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3126,41 +3188,17 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="27" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4046,13 +4084,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4099,13 +4137,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4152,13 +4190,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4205,13 +4243,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4258,13 +4296,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>200023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133352</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4319,7 +4357,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>64250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1323990" cy="419708"/>
@@ -4414,13 +4452,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1152525</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5610,23 +5648,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="301"/>
-      <c r="C1" s="303" t="s">
+      <c r="B1" s="277"/>
+      <c r="C1" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="304"/>
-      <c r="E1" s="304"/>
-      <c r="F1" s="304"/>
-      <c r="G1" s="304"/>
-      <c r="H1" s="304"/>
-      <c r="I1" s="304"/>
-      <c r="J1" s="304"/>
-      <c r="K1" s="304"/>
-      <c r="L1" s="304"/>
-      <c r="M1" s="304"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="280"/>
+      <c r="F1" s="280"/>
+      <c r="G1" s="280"/>
+      <c r="H1" s="280"/>
+      <c r="I1" s="280"/>
+      <c r="J1" s="280"/>
+      <c r="K1" s="280"/>
+      <c r="L1" s="280"/>
+      <c r="M1" s="280"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="302"/>
+      <c r="B2" s="278"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -5636,21 +5674,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="305" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="306"/>
+      <c r="B3" s="281" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="282"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="307" t="s">
+      <c r="H3" s="283" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="307"/>
+      <c r="I3" s="283"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="274" t="s">
+      <c r="R3" s="288" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5665,14 +5703,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="308" t="s">
+      <c r="E4" s="284" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="309"/>
-      <c r="H4" s="310" t="s">
+      <c r="F4" s="285"/>
+      <c r="H4" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="311"/>
+      <c r="I4" s="287"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -5682,11 +5720,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="281" t="s">
+      <c r="P4" s="295" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="282"/>
-      <c r="R4" s="275"/>
+      <c r="Q4" s="296"/>
+      <c r="R4" s="289"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -7187,11 +7225,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="283">
+      <c r="M40" s="297">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="285">
+      <c r="N40" s="299">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -7217,8 +7255,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="284"/>
-      <c r="N41" s="286"/>
+      <c r="M41" s="298"/>
+      <c r="N41" s="300"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -7433,29 +7471,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="287" t="s">
+      <c r="H53" s="301" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="288"/>
+      <c r="I53" s="302"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="289">
+      <c r="K53" s="303">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="290"/>
-      <c r="M53" s="291">
+      <c r="L53" s="304"/>
+      <c r="M53" s="305">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="292"/>
+      <c r="N53" s="306"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="293" t="s">
+      <c r="D54" s="307" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="293"/>
+      <c r="E54" s="307"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -7466,22 +7504,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="294" t="s">
+      <c r="D55" s="308" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="294"/>
+      <c r="E55" s="308"/>
       <c r="F55" s="115">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="295" t="s">
+      <c r="I55" s="309" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="296"/>
-      <c r="K55" s="297">
+      <c r="J55" s="310"/>
+      <c r="K55" s="311">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="298"/>
+      <c r="L55" s="312"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -7512,11 +7550,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="299">
+      <c r="K57" s="313">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="300"/>
+      <c r="L57" s="314"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -7533,22 +7571,22 @@
       <c r="C59" s="133">
         <v>44591</v>
       </c>
-      <c r="D59" s="276" t="s">
+      <c r="D59" s="290" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="277"/>
+      <c r="E59" s="291"/>
       <c r="F59" s="134">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="278" t="s">
+      <c r="I59" s="292" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="279"/>
-      <c r="K59" s="280">
+      <c r="J59" s="293"/>
+      <c r="K59" s="294">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="280"/>
+      <c r="L59" s="294"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -7692,12 +7730,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -7713,6 +7745,12 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7728,8 +7766,8 @@
   </sheetPr>
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7776,33 +7814,33 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="265">
+      <c r="A3" s="264">
         <v>44683</v>
       </c>
-      <c r="B3" s="266" t="s">
+      <c r="B3" s="265" t="s">
         <v>281</v>
       </c>
-      <c r="C3" s="267">
+      <c r="C3" s="266">
         <v>12615</v>
       </c>
-      <c r="D3" s="268"/>
-      <c r="E3" s="267"/>
+      <c r="D3" s="267"/>
+      <c r="E3" s="266"/>
       <c r="F3" s="158">
         <f>C3-E3</f>
         <v>12615</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="269">
+      <c r="A4" s="268">
         <v>44684</v>
       </c>
-      <c r="B4" s="270" t="s">
+      <c r="B4" s="269" t="s">
         <v>282</v>
       </c>
       <c r="C4" s="132">
         <v>17596.349999999999</v>
       </c>
-      <c r="D4" s="271"/>
+      <c r="D4" s="270"/>
       <c r="E4" s="132"/>
       <c r="F4" s="196">
         <f>C4-E4+F3</f>
@@ -7810,16 +7848,16 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="269">
+      <c r="A5" s="268">
         <v>44684</v>
       </c>
-      <c r="B5" s="270" t="s">
+      <c r="B5" s="269" t="s">
         <v>283</v>
       </c>
       <c r="C5" s="132">
         <v>74815.3</v>
       </c>
-      <c r="D5" s="271"/>
+      <c r="D5" s="270"/>
       <c r="E5" s="132"/>
       <c r="F5" s="196">
         <f t="shared" ref="F5:F68" si="0">C5-E5+F4</f>
@@ -7827,16 +7865,16 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="269">
+      <c r="A6" s="268">
         <v>44684</v>
       </c>
-      <c r="B6" s="270" t="s">
+      <c r="B6" s="269" t="s">
         <v>284</v>
       </c>
       <c r="C6" s="132">
         <v>41825.300000000003</v>
       </c>
-      <c r="D6" s="271"/>
+      <c r="D6" s="270"/>
       <c r="E6" s="132"/>
       <c r="F6" s="196">
         <f t="shared" si="0"/>
@@ -7845,16 +7883,16 @@
       <c r="G6" s="162"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="269">
+      <c r="A7" s="268">
         <v>44685</v>
       </c>
-      <c r="B7" s="270" t="s">
+      <c r="B7" s="269" t="s">
         <v>285</v>
       </c>
       <c r="C7" s="132">
         <v>16650.34</v>
       </c>
-      <c r="D7" s="271"/>
+      <c r="D7" s="270"/>
       <c r="E7" s="132"/>
       <c r="F7" s="196">
         <f t="shared" si="0"/>
@@ -7862,16 +7900,16 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="269">
+      <c r="A8" s="268">
         <v>44686</v>
       </c>
-      <c r="B8" s="270" t="s">
+      <c r="B8" s="269" t="s">
         <v>286</v>
       </c>
       <c r="C8" s="132">
         <v>123347.09</v>
       </c>
-      <c r="D8" s="271"/>
+      <c r="D8" s="270"/>
       <c r="E8" s="132"/>
       <c r="F8" s="196">
         <f t="shared" si="0"/>
@@ -7879,16 +7917,16 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="269">
+      <c r="A9" s="268">
         <v>44686</v>
       </c>
-      <c r="B9" s="270" t="s">
+      <c r="B9" s="269" t="s">
         <v>287</v>
       </c>
       <c r="C9" s="132">
         <v>8068.6</v>
       </c>
-      <c r="D9" s="271"/>
+      <c r="D9" s="270"/>
       <c r="E9" s="132"/>
       <c r="F9" s="196">
         <f t="shared" si="0"/>
@@ -7896,16 +7934,16 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="269">
+      <c r="A10" s="268">
         <v>44687</v>
       </c>
-      <c r="B10" s="270" t="s">
+      <c r="B10" s="269" t="s">
         <v>288</v>
       </c>
       <c r="C10" s="132">
         <v>150685.6</v>
       </c>
-      <c r="D10" s="271"/>
+      <c r="D10" s="270"/>
       <c r="E10" s="132"/>
       <c r="F10" s="196">
         <f t="shared" si="0"/>
@@ -7913,16 +7951,16 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="269">
+      <c r="A11" s="268">
         <v>44687</v>
       </c>
-      <c r="B11" s="270" t="s">
+      <c r="B11" s="269" t="s">
         <v>289</v>
       </c>
       <c r="C11" s="132">
         <v>7806</v>
       </c>
-      <c r="D11" s="271"/>
+      <c r="D11" s="270"/>
       <c r="E11" s="132"/>
       <c r="F11" s="196">
         <f t="shared" si="0"/>
@@ -7930,16 +7968,16 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="269">
+      <c r="A12" s="268">
         <v>44688</v>
       </c>
-      <c r="B12" s="270" t="s">
+      <c r="B12" s="269" t="s">
         <v>290</v>
       </c>
       <c r="C12" s="132">
         <v>3240</v>
       </c>
-      <c r="D12" s="271"/>
+      <c r="D12" s="270"/>
       <c r="E12" s="132"/>
       <c r="F12" s="196">
         <f t="shared" si="0"/>
@@ -7948,16 +7986,16 @@
       <c r="G12" s="162"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="269">
+      <c r="A13" s="268">
         <v>44688</v>
       </c>
-      <c r="B13" s="270" t="s">
+      <c r="B13" s="269" t="s">
         <v>291</v>
       </c>
       <c r="C13" s="132">
         <v>75100.639999999999</v>
       </c>
-      <c r="D13" s="271"/>
+      <c r="D13" s="270"/>
       <c r="E13" s="132"/>
       <c r="F13" s="196">
         <f t="shared" si="0"/>
@@ -7965,16 +8003,16 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="269">
+      <c r="A14" s="268">
         <v>44690</v>
       </c>
-      <c r="B14" s="270" t="s">
+      <c r="B14" s="269" t="s">
         <v>292</v>
       </c>
       <c r="C14" s="132">
         <v>119272.64</v>
       </c>
-      <c r="D14" s="271"/>
+      <c r="D14" s="270"/>
       <c r="E14" s="132"/>
       <c r="F14" s="196">
         <f t="shared" si="0"/>
@@ -7982,16 +8020,16 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="269">
+      <c r="A15" s="268">
         <v>44690</v>
       </c>
-      <c r="B15" s="270" t="s">
+      <c r="B15" s="269" t="s">
         <v>293</v>
       </c>
       <c r="C15" s="132">
         <v>1299.5999999999999</v>
       </c>
-      <c r="D15" s="271"/>
+      <c r="D15" s="270"/>
       <c r="E15" s="132"/>
       <c r="F15" s="196">
         <f t="shared" si="0"/>
@@ -7999,16 +8037,16 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="269">
+      <c r="A16" s="268">
         <v>44690</v>
       </c>
-      <c r="B16" s="270" t="s">
+      <c r="B16" s="269" t="s">
         <v>294</v>
       </c>
       <c r="C16" s="132">
         <v>259440</v>
       </c>
-      <c r="D16" s="271"/>
+      <c r="D16" s="270"/>
       <c r="E16" s="132"/>
       <c r="F16" s="196">
         <f t="shared" si="0"/>
@@ -8016,16 +8054,16 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="269">
+      <c r="A17" s="268">
         <v>44692</v>
       </c>
-      <c r="B17" s="270" t="s">
+      <c r="B17" s="269" t="s">
         <v>295</v>
       </c>
       <c r="C17" s="132">
         <v>111401.12</v>
       </c>
-      <c r="D17" s="271"/>
+      <c r="D17" s="270"/>
       <c r="E17" s="132"/>
       <c r="F17" s="196">
         <f t="shared" si="0"/>
@@ -8033,16 +8071,16 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="269">
+      <c r="A18" s="268">
         <v>44693</v>
       </c>
-      <c r="B18" s="270" t="s">
+      <c r="B18" s="269" t="s">
         <v>296</v>
       </c>
       <c r="C18" s="132">
         <v>35804.199999999997</v>
       </c>
-      <c r="D18" s="271"/>
+      <c r="D18" s="270"/>
       <c r="E18" s="132"/>
       <c r="F18" s="196">
         <f t="shared" si="0"/>
@@ -8050,16 +8088,16 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="269">
+      <c r="A19" s="268">
         <v>44694</v>
       </c>
-      <c r="B19" s="270" t="s">
+      <c r="B19" s="269" t="s">
         <v>297</v>
       </c>
       <c r="C19" s="132">
         <v>1607.16</v>
       </c>
-      <c r="D19" s="271"/>
+      <c r="D19" s="270"/>
       <c r="E19" s="132"/>
       <c r="F19" s="196">
         <f t="shared" si="0"/>
@@ -8067,16 +8105,16 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="269">
+      <c r="A20" s="268">
         <v>44694</v>
       </c>
-      <c r="B20" s="270" t="s">
+      <c r="B20" s="269" t="s">
         <v>298</v>
       </c>
       <c r="C20" s="132">
         <v>110870.6</v>
       </c>
-      <c r="D20" s="271"/>
+      <c r="D20" s="270"/>
       <c r="E20" s="132"/>
       <c r="F20" s="196">
         <f t="shared" si="0"/>
@@ -8084,16 +8122,16 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="269">
+      <c r="A21" s="268">
         <v>44695</v>
       </c>
-      <c r="B21" s="270" t="s">
+      <c r="B21" s="269" t="s">
         <v>299</v>
       </c>
       <c r="C21" s="132">
         <v>130766.36</v>
       </c>
-      <c r="D21" s="271"/>
+      <c r="D21" s="270"/>
       <c r="E21" s="132"/>
       <c r="F21" s="196">
         <f t="shared" si="0"/>
@@ -8101,16 +8139,16 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="269">
+      <c r="A22" s="268">
         <v>44697</v>
       </c>
-      <c r="B22" s="270" t="s">
+      <c r="B22" s="269" t="s">
         <v>300</v>
       </c>
       <c r="C22" s="132">
         <v>114866.53</v>
       </c>
-      <c r="D22" s="271"/>
+      <c r="D22" s="270"/>
       <c r="E22" s="132"/>
       <c r="F22" s="196">
         <f t="shared" si="0"/>
@@ -8118,16 +8156,16 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="269">
+      <c r="A23" s="268">
         <v>44698</v>
       </c>
-      <c r="B23" s="270" t="s">
+      <c r="B23" s="269" t="s">
         <v>301</v>
       </c>
       <c r="C23" s="132">
         <v>6227.2</v>
       </c>
-      <c r="D23" s="271"/>
+      <c r="D23" s="270"/>
       <c r="E23" s="132"/>
       <c r="F23" s="196">
         <f t="shared" si="0"/>
@@ -8135,16 +8173,16 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="269">
+      <c r="A24" s="268">
         <v>44699</v>
       </c>
-      <c r="B24" s="270" t="s">
+      <c r="B24" s="269" t="s">
         <v>302</v>
       </c>
       <c r="C24" s="132">
         <v>66522.98</v>
       </c>
-      <c r="D24" s="271"/>
+      <c r="D24" s="270"/>
       <c r="E24" s="132"/>
       <c r="F24" s="196">
         <f t="shared" si="0"/>
@@ -8153,16 +8191,16 @@
       <c r="G24" s="162"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="269">
+      <c r="A25" s="268">
         <v>44700</v>
       </c>
-      <c r="B25" s="270" t="s">
+      <c r="B25" s="269" t="s">
         <v>303</v>
       </c>
       <c r="C25" s="132">
         <v>98570.79</v>
       </c>
-      <c r="D25" s="271"/>
+      <c r="D25" s="270"/>
       <c r="E25" s="132"/>
       <c r="F25" s="196">
         <f t="shared" si="0"/>
@@ -8170,16 +8208,16 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="269">
+      <c r="A26" s="268">
         <v>44702</v>
       </c>
-      <c r="B26" s="270" t="s">
+      <c r="B26" s="269" t="s">
         <v>304</v>
       </c>
       <c r="C26" s="132">
         <v>94991.4</v>
       </c>
-      <c r="D26" s="271"/>
+      <c r="D26" s="270"/>
       <c r="E26" s="132"/>
       <c r="F26" s="196">
         <f t="shared" si="0"/>
@@ -8187,16 +8225,16 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="269">
+      <c r="A27" s="268">
         <v>44702</v>
       </c>
-      <c r="B27" s="270" t="s">
+      <c r="B27" s="269" t="s">
         <v>305</v>
       </c>
       <c r="C27" s="132">
         <v>39581.199999999997</v>
       </c>
-      <c r="D27" s="271"/>
+      <c r="D27" s="270"/>
       <c r="E27" s="132"/>
       <c r="F27" s="196">
         <f t="shared" si="0"/>
@@ -8204,16 +8242,16 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="269">
+      <c r="A28" s="268">
         <v>44702</v>
       </c>
-      <c r="B28" s="270" t="s">
+      <c r="B28" s="269" t="s">
         <v>306</v>
       </c>
       <c r="C28" s="132">
         <v>83382</v>
       </c>
-      <c r="D28" s="271"/>
+      <c r="D28" s="270"/>
       <c r="E28" s="132"/>
       <c r="F28" s="196">
         <f t="shared" si="0"/>
@@ -8221,16 +8259,16 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="269">
+      <c r="A29" s="268">
         <v>44702</v>
       </c>
-      <c r="B29" s="270" t="s">
+      <c r="B29" s="269" t="s">
         <v>307</v>
       </c>
       <c r="C29" s="132">
         <v>1534.4</v>
       </c>
-      <c r="D29" s="271"/>
+      <c r="D29" s="270"/>
       <c r="E29" s="132"/>
       <c r="F29" s="196">
         <f t="shared" si="0"/>
@@ -8238,16 +8276,16 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="269">
+      <c r="A30" s="268">
         <v>44704</v>
       </c>
-      <c r="B30" s="270" t="s">
+      <c r="B30" s="269" t="s">
         <v>308</v>
       </c>
       <c r="C30" s="132">
         <v>58225.08</v>
       </c>
-      <c r="D30" s="269"/>
+      <c r="D30" s="268"/>
       <c r="E30" s="132"/>
       <c r="F30" s="196">
         <f t="shared" si="0"/>
@@ -8255,16 +8293,16 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="269">
+      <c r="A31" s="268">
         <v>44705</v>
       </c>
-      <c r="B31" s="270" t="s">
+      <c r="B31" s="269" t="s">
         <v>309</v>
       </c>
       <c r="C31" s="132">
         <v>24879.42</v>
       </c>
-      <c r="D31" s="271"/>
+      <c r="D31" s="270"/>
       <c r="E31" s="132"/>
       <c r="F31" s="196">
         <f t="shared" si="0"/>
@@ -8272,16 +8310,16 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="269">
+      <c r="A32" s="268">
         <v>44705</v>
       </c>
-      <c r="B32" s="270" t="s">
+      <c r="B32" s="269" t="s">
         <v>310</v>
       </c>
       <c r="C32" s="132">
         <v>480</v>
       </c>
-      <c r="D32" s="271"/>
+      <c r="D32" s="270"/>
       <c r="E32" s="132"/>
       <c r="F32" s="196">
         <f t="shared" si="0"/>
@@ -8290,113 +8328,131 @@
       <c r="G32" s="162"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="269"/>
-      <c r="B33" s="270"/>
-      <c r="C33" s="132"/>
-      <c r="D33" s="271"/>
+      <c r="A33" s="268">
+        <v>44706</v>
+      </c>
+      <c r="B33" s="269" t="s">
+        <v>314</v>
+      </c>
+      <c r="C33" s="132">
+        <v>74281.539999999994</v>
+      </c>
+      <c r="D33" s="270"/>
       <c r="E33" s="132"/>
       <c r="F33" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="269"/>
-      <c r="B34" s="270"/>
-      <c r="C34" s="132"/>
-      <c r="D34" s="271"/>
+        <v>1965754.44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="268">
+        <v>44707</v>
+      </c>
+      <c r="B34" s="269" t="s">
+        <v>315</v>
+      </c>
+      <c r="C34" s="132">
+        <v>152351.15</v>
+      </c>
+      <c r="D34" s="270"/>
       <c r="E34" s="132"/>
       <c r="F34" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="269"/>
-      <c r="B35" s="270"/>
-      <c r="C35" s="132"/>
-      <c r="D35" s="271"/>
+        <v>2118105.59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="268">
+        <v>44709</v>
+      </c>
+      <c r="B35" s="269" t="s">
+        <v>316</v>
+      </c>
+      <c r="C35" s="132">
+        <v>133819.06</v>
+      </c>
+      <c r="D35" s="270"/>
       <c r="E35" s="132"/>
       <c r="F35" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="269"/>
-      <c r="B36" s="270"/>
+        <v>2251924.65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="268"/>
+      <c r="B36" s="269"/>
       <c r="C36" s="132"/>
-      <c r="D36" s="271"/>
+      <c r="D36" s="270"/>
       <c r="E36" s="132"/>
       <c r="F36" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="269"/>
-      <c r="B37" s="270"/>
+        <v>2251924.65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="268"/>
+      <c r="B37" s="269"/>
       <c r="C37" s="132"/>
-      <c r="D37" s="271"/>
+      <c r="D37" s="270"/>
       <c r="E37" s="132"/>
       <c r="F37" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="269"/>
-      <c r="B38" s="270"/>
+        <v>2251924.65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="268"/>
+      <c r="B38" s="269"/>
       <c r="C38" s="132"/>
-      <c r="D38" s="271"/>
+      <c r="D38" s="270"/>
       <c r="E38" s="132"/>
       <c r="F38" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="269"/>
-      <c r="B39" s="270"/>
+        <v>2251924.65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="268"/>
+      <c r="B39" s="269"/>
       <c r="C39" s="132"/>
-      <c r="D39" s="271"/>
+      <c r="D39" s="270"/>
       <c r="E39" s="132"/>
       <c r="F39" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="269"/>
-      <c r="B40" s="270"/>
+        <v>2251924.65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="268"/>
+      <c r="B40" s="269"/>
       <c r="C40" s="132"/>
-      <c r="D40" s="271"/>
+      <c r="D40" s="270"/>
       <c r="E40" s="86"/>
       <c r="F40" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="269"/>
-      <c r="B41" s="270"/>
+        <v>2251924.65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="268"/>
+      <c r="B41" s="269"/>
       <c r="C41" s="132"/>
-      <c r="D41" s="271"/>
+      <c r="D41" s="270"/>
       <c r="E41" s="86"/>
       <c r="F41" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="271"/>
-      <c r="B42" s="272"/>
+        <v>2251924.65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="270"/>
+      <c r="B42" s="271"/>
       <c r="C42" s="86"/>
-      <c r="D42" s="271"/>
+      <c r="D42" s="270"/>
       <c r="E42" s="86"/>
       <c r="F42" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8407,7 +8463,7 @@
       <c r="E43" s="86"/>
       <c r="F43" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8418,7 +8474,7 @@
       <c r="E44" s="86"/>
       <c r="F44" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8429,7 +8485,7 @@
       <c r="E45" s="86"/>
       <c r="F45" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8440,7 +8496,7 @@
       <c r="E46" s="86"/>
       <c r="F46" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8451,7 +8507,7 @@
       <c r="E47" s="86"/>
       <c r="F47" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8462,7 +8518,7 @@
       <c r="E48" s="86"/>
       <c r="F48" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8473,7 +8529,7 @@
       <c r="E49" s="86"/>
       <c r="F49" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8484,7 +8540,7 @@
       <c r="E50" s="86"/>
       <c r="F50" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8495,7 +8551,7 @@
       <c r="E51" s="86"/>
       <c r="F51" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8506,7 +8562,7 @@
       <c r="E52" s="86"/>
       <c r="F52" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8517,7 +8573,7 @@
       <c r="E53" s="86"/>
       <c r="F53" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8528,7 +8584,7 @@
       <c r="E54" s="86"/>
       <c r="F54" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8539,7 +8595,7 @@
       <c r="E55" s="86"/>
       <c r="F55" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8550,7 +8606,7 @@
       <c r="E56" s="86"/>
       <c r="F56" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8561,7 +8617,7 @@
       <c r="E57" s="86"/>
       <c r="F57" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8572,7 +8628,7 @@
       <c r="E58" s="86"/>
       <c r="F58" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8583,7 +8639,7 @@
       <c r="E59" s="86"/>
       <c r="F59" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8594,7 +8650,7 @@
       <c r="E60" s="86"/>
       <c r="F60" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8605,7 +8661,7 @@
       <c r="E61" s="86"/>
       <c r="F61" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8616,7 +8672,7 @@
       <c r="E62" s="34"/>
       <c r="F62" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8627,7 +8683,7 @@
       <c r="E63" s="34"/>
       <c r="F63" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8638,7 +8694,7 @@
       <c r="E64" s="34"/>
       <c r="F64" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8649,7 +8705,7 @@
       <c r="E65" s="34"/>
       <c r="F65" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8660,7 +8716,7 @@
       <c r="E66" s="34"/>
       <c r="F66" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8671,7 +8727,7 @@
       <c r="E67" s="34"/>
       <c r="F67" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8682,7 +8738,7 @@
       <c r="E68" s="86"/>
       <c r="F68" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8693,7 +8749,7 @@
       <c r="E69" s="86"/>
       <c r="F69" s="196">
         <f t="shared" ref="F69:F78" si="1">C69-E69+F68</f>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8704,7 +8760,7 @@
       <c r="E70" s="86"/>
       <c r="F70" s="196">
         <f t="shared" si="1"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8715,7 +8771,7 @@
       <c r="E71" s="86"/>
       <c r="F71" s="196">
         <f t="shared" si="1"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8726,7 +8782,7 @@
       <c r="E72" s="86"/>
       <c r="F72" s="196">
         <f t="shared" si="1"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8737,7 +8793,7 @@
       <c r="E73" s="86"/>
       <c r="F73" s="196">
         <f t="shared" si="1"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8748,7 +8804,7 @@
       <c r="E74" s="86"/>
       <c r="F74" s="196">
         <f t="shared" si="1"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8759,7 +8815,7 @@
       <c r="E75" s="86"/>
       <c r="F75" s="196">
         <f t="shared" si="1"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8770,7 +8826,7 @@
       <c r="E76" s="86"/>
       <c r="F76" s="196">
         <f t="shared" si="1"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8781,7 +8837,7 @@
       <c r="E77" s="86"/>
       <c r="F77" s="196">
         <f t="shared" si="1"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8794,15 +8850,15 @@
       <c r="E78" s="34"/>
       <c r="F78" s="196">
         <f t="shared" si="1"/>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="212"/>
       <c r="B79" s="232"/>
-      <c r="C79" s="251">
+      <c r="C79" s="250">
         <f>SUM(C3:C78)</f>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
       <c r="D79" s="189"/>
       <c r="E79" s="178">
@@ -8811,7 +8867,7 @@
       </c>
       <c r="F79" s="179">
         <f>F78</f>
-        <v>1891472.9</v>
+        <v>2251924.65</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -10760,7 +10816,7 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
@@ -10784,23 +10840,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="301"/>
-      <c r="C1" s="303" t="s">
+      <c r="B1" s="277"/>
+      <c r="C1" s="279" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="304"/>
-      <c r="E1" s="304"/>
-      <c r="F1" s="304"/>
-      <c r="G1" s="304"/>
-      <c r="H1" s="304"/>
-      <c r="I1" s="304"/>
-      <c r="J1" s="304"/>
-      <c r="K1" s="304"/>
-      <c r="L1" s="304"/>
-      <c r="M1" s="304"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="280"/>
+      <c r="F1" s="280"/>
+      <c r="G1" s="280"/>
+      <c r="H1" s="280"/>
+      <c r="I1" s="280"/>
+      <c r="J1" s="280"/>
+      <c r="K1" s="280"/>
+      <c r="L1" s="280"/>
+      <c r="M1" s="280"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="302"/>
+      <c r="B2" s="278"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -10810,21 +10866,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="305" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="306"/>
+      <c r="B3" s="281" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="282"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="307" t="s">
+      <c r="H3" s="283" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="307"/>
+      <c r="I3" s="283"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="274" t="s">
+      <c r="R3" s="288" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10839,14 +10895,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="308" t="s">
+      <c r="E4" s="284" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="309"/>
-      <c r="H4" s="310" t="s">
+      <c r="F4" s="285"/>
+      <c r="H4" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="311"/>
+      <c r="I4" s="287"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -10856,11 +10912,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="281" t="s">
+      <c r="P4" s="295" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="282"/>
-      <c r="R4" s="275"/>
+      <c r="Q4" s="296"/>
+      <c r="R4" s="289"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -11828,7 +11884,7 @@
         <v>73</v>
       </c>
       <c r="J26" s="69"/>
-      <c r="K26" s="236"/>
+      <c r="K26" s="235"/>
       <c r="L26" s="48"/>
       <c r="M26" s="32">
         <f>25440+20000</f>
@@ -12213,7 +12269,7 @@
       <c r="H36" s="37"/>
       <c r="I36" s="31"/>
       <c r="J36" s="73"/>
-      <c r="K36" s="237" t="s">
+      <c r="K36" s="236" t="s">
         <v>206</v>
       </c>
       <c r="L36" s="80">
@@ -12344,11 +12400,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="80"/>
-      <c r="M40" s="312">
+      <c r="M40" s="315">
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="285">
+      <c r="N40" s="299">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -12374,8 +12430,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="284"/>
-      <c r="N41" s="286"/>
+      <c r="M41" s="298"/>
+      <c r="N41" s="300"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -12590,29 +12646,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="287" t="s">
+      <c r="H53" s="301" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="288"/>
+      <c r="I53" s="302"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="289">
+      <c r="K53" s="303">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="290"/>
-      <c r="M53" s="291">
+      <c r="L53" s="304"/>
+      <c r="M53" s="305">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="292"/>
+      <c r="N53" s="306"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="293" t="s">
+      <c r="D54" s="307" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="293"/>
+      <c r="E54" s="307"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -12623,22 +12679,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="294" t="s">
+      <c r="D55" s="308" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="294"/>
+      <c r="E55" s="308"/>
       <c r="F55" s="115">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="295" t="s">
+      <c r="I55" s="309" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="296"/>
-      <c r="K55" s="297">
+      <c r="J55" s="310"/>
+      <c r="K55" s="311">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="298"/>
+      <c r="L55" s="312"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -12669,11 +12725,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="299">
+      <c r="K57" s="313">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="300"/>
+      <c r="L57" s="314"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -12690,22 +12746,22 @@
       <c r="C59" s="133">
         <v>44619</v>
       </c>
-      <c r="D59" s="276" t="s">
+      <c r="D59" s="290" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="277"/>
+      <c r="E59" s="291"/>
       <c r="F59" s="134">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="278" t="s">
+      <c r="I59" s="292" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="279"/>
-      <c r="K59" s="280">
+      <c r="J59" s="293"/>
+      <c r="K59" s="294">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="280"/>
+      <c r="L59" s="294"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -12849,18 +12905,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -12870,6 +12914,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13519,7 +13575,7 @@
       <c r="C35" s="195">
         <v>96471.72</v>
       </c>
-      <c r="D35" s="238">
+      <c r="D35" s="237">
         <v>44624</v>
       </c>
       <c r="E35" s="197">
@@ -14148,10 +14204,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:U81"/>
+  <dimension ref="A1:U77"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14174,23 +14230,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="301"/>
-      <c r="C1" s="303" t="s">
+      <c r="B1" s="277"/>
+      <c r="C1" s="279" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="304"/>
-      <c r="E1" s="304"/>
-      <c r="F1" s="304"/>
-      <c r="G1" s="304"/>
-      <c r="H1" s="304"/>
-      <c r="I1" s="304"/>
-      <c r="J1" s="304"/>
-      <c r="K1" s="304"/>
-      <c r="L1" s="304"/>
-      <c r="M1" s="304"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="280"/>
+      <c r="F1" s="280"/>
+      <c r="G1" s="280"/>
+      <c r="H1" s="280"/>
+      <c r="I1" s="280"/>
+      <c r="J1" s="280"/>
+      <c r="K1" s="280"/>
+      <c r="L1" s="280"/>
+      <c r="M1" s="280"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="302"/>
+      <c r="B2" s="278"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14200,21 +14256,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="305" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="306"/>
+      <c r="B3" s="281" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="282"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="307" t="s">
+      <c r="H3" s="283" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="307"/>
+      <c r="I3" s="283"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="274" t="s">
+      <c r="R3" s="288" t="s">
         <v>38</v>
       </c>
     </row>
@@ -14229,14 +14285,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="308" t="s">
+      <c r="E4" s="284" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="309"/>
-      <c r="H4" s="310" t="s">
+      <c r="F4" s="285"/>
+      <c r="H4" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="311"/>
+      <c r="I4" s="287"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -14246,11 +14302,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="281" t="s">
+      <c r="P4" s="295" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="282"/>
-      <c r="R4" s="275"/>
+      <c r="Q4" s="296"/>
+      <c r="R4" s="289"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -15534,7 +15590,7 @@
       </c>
       <c r="R33" s="8"/>
     </row>
-    <row r="34" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="33" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="24"/>
       <c r="B34" s="25"/>
       <c r="C34" s="26"/>
@@ -15544,9 +15600,15 @@
       <c r="G34" s="2"/>
       <c r="H34" s="30"/>
       <c r="I34" s="31"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="82"/>
+      <c r="J34" s="73">
+        <v>44629</v>
+      </c>
+      <c r="K34" s="81" t="s">
+        <v>317</v>
+      </c>
+      <c r="L34" s="82">
+        <v>3133.5</v>
+      </c>
       <c r="M34" s="32">
         <v>0</v>
       </c>
@@ -15555,11 +15617,11 @@
       </c>
       <c r="P34" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3133.5</v>
       </c>
       <c r="Q34" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3133.5</v>
       </c>
       <c r="R34" s="8"/>
     </row>
@@ -15573,9 +15635,15 @@
       <c r="G35" s="2"/>
       <c r="H35" s="30"/>
       <c r="I35" s="31"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="80"/>
+      <c r="J35" s="73">
+        <v>44645</v>
+      </c>
+      <c r="K35" s="76" t="s">
+        <v>318</v>
+      </c>
+      <c r="L35" s="80">
+        <v>1392</v>
+      </c>
       <c r="M35" s="220">
         <v>0</v>
       </c>
@@ -15584,11 +15652,11 @@
       </c>
       <c r="P35" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1392</v>
       </c>
       <c r="Q35" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1392</v>
       </c>
       <c r="R35" s="8"/>
     </row>
@@ -15602,9 +15670,15 @@
       <c r="G36" s="2"/>
       <c r="H36" s="30"/>
       <c r="I36" s="31"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="80"/>
+      <c r="J36" s="73">
+        <v>44649</v>
+      </c>
+      <c r="K36" s="316" t="s">
+        <v>319</v>
+      </c>
+      <c r="L36" s="80">
+        <v>1749.14</v>
+      </c>
       <c r="M36" s="220">
         <v>0</v>
       </c>
@@ -15613,11 +15687,11 @@
       </c>
       <c r="P36" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1749.14</v>
       </c>
       <c r="Q36" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1749.14</v>
       </c>
       <c r="R36" s="8"/>
     </row>
@@ -15632,7 +15706,7 @@
       <c r="H37" s="30"/>
       <c r="I37" s="31"/>
       <c r="J37" s="73"/>
-      <c r="K37" s="221"/>
+      <c r="K37" s="317"/>
       <c r="L37" s="80"/>
       <c r="M37" s="220">
         <v>0</v>
@@ -15659,9 +15733,15 @@
       <c r="G38" s="2"/>
       <c r="H38" s="30"/>
       <c r="I38" s="31"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="80"/>
+      <c r="J38" s="73">
+        <v>44649</v>
+      </c>
+      <c r="K38" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="L38" s="80">
+        <v>25678</v>
+      </c>
       <c r="M38" s="32">
         <v>0</v>
       </c>
@@ -15670,11 +15750,11 @@
       </c>
       <c r="P38" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25678</v>
       </c>
       <c r="Q38" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25678</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15718,21 +15798,21 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="283">
+      <c r="M40" s="297">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="285">
+      <c r="N40" s="299">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
       <c r="P40" s="34">
         <f>SUM(P5:P39)</f>
-        <v>1981456.71</v>
+        <v>2013409.3499999999</v>
       </c>
       <c r="Q40" s="13">
         <f t="shared" si="1"/>
-        <v>1981456.71</v>
+        <v>2013409.3499999999</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15746,18 +15826,14 @@
       <c r="H41" s="37"/>
       <c r="I41" s="88"/>
       <c r="J41" s="73"/>
-      <c r="K41" s="235" t="s">
-        <v>190</v>
-      </c>
-      <c r="L41" s="75">
-        <v>25678</v>
-      </c>
-      <c r="M41" s="284"/>
-      <c r="N41" s="286"/>
+      <c r="K41" s="245"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="298"/>
+      <c r="N41" s="300"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
-    <row r="42" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="24"/>
       <c r="B42" s="25"/>
       <c r="C42" s="90"/>
@@ -15775,7 +15851,7 @@
       <c r="P42" s="34"/>
       <c r="Q42" s="9"/>
     </row>
-    <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="24"/>
       <c r="B43" s="25"/>
       <c r="C43" s="90"/>
@@ -15793,7 +15869,7 @@
       <c r="P43" s="34"/>
       <c r="Q43" s="9"/>
     </row>
-    <row r="44" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="24"/>
       <c r="B44" s="25"/>
       <c r="C44" s="90"/>
@@ -15811,7 +15887,7 @@
       <c r="P44" s="34"/>
       <c r="Q44" s="9"/>
     </row>
-    <row r="45" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="24"/>
       <c r="B45" s="25"/>
       <c r="C45" s="90"/>
@@ -15829,425 +15905,354 @@
       <c r="P45" s="34"/>
       <c r="Q45" s="9"/>
     </row>
-    <row r="46" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="24"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="90"/>
-      <c r="D46" s="91"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="93"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="94"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="26">
+        <v>0</v>
+      </c>
+      <c r="D46" s="99"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="90"/>
+      <c r="H46" s="101"/>
       <c r="I46" s="95"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="76"/>
-      <c r="L46" s="80"/>
-      <c r="M46" s="96"/>
-      <c r="N46" s="97"/>
+      <c r="J46" s="102"/>
+      <c r="K46" s="103"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="104"/>
+      <c r="N46" s="33"/>
       <c r="P46" s="34"/>
       <c r="Q46" s="9"/>
     </row>
-    <row r="47" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="24"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="90"/>
-      <c r="D47" s="91"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="94"/>
-      <c r="I47" s="95"/>
-      <c r="J47" s="73"/>
-      <c r="K47" s="76"/>
-      <c r="L47" s="80"/>
-      <c r="M47" s="96"/>
-      <c r="N47" s="97"/>
+    <row r="47" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="106">
+        <f>SUM(C5:C46)</f>
+        <v>66741</v>
+      </c>
+      <c r="D47" s="107"/>
+      <c r="E47" s="108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="109">
+        <f>SUM(F5:F46)</f>
+        <v>1981436</v>
+      </c>
+      <c r="G47" s="107"/>
+      <c r="H47" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="111">
+        <f>SUM(I5:I46)</f>
+        <v>3700</v>
+      </c>
+      <c r="J47" s="112"/>
+      <c r="K47" s="113" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47" s="114">
+        <f>SUM(L5:L46)</f>
+        <v>85538.35</v>
+      </c>
+      <c r="M47" s="115"/>
+      <c r="N47" s="115"/>
       <c r="P47" s="34"/>
       <c r="Q47" s="9"/>
     </row>
-    <row r="48" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="24"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="90"/>
-      <c r="D48" s="91"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="93"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="94"/>
-      <c r="I48" s="95"/>
-      <c r="J48" s="73"/>
-      <c r="K48" s="76"/>
-      <c r="L48" s="80"/>
-      <c r="M48" s="96"/>
-      <c r="N48" s="97"/>
+    <row r="48" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="P48" s="34"/>
       <c r="Q48" s="9"/>
     </row>
-    <row r="49" spans="1:17" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="24"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="90"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="94"/>
-      <c r="I49" s="95"/>
-      <c r="J49" s="73"/>
-      <c r="K49" s="76"/>
-      <c r="L49" s="80"/>
-      <c r="M49" s="96"/>
-      <c r="N49" s="97"/>
+    <row r="49" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="117"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="1"/>
+      <c r="H49" s="301" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="302"/>
+      <c r="J49" s="119"/>
+      <c r="K49" s="303">
+        <f>I47+L47</f>
+        <v>89238.35</v>
+      </c>
+      <c r="L49" s="304"/>
+      <c r="M49" s="305">
+        <f>N40+M40</f>
+        <v>1857430</v>
+      </c>
+      <c r="N49" s="306"/>
       <c r="P49" s="34"/>
       <c r="Q49" s="9"/>
     </row>
-    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="24"/>
-      <c r="B50" s="98"/>
-      <c r="C50" s="26">
-        <v>0</v>
-      </c>
-      <c r="D50" s="99"/>
-      <c r="E50" s="100"/>
-      <c r="F50" s="90"/>
-      <c r="H50" s="101"/>
-      <c r="I50" s="95"/>
-      <c r="J50" s="102"/>
-      <c r="K50" s="103"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="104"/>
-      <c r="N50" s="33"/>
+    <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D50" s="307" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="307"/>
+      <c r="F50" s="120">
+        <f>F47-K49-C47</f>
+        <v>1825456.65</v>
+      </c>
+      <c r="I50" s="121"/>
+      <c r="J50" s="122"/>
       <c r="P50" s="34"/>
       <c r="Q50" s="9"/>
     </row>
-    <row r="51" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="105" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="106">
-        <f>SUM(C5:C50)</f>
-        <v>66741</v>
-      </c>
-      <c r="D51" s="107"/>
-      <c r="E51" s="108" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="109">
-        <f>SUM(F5:F50)</f>
-        <v>1981436</v>
-      </c>
-      <c r="G51" s="107"/>
-      <c r="H51" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="I51" s="111">
-        <f>SUM(I5:I50)</f>
-        <v>3700</v>
-      </c>
-      <c r="J51" s="112"/>
-      <c r="K51" s="113" t="s">
-        <v>11</v>
-      </c>
-      <c r="L51" s="114">
-        <f>SUM(L5:L50)</f>
-        <v>79263.709999999992</v>
-      </c>
-      <c r="M51" s="115"/>
-      <c r="N51" s="115"/>
+    <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D51" s="308" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="308"/>
+      <c r="F51" s="115">
+        <v>-1848136.64</v>
+      </c>
+      <c r="I51" s="309" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51" s="310"/>
+      <c r="K51" s="311">
+        <f>F53+F54+F55</f>
+        <v>196737.38</v>
+      </c>
+      <c r="L51" s="312"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
-    <row r="52" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="3" t="s">
+    <row r="52" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D52" s="123"/>
+      <c r="E52" s="117"/>
+      <c r="F52" s="124">
+        <v>0</v>
+      </c>
+      <c r="I52" s="125"/>
+      <c r="J52" s="126"/>
+      <c r="K52" s="127"/>
+      <c r="L52" s="128"/>
+    </row>
+    <row r="53" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="9"/>
-    </row>
-    <row r="53" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="117"/>
-      <c r="B53" s="118"/>
-      <c r="C53" s="1"/>
-      <c r="H53" s="287" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" s="288"/>
-      <c r="J53" s="119"/>
-      <c r="K53" s="289">
-        <f>I51+L51</f>
-        <v>82963.709999999992</v>
-      </c>
-      <c r="L53" s="290"/>
-      <c r="M53" s="291">
-        <f>N40+M40</f>
-        <v>1857430</v>
-      </c>
-      <c r="N53" s="292"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="9"/>
-    </row>
-    <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="293" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="293"/>
-      <c r="F54" s="120">
-        <f>F51-K53-C51</f>
-        <v>1831731.29</v>
-      </c>
-      <c r="I54" s="121"/>
-      <c r="J54" s="122"/>
-      <c r="P54" s="34"/>
-      <c r="Q54" s="9"/>
-    </row>
-    <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="294" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="294"/>
-      <c r="F55" s="115">
-        <v>-1848136.64</v>
-      </c>
-      <c r="I55" s="295" t="s">
-        <v>15</v>
-      </c>
-      <c r="J55" s="296"/>
-      <c r="K55" s="297">
-        <f>F57+F58+F59</f>
-        <v>203012.02000000014</v>
-      </c>
-      <c r="L55" s="298"/>
-      <c r="P55" s="34"/>
-      <c r="Q55" s="9"/>
-    </row>
-    <row r="56" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D56" s="123"/>
-      <c r="E56" s="117"/>
-      <c r="F56" s="124">
-        <v>0</v>
-      </c>
-      <c r="I56" s="125"/>
-      <c r="J56" s="126"/>
-      <c r="K56" s="127"/>
-      <c r="L56" s="128"/>
-    </row>
-    <row r="57" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="117" t="s">
+      <c r="E53" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="115">
-        <f>SUM(F54:F56)</f>
-        <v>-16405.34999999986</v>
-      </c>
-      <c r="H57" s="24"/>
-      <c r="I57" s="129" t="s">
+      <c r="F53" s="115">
+        <f>SUM(F50:F52)</f>
+        <v>-22679.989999999991</v>
+      </c>
+      <c r="H53" s="24"/>
+      <c r="I53" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="J57" s="130"/>
-      <c r="K57" s="299">
+      <c r="J53" s="130"/>
+      <c r="K53" s="313">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L57" s="300"/>
-    </row>
-    <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D58" s="131" t="s">
+      <c r="L53" s="314"/>
+    </row>
+    <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="117" t="s">
+      <c r="E54" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="F58" s="132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C59" s="133">
+      <c r="F54" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C55" s="133">
         <v>44647</v>
       </c>
-      <c r="D59" s="276" t="s">
+      <c r="D55" s="290" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="277"/>
-      <c r="F59" s="134">
+      <c r="E55" s="291"/>
+      <c r="F55" s="134">
         <v>219417.37</v>
       </c>
-      <c r="I59" s="278" t="s">
+      <c r="I55" s="292" t="s">
         <v>226</v>
       </c>
-      <c r="J59" s="279"/>
-      <c r="K59" s="280">
-        <f>K55+K57</f>
-        <v>18669.830000000133</v>
-      </c>
-      <c r="L59" s="280"/>
-    </row>
-    <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C60" s="135"/>
-      <c r="D60" s="136"/>
-      <c r="E60" s="137"/>
-      <c r="F60" s="138"/>
-      <c r="J60" s="139"/>
-    </row>
-    <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I61" s="140"/>
-      <c r="J61" s="140"/>
-      <c r="K61" s="141"/>
-      <c r="L61" s="141"/>
-    </row>
-    <row r="62" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J55" s="293"/>
+      <c r="K55" s="294">
+        <f>K51+K53</f>
+        <v>12395.190000000002</v>
+      </c>
+      <c r="L55" s="294"/>
+    </row>
+    <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C56" s="135"/>
+      <c r="D56" s="136"/>
+      <c r="E56" s="137"/>
+      <c r="F56" s="138"/>
+      <c r="J56" s="139"/>
+    </row>
+    <row r="57" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="140"/>
+      <c r="J57" s="140"/>
+      <c r="K57" s="141"/>
+      <c r="L57" s="141"/>
+    </row>
+    <row r="58" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="142"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="144"/>
+      <c r="E58" s="34"/>
+      <c r="I58" s="140"/>
+      <c r="J58" s="140"/>
+      <c r="K58" s="141"/>
+      <c r="L58" s="141"/>
+      <c r="M58" s="145"/>
+      <c r="N58" s="117"/>
+    </row>
+    <row r="59" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="142"/>
+      <c r="C59" s="146"/>
+      <c r="E59" s="34"/>
+      <c r="M59" s="145"/>
+      <c r="N59" s="117"/>
+    </row>
+    <row r="60" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="142"/>
+      <c r="C60" s="146"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="147"/>
+      <c r="L60" s="148"/>
+      <c r="M60" s="1"/>
+    </row>
+    <row r="61" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="142"/>
+      <c r="C61" s="146"/>
+      <c r="E61" s="34"/>
+      <c r="M61" s="1"/>
+    </row>
+    <row r="62" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="142"/>
-      <c r="C62" s="143"/>
-      <c r="D62" s="144"/>
+      <c r="C62" s="146"/>
+      <c r="D62" s="149"/>
       <c r="E62" s="34"/>
-      <c r="I62" s="140"/>
-      <c r="J62" s="140"/>
-      <c r="K62" s="141"/>
-      <c r="L62" s="141"/>
-      <c r="M62" s="145"/>
-      <c r="N62" s="117"/>
-    </row>
-    <row r="63" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="142"/>
-      <c r="C63" s="146"/>
-      <c r="E63" s="34"/>
-      <c r="M63" s="145"/>
-      <c r="N63" s="117"/>
-    </row>
-    <row r="64" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="142"/>
-      <c r="C64" s="146"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="147"/>
-      <c r="L64" s="148"/>
+      <c r="F62" s="150"/>
+      <c r="M62" s="1"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D63" s="149"/>
+      <c r="E63" s="151"/>
+      <c r="F63" s="34"/>
+      <c r="M63" s="1"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D64" s="149"/>
+      <c r="E64" s="151"/>
+      <c r="F64" s="34"/>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="142"/>
-      <c r="C65" s="146"/>
-      <c r="E65" s="34"/>
+    <row r="65" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D65" s="149"/>
+      <c r="E65" s="151"/>
+      <c r="F65" s="34"/>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="142"/>
-      <c r="C66" s="146"/>
+    <row r="66" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D66" s="149"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="150"/>
+      <c r="E66" s="151"/>
+      <c r="F66" s="34"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D67" s="149"/>
       <c r="E67" s="151"/>
       <c r="F67" s="34"/>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D68" s="149"/>
       <c r="E68" s="151"/>
       <c r="F68" s="34"/>
       <c r="M68" s="1"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D69" s="149"/>
       <c r="E69" s="151"/>
       <c r="F69" s="34"/>
       <c r="M69" s="1"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D70" s="149"/>
       <c r="E70" s="151"/>
       <c r="F70" s="34"/>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D71" s="149"/>
       <c r="E71" s="151"/>
       <c r="F71" s="34"/>
       <c r="M71" s="1"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D72" s="149"/>
       <c r="E72" s="151"/>
       <c r="F72" s="34"/>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D73" s="149"/>
       <c r="E73" s="151"/>
       <c r="F73" s="34"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D74" s="149"/>
       <c r="E74" s="151"/>
       <c r="F74" s="34"/>
-      <c r="M74" s="1"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D75" s="149"/>
-      <c r="E75" s="151"/>
-      <c r="F75" s="34"/>
-      <c r="M75" s="1"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E75" s="149"/>
+      <c r="F75" s="150"/>
+    </row>
+    <row r="76" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D76" s="149"/>
-      <c r="E76" s="151"/>
-      <c r="F76" s="34"/>
-      <c r="M76" s="1"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E76" s="149"/>
+      <c r="F76" s="150"/>
+    </row>
+    <row r="77" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D77" s="149"/>
-      <c r="E77" s="151"/>
-      <c r="F77" s="34"/>
-      <c r="M77" s="1"/>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D78" s="149"/>
-      <c r="E78" s="151"/>
-      <c r="F78" s="34"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D79" s="149"/>
-      <c r="E79" s="149"/>
-      <c r="F79" s="150"/>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D80" s="149"/>
-      <c r="E80" s="149"/>
-      <c r="F80" s="150"/>
-    </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D81" s="149"/>
-      <c r="E81" s="149"/>
-      <c r="F81" s="150"/>
+      <c r="E77" s="149"/>
+      <c r="F77" s="150"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="H53:I53"/>
+  <mergeCells count="22">
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
     <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:M1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="K36:K37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16489,10 +16494,10 @@
       <c r="C11" s="195">
         <v>23317.8</v>
       </c>
-      <c r="D11" s="241">
+      <c r="D11" s="240">
         <v>44631</v>
       </c>
-      <c r="E11" s="242">
+      <c r="E11" s="241">
         <v>23317.8</v>
       </c>
       <c r="F11" s="196">
@@ -16510,10 +16515,10 @@
       <c r="C12" s="195">
         <v>92582.65</v>
       </c>
-      <c r="D12" s="241">
+      <c r="D12" s="240">
         <v>44631</v>
       </c>
-      <c r="E12" s="242">
+      <c r="E12" s="241">
         <v>92582.65</v>
       </c>
       <c r="F12" s="196">
@@ -16532,10 +16537,10 @@
       <c r="C13" s="195">
         <v>37678.199999999997</v>
       </c>
-      <c r="D13" s="241">
+      <c r="D13" s="240">
         <v>44631</v>
       </c>
-      <c r="E13" s="242">
+      <c r="E13" s="241">
         <v>37678.199999999997</v>
       </c>
       <c r="F13" s="196">
@@ -16553,10 +16558,10 @@
       <c r="C14" s="195">
         <v>71302.149999999994</v>
       </c>
-      <c r="D14" s="241">
+      <c r="D14" s="240">
         <v>44631</v>
       </c>
-      <c r="E14" s="242">
+      <c r="E14" s="241">
         <v>71302.149999999994</v>
       </c>
       <c r="F14" s="196">
@@ -16574,10 +16579,10 @@
       <c r="C15" s="195">
         <v>122152.6</v>
       </c>
-      <c r="D15" s="241">
+      <c r="D15" s="240">
         <v>44631</v>
       </c>
-      <c r="E15" s="242">
+      <c r="E15" s="241">
         <v>122152.6</v>
       </c>
       <c r="F15" s="196">
@@ -16595,10 +16600,10 @@
       <c r="C16" s="195">
         <v>19883.2</v>
       </c>
-      <c r="D16" s="241">
+      <c r="D16" s="240">
         <v>44631</v>
       </c>
-      <c r="E16" s="242">
+      <c r="E16" s="241">
         <v>19883.2</v>
       </c>
       <c r="F16" s="196">
@@ -16616,10 +16621,10 @@
       <c r="C17" s="195">
         <v>76107.320000000007</v>
       </c>
-      <c r="D17" s="241">
+      <c r="D17" s="240">
         <v>44631</v>
       </c>
-      <c r="E17" s="242">
+      <c r="E17" s="241">
         <v>76107.320000000007</v>
       </c>
       <c r="F17" s="196">
@@ -16848,10 +16853,10 @@
       <c r="C28" s="195">
         <v>12469.8</v>
       </c>
-      <c r="D28" s="243">
+      <c r="D28" s="242">
         <v>44645</v>
       </c>
-      <c r="E28" s="244">
+      <c r="E28" s="243">
         <v>12469.8</v>
       </c>
       <c r="F28" s="196">
@@ -16869,10 +16874,10 @@
       <c r="C29" s="195">
         <v>99143.25</v>
       </c>
-      <c r="D29" s="243">
+      <c r="D29" s="242">
         <v>44645</v>
       </c>
-      <c r="E29" s="244">
+      <c r="E29" s="243">
         <v>99143.25</v>
       </c>
       <c r="F29" s="196">
@@ -16890,10 +16895,10 @@
       <c r="C30" s="195">
         <v>6625</v>
       </c>
-      <c r="D30" s="243">
+      <c r="D30" s="242">
         <v>44645</v>
       </c>
-      <c r="E30" s="244">
+      <c r="E30" s="243">
         <v>6625</v>
       </c>
       <c r="F30" s="196">
@@ -16911,10 +16916,10 @@
       <c r="C31" s="195">
         <v>2445.6</v>
       </c>
-      <c r="D31" s="243">
+      <c r="D31" s="242">
         <v>44645</v>
       </c>
-      <c r="E31" s="244">
+      <c r="E31" s="243">
         <v>2445.6</v>
       </c>
       <c r="F31" s="196">
@@ -16932,10 +16937,10 @@
       <c r="C32" s="195">
         <v>99443</v>
       </c>
-      <c r="D32" s="243">
+      <c r="D32" s="242">
         <v>44645</v>
       </c>
-      <c r="E32" s="244">
+      <c r="E32" s="243">
         <v>99443</v>
       </c>
       <c r="F32" s="196">
@@ -16954,10 +16959,10 @@
       <c r="C33" s="195">
         <v>117287.22</v>
       </c>
-      <c r="D33" s="243">
+      <c r="D33" s="242">
         <v>44645</v>
       </c>
-      <c r="E33" s="244">
+      <c r="E33" s="243">
         <v>117287.22</v>
       </c>
       <c r="F33" s="196">
@@ -16975,10 +16980,10 @@
       <c r="C34" s="195">
         <v>27776.2</v>
       </c>
-      <c r="D34" s="243">
+      <c r="D34" s="242">
         <v>44645</v>
       </c>
-      <c r="E34" s="244">
+      <c r="E34" s="243">
         <v>27776.2</v>
       </c>
       <c r="F34" s="196">
@@ -16996,10 +17001,10 @@
       <c r="C35" s="195">
         <v>100979.1</v>
       </c>
-      <c r="D35" s="243">
+      <c r="D35" s="242">
         <v>44645</v>
       </c>
-      <c r="E35" s="244">
+      <c r="E35" s="243">
         <v>100979.1</v>
       </c>
       <c r="F35" s="196">
@@ -17017,10 +17022,10 @@
       <c r="C36" s="195">
         <v>2400</v>
       </c>
-      <c r="D36" s="239">
+      <c r="D36" s="238">
         <v>44652</v>
       </c>
-      <c r="E36" s="240">
+      <c r="E36" s="239">
         <v>2400</v>
       </c>
       <c r="F36" s="196">
@@ -17038,10 +17043,10 @@
       <c r="C37" s="195">
         <v>100244.2</v>
       </c>
-      <c r="D37" s="239">
+      <c r="D37" s="238">
         <v>44652</v>
       </c>
-      <c r="E37" s="240">
+      <c r="E37" s="239">
         <v>100244.2</v>
       </c>
       <c r="F37" s="196">
@@ -17059,10 +17064,10 @@
       <c r="C38" s="195">
         <v>400</v>
       </c>
-      <c r="D38" s="239">
+      <c r="D38" s="238">
         <v>44652</v>
       </c>
-      <c r="E38" s="240">
+      <c r="E38" s="239">
         <v>400</v>
       </c>
       <c r="F38" s="196">
@@ -17080,10 +17085,10 @@
       <c r="C39" s="195">
         <v>2696.4</v>
       </c>
-      <c r="D39" s="239">
+      <c r="D39" s="238">
         <v>44652</v>
       </c>
-      <c r="E39" s="240">
+      <c r="E39" s="239">
         <v>2696.4</v>
       </c>
       <c r="F39" s="196">
@@ -17101,10 +17106,10 @@
       <c r="C40" s="195">
         <v>7911.2</v>
       </c>
-      <c r="D40" s="239">
+      <c r="D40" s="238">
         <v>44652</v>
       </c>
-      <c r="E40" s="240">
+      <c r="E40" s="239">
         <v>7911.2</v>
       </c>
       <c r="F40" s="196">
@@ -17698,8 +17703,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView topLeftCell="G19" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17717,28 +17722,28 @@
     <col min="13" max="13" width="18.140625" style="4" customWidth="1"/>
     <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="18.42578125" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" style="245" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" style="244" customWidth="1"/>
     <col min="18" max="18" width="14.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="301"/>
-      <c r="C1" s="303" t="s">
+      <c r="B1" s="277"/>
+      <c r="C1" s="279" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="304"/>
-      <c r="E1" s="304"/>
-      <c r="F1" s="304"/>
-      <c r="G1" s="304"/>
-      <c r="H1" s="304"/>
-      <c r="I1" s="304"/>
-      <c r="J1" s="304"/>
-      <c r="K1" s="304"/>
-      <c r="L1" s="304"/>
-      <c r="M1" s="304"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="280"/>
+      <c r="F1" s="280"/>
+      <c r="G1" s="280"/>
+      <c r="H1" s="280"/>
+      <c r="I1" s="280"/>
+      <c r="J1" s="280"/>
+      <c r="K1" s="280"/>
+      <c r="L1" s="280"/>
+      <c r="M1" s="280"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="302"/>
+      <c r="B2" s="278"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -17748,21 +17753,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="305" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="306"/>
+      <c r="B3" s="281" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="282"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="307" t="s">
+      <c r="H3" s="283" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="307"/>
+      <c r="I3" s="283"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="274" t="s">
+      <c r="R3" s="288" t="s">
         <v>38</v>
       </c>
     </row>
@@ -17777,14 +17782,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="308" t="s">
+      <c r="E4" s="284" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="309"/>
-      <c r="H4" s="310" t="s">
+      <c r="F4" s="285"/>
+      <c r="H4" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="311"/>
+      <c r="I4" s="287"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -17794,11 +17799,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="281" t="s">
+      <c r="P4" s="295" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="282"/>
-      <c r="R4" s="275"/>
+      <c r="Q4" s="296"/>
+      <c r="R4" s="289"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -19435,17 +19440,17 @@
       <c r="J40" s="73">
         <v>44676</v>
       </c>
-      <c r="K40" s="247" t="s">
+      <c r="K40" s="246" t="s">
         <v>190</v>
       </c>
       <c r="L40" s="75">
         <v>30225</v>
       </c>
-      <c r="M40" s="283">
+      <c r="M40" s="297">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="285">
+      <c r="N40" s="299">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -19464,15 +19469,22 @@
       <c r="C41" s="86"/>
       <c r="D41" s="84"/>
       <c r="E41" s="28"/>
-      <c r="F41" s="260"/>
+      <c r="F41" s="259"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="261"/>
+      <c r="H41" s="260"/>
       <c r="I41" s="88"/>
-      <c r="J41" s="73"/>
-      <c r="K41" s="246"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="284"/>
-      <c r="N41" s="286"/>
+      <c r="J41" s="73">
+        <v>44651</v>
+      </c>
+      <c r="K41" s="245" t="s">
+        <v>204</v>
+      </c>
+      <c r="L41" s="75">
+        <f>927.48+128</f>
+        <v>1055.48</v>
+      </c>
+      <c r="M41" s="298"/>
+      <c r="N41" s="300"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -19481,14 +19493,20 @@
       <c r="B42" s="159"/>
       <c r="C42" s="86"/>
       <c r="D42" s="84"/>
-      <c r="E42" s="263"/>
-      <c r="F42" s="246"/>
-      <c r="G42" s="262"/>
+      <c r="E42" s="262"/>
+      <c r="F42" s="245"/>
+      <c r="G42" s="261"/>
       <c r="H42" s="37"/>
       <c r="I42" s="95"/>
-      <c r="J42" s="73"/>
-      <c r="K42" s="76"/>
-      <c r="L42" s="80"/>
+      <c r="J42" s="73">
+        <v>44673</v>
+      </c>
+      <c r="K42" s="76" t="s">
+        <v>318</v>
+      </c>
+      <c r="L42" s="80">
+        <v>1392</v>
+      </c>
       <c r="M42" s="96"/>
       <c r="N42" s="97"/>
       <c r="P42" s="34"/>
@@ -19499,14 +19517,20 @@
       <c r="B43" s="159"/>
       <c r="C43" s="86"/>
       <c r="D43" s="84"/>
-      <c r="E43" s="263"/>
-      <c r="F43" s="246"/>
-      <c r="G43" s="262"/>
+      <c r="E43" s="262"/>
+      <c r="F43" s="245"/>
+      <c r="G43" s="261"/>
       <c r="H43" s="37"/>
       <c r="I43" s="95"/>
-      <c r="J43" s="73"/>
-      <c r="K43" s="76"/>
-      <c r="L43" s="80"/>
+      <c r="J43" s="73">
+        <v>44681</v>
+      </c>
+      <c r="K43" s="76" t="s">
+        <v>320</v>
+      </c>
+      <c r="L43" s="80">
+        <v>1498.61</v>
+      </c>
       <c r="M43" s="96"/>
       <c r="N43" s="97"/>
       <c r="P43" s="34"/>
@@ -19517,9 +19541,9 @@
       <c r="B44" s="159"/>
       <c r="C44" s="86"/>
       <c r="D44" s="84"/>
-      <c r="E44" s="263"/>
-      <c r="F44" s="246"/>
-      <c r="G44" s="262"/>
+      <c r="E44" s="262"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="261"/>
       <c r="H44" s="37"/>
       <c r="I44" s="95"/>
       <c r="J44" s="73"/>
@@ -19535,9 +19559,9 @@
       <c r="B45" s="159"/>
       <c r="C45" s="86"/>
       <c r="D45" s="84"/>
-      <c r="E45" s="263"/>
-      <c r="F45" s="246"/>
-      <c r="G45" s="262"/>
+      <c r="E45" s="262"/>
+      <c r="F45" s="245"/>
+      <c r="G45" s="261"/>
       <c r="H45" s="37"/>
       <c r="I45" s="95"/>
       <c r="J45" s="73"/>
@@ -19550,7 +19574,7 @@
     </row>
     <row r="46" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="24"/>
-      <c r="B46" s="264"/>
+      <c r="B46" s="263"/>
       <c r="C46" s="90"/>
       <c r="D46" s="91"/>
       <c r="E46" s="92"/>
@@ -19669,7 +19693,7 @@
       </c>
       <c r="L51" s="114">
         <f>SUM(L5:L50)</f>
-        <v>80442</v>
+        <v>84388.09</v>
       </c>
       <c r="M51" s="115"/>
       <c r="N51" s="115"/>
@@ -19687,32 +19711,32 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="287" t="s">
+      <c r="H53" s="301" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="288"/>
+      <c r="I53" s="302"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="289">
+      <c r="K53" s="303">
         <f>I51+L51</f>
-        <v>86124</v>
-      </c>
-      <c r="L53" s="290"/>
-      <c r="M53" s="291">
+        <v>90070.09</v>
+      </c>
+      <c r="L53" s="304"/>
+      <c r="M53" s="305">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="292"/>
+      <c r="N53" s="306"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="293" t="s">
+      <c r="D54" s="307" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="293"/>
+      <c r="E54" s="307"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
-        <v>2185028</v>
+        <v>2181081.91</v>
       </c>
       <c r="I54" s="121"/>
       <c r="J54" s="122"/>
@@ -19720,22 +19744,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="294" t="s">
+      <c r="D55" s="308" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="294"/>
+      <c r="E55" s="308"/>
       <c r="F55" s="115">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="295" t="s">
+      <c r="I55" s="309" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="296"/>
-      <c r="K55" s="297">
+      <c r="J55" s="310"/>
+      <c r="K55" s="311">
         <f>F57+F58+F59</f>
-        <v>266670.11000000004</v>
-      </c>
-      <c r="L55" s="298"/>
+        <v>262724.02000000019</v>
+      </c>
+      <c r="L55" s="312"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -19759,18 +19783,18 @@
       </c>
       <c r="F57" s="115">
         <f>SUM(F54:F56)</f>
-        <v>-42465.479999999981</v>
+        <v>-46411.569999999832</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="129" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="299">
+      <c r="K57" s="313">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="300"/>
+      <c r="L57" s="314"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -19787,20 +19811,22 @@
       <c r="C59" s="133">
         <v>44682</v>
       </c>
-      <c r="D59" s="276" t="s">
+      <c r="D59" s="290" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="277"/>
+      <c r="E59" s="291"/>
       <c r="F59" s="134">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="278"/>
-      <c r="J59" s="279"/>
-      <c r="K59" s="280">
+      <c r="I59" s="292" t="s">
+        <v>168</v>
+      </c>
+      <c r="J59" s="293"/>
+      <c r="K59" s="294">
         <f>K55+K57</f>
-        <v>47252.740000000049</v>
-      </c>
-      <c r="L59" s="280"/>
+        <v>43306.650000000198</v>
+      </c>
+      <c r="L59" s="294"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -19944,6 +19970,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -19953,18 +19991,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -20028,19 +20054,19 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="252">
+      <c r="A3" s="251">
         <v>44679</v>
       </c>
-      <c r="B3" s="253" t="s">
+      <c r="B3" s="252" t="s">
         <v>237</v>
       </c>
-      <c r="C3" s="254">
+      <c r="C3" s="253">
         <v>38714.910000000003</v>
       </c>
-      <c r="D3" s="239">
+      <c r="D3" s="238">
         <v>44652</v>
       </c>
-      <c r="E3" s="255">
+      <c r="E3" s="254">
         <v>38714.910000000003</v>
       </c>
       <c r="F3" s="158">
@@ -20049,19 +20075,19 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="252">
+      <c r="A4" s="251">
         <v>44679</v>
       </c>
-      <c r="B4" s="253" t="s">
+      <c r="B4" s="252" t="s">
         <v>238</v>
       </c>
-      <c r="C4" s="254">
+      <c r="C4" s="253">
         <v>7324.6</v>
       </c>
-      <c r="D4" s="239">
+      <c r="D4" s="238">
         <v>44652</v>
       </c>
-      <c r="E4" s="255">
+      <c r="E4" s="254">
         <v>7324.6</v>
       </c>
       <c r="F4" s="196">
@@ -20070,19 +20096,19 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="252">
+      <c r="A5" s="251">
         <v>44680</v>
       </c>
-      <c r="B5" s="253" t="s">
+      <c r="B5" s="252" t="s">
         <v>239</v>
       </c>
-      <c r="C5" s="254">
+      <c r="C5" s="253">
         <v>794.4</v>
       </c>
-      <c r="D5" s="239">
+      <c r="D5" s="238">
         <v>44652</v>
       </c>
-      <c r="E5" s="255">
+      <c r="E5" s="254">
         <v>794.4</v>
       </c>
       <c r="F5" s="196">
@@ -20091,19 +20117,19 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="252">
+      <c r="A6" s="251">
         <v>44681</v>
       </c>
-      <c r="B6" s="253" t="s">
+      <c r="B6" s="252" t="s">
         <v>240</v>
       </c>
-      <c r="C6" s="254">
+      <c r="C6" s="253">
         <v>112563.39</v>
       </c>
-      <c r="D6" s="239">
+      <c r="D6" s="238">
         <v>44652</v>
       </c>
-      <c r="E6" s="255">
+      <c r="E6" s="254">
         <v>112563.39</v>
       </c>
       <c r="F6" s="196">
@@ -20113,19 +20139,19 @@
       <c r="G6" s="162"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="252">
+      <c r="A7" s="251">
         <v>44681</v>
       </c>
-      <c r="B7" s="253" t="s">
+      <c r="B7" s="252" t="s">
         <v>241</v>
       </c>
-      <c r="C7" s="254">
+      <c r="C7" s="253">
         <v>1341.6</v>
       </c>
-      <c r="D7" s="239">
+      <c r="D7" s="238">
         <v>44652</v>
       </c>
-      <c r="E7" s="255">
+      <c r="E7" s="254">
         <v>1341.6</v>
       </c>
       <c r="F7" s="196">
@@ -20134,19 +20160,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="249">
+      <c r="A8" s="248">
         <v>44652</v>
       </c>
-      <c r="B8" s="248" t="s">
+      <c r="B8" s="247" t="s">
         <v>242</v>
       </c>
       <c r="C8" s="115">
         <v>109475.36</v>
       </c>
-      <c r="D8" s="239">
+      <c r="D8" s="238">
         <v>44652</v>
       </c>
-      <c r="E8" s="256">
+      <c r="E8" s="255">
         <v>109475.36</v>
       </c>
       <c r="F8" s="196">
@@ -20155,19 +20181,19 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="249">
+      <c r="A9" s="248">
         <v>44653</v>
       </c>
-      <c r="B9" s="248" t="s">
+      <c r="B9" s="247" t="s">
         <v>243</v>
       </c>
       <c r="C9" s="115">
         <v>93380.9</v>
       </c>
-      <c r="D9" s="241">
+      <c r="D9" s="240">
         <v>44659</v>
       </c>
-      <c r="E9" s="259">
+      <c r="E9" s="258">
         <v>93380.9</v>
       </c>
       <c r="F9" s="196">
@@ -20176,19 +20202,19 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="249">
+      <c r="A10" s="248">
         <v>44655</v>
       </c>
-      <c r="B10" s="248" t="s">
+      <c r="B10" s="247" t="s">
         <v>244</v>
       </c>
       <c r="C10" s="115">
         <v>90010.89</v>
       </c>
-      <c r="D10" s="241">
+      <c r="D10" s="240">
         <v>44659</v>
       </c>
-      <c r="E10" s="259">
+      <c r="E10" s="258">
         <v>90010.89</v>
       </c>
       <c r="F10" s="196">
@@ -20197,10 +20223,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="249">
+      <c r="A11" s="248">
         <v>44656</v>
       </c>
-      <c r="B11" s="248" t="s">
+      <c r="B11" s="247" t="s">
         <v>245</v>
       </c>
       <c r="C11" s="115">
@@ -20218,19 +20244,19 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="249">
+      <c r="A12" s="248">
         <v>44656</v>
       </c>
-      <c r="B12" s="248" t="s">
+      <c r="B12" s="247" t="s">
         <v>246</v>
       </c>
       <c r="C12" s="115">
         <v>20042.650000000001</v>
       </c>
-      <c r="D12" s="241">
+      <c r="D12" s="240">
         <v>44659</v>
       </c>
-      <c r="E12" s="259">
+      <c r="E12" s="258">
         <v>20042.650000000001</v>
       </c>
       <c r="F12" s="196">
@@ -20240,19 +20266,19 @@
       <c r="G12" s="162"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="249">
+      <c r="A13" s="248">
         <v>44657</v>
       </c>
-      <c r="B13" s="248" t="s">
+      <c r="B13" s="247" t="s">
         <v>247</v>
       </c>
       <c r="C13" s="115">
         <v>91542.2</v>
       </c>
-      <c r="D13" s="241">
+      <c r="D13" s="240">
         <v>44659</v>
       </c>
-      <c r="E13" s="259">
+      <c r="E13" s="258">
         <v>91542.2</v>
       </c>
       <c r="F13" s="196">
@@ -20261,19 +20287,19 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="249">
+      <c r="A14" s="248">
         <v>44658</v>
       </c>
-      <c r="B14" s="248" t="s">
+      <c r="B14" s="247" t="s">
         <v>248</v>
       </c>
       <c r="C14" s="115">
         <v>98059.12</v>
       </c>
-      <c r="D14" s="241">
+      <c r="D14" s="240">
         <v>44659</v>
       </c>
-      <c r="E14" s="259">
+      <c r="E14" s="258">
         <v>98059.12</v>
       </c>
       <c r="F14" s="196">
@@ -20282,10 +20308,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="249">
+      <c r="A15" s="248">
         <v>44659</v>
       </c>
-      <c r="B15" s="248" t="s">
+      <c r="B15" s="247" t="s">
         <v>249</v>
       </c>
       <c r="C15" s="115">
@@ -20303,10 +20329,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="249">
+      <c r="A16" s="248">
         <v>44660</v>
       </c>
-      <c r="B16" s="248" t="s">
+      <c r="B16" s="247" t="s">
         <v>250</v>
       </c>
       <c r="C16" s="115">
@@ -20324,10 +20350,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="249">
+      <c r="A17" s="248">
         <v>44660</v>
       </c>
-      <c r="B17" s="248" t="s">
+      <c r="B17" s="247" t="s">
         <v>251</v>
       </c>
       <c r="C17" s="115">
@@ -20345,10 +20371,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="249">
+      <c r="A18" s="248">
         <v>44660</v>
       </c>
-      <c r="B18" s="248" t="s">
+      <c r="B18" s="247" t="s">
         <v>252</v>
       </c>
       <c r="C18" s="115">
@@ -20366,10 +20392,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="249">
+      <c r="A19" s="248">
         <v>44662</v>
       </c>
-      <c r="B19" s="248" t="s">
+      <c r="B19" s="247" t="s">
         <v>253</v>
       </c>
       <c r="C19" s="115">
@@ -20387,10 +20413,10 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="249">
+      <c r="A20" s="248">
         <v>44663</v>
       </c>
-      <c r="B20" s="248" t="s">
+      <c r="B20" s="247" t="s">
         <v>254</v>
       </c>
       <c r="C20" s="115">
@@ -20408,10 +20434,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="249">
+      <c r="A21" s="248">
         <v>44664</v>
       </c>
-      <c r="B21" s="248" t="s">
+      <c r="B21" s="247" t="s">
         <v>255</v>
       </c>
       <c r="C21" s="115">
@@ -20429,10 +20455,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="249">
+      <c r="A22" s="248">
         <v>44665</v>
       </c>
-      <c r="B22" s="248" t="s">
+      <c r="B22" s="247" t="s">
         <v>256</v>
       </c>
       <c r="C22" s="115">
@@ -20450,10 +20476,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="249">
+      <c r="A23" s="248">
         <v>44665</v>
       </c>
-      <c r="B23" s="248" t="s">
+      <c r="B23" s="247" t="s">
         <v>257</v>
       </c>
       <c r="C23" s="115">
@@ -20471,10 +20497,10 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="249">
+      <c r="A24" s="248">
         <v>44667</v>
       </c>
-      <c r="B24" s="248" t="s">
+      <c r="B24" s="247" t="s">
         <v>258</v>
       </c>
       <c r="C24" s="115">
@@ -20493,10 +20519,10 @@
       <c r="G24" s="162"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="249">
+      <c r="A25" s="248">
         <v>44668</v>
       </c>
-      <c r="B25" s="248" t="s">
+      <c r="B25" s="247" t="s">
         <v>259</v>
       </c>
       <c r="C25" s="115">
@@ -20514,10 +20540,10 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="249">
+      <c r="A26" s="248">
         <v>44669</v>
       </c>
-      <c r="B26" s="248" t="s">
+      <c r="B26" s="247" t="s">
         <v>260</v>
       </c>
       <c r="C26" s="115">
@@ -20535,19 +20561,19 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="249">
+      <c r="A27" s="248">
         <v>44670</v>
       </c>
-      <c r="B27" s="248" t="s">
+      <c r="B27" s="247" t="s">
         <v>261</v>
       </c>
       <c r="C27" s="115">
         <v>19804.8</v>
       </c>
-      <c r="D27" s="257">
+      <c r="D27" s="256">
         <v>44673</v>
       </c>
-      <c r="E27" s="258">
+      <c r="E27" s="257">
         <v>19804.8</v>
       </c>
       <c r="F27" s="196">
@@ -20556,19 +20582,19 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="249">
+      <c r="A28" s="248">
         <v>44671</v>
       </c>
-      <c r="B28" s="248" t="s">
+      <c r="B28" s="247" t="s">
         <v>262</v>
       </c>
       <c r="C28" s="115">
         <v>97519.7</v>
       </c>
-      <c r="D28" s="257">
+      <c r="D28" s="256">
         <v>44673</v>
       </c>
-      <c r="E28" s="258">
+      <c r="E28" s="257">
         <v>97519.7</v>
       </c>
       <c r="F28" s="196">
@@ -20577,19 +20603,19 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="249">
+      <c r="A29" s="248">
         <v>44672</v>
       </c>
-      <c r="B29" s="248" t="s">
+      <c r="B29" s="247" t="s">
         <v>263</v>
       </c>
       <c r="C29" s="115">
         <v>108559.18</v>
       </c>
-      <c r="D29" s="257">
+      <c r="D29" s="256">
         <v>44673</v>
       </c>
-      <c r="E29" s="258">
+      <c r="E29" s="257">
         <v>108559.18</v>
       </c>
       <c r="F29" s="196">
@@ -20598,16 +20624,16 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="249">
+      <c r="A30" s="248">
         <v>44673</v>
       </c>
-      <c r="B30" s="248" t="s">
+      <c r="B30" s="247" t="s">
         <v>264</v>
       </c>
       <c r="C30" s="115">
         <v>0</v>
       </c>
-      <c r="D30" s="250" t="s">
+      <c r="D30" s="249" t="s">
         <v>122</v>
       </c>
       <c r="E30" s="115">
@@ -20619,19 +20645,19 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="249">
+      <c r="A31" s="248">
         <v>44673</v>
       </c>
-      <c r="B31" s="248" t="s">
+      <c r="B31" s="247" t="s">
         <v>265</v>
       </c>
       <c r="C31" s="115">
         <v>90834.65</v>
       </c>
-      <c r="D31" s="257">
+      <c r="D31" s="256">
         <v>44673</v>
       </c>
-      <c r="E31" s="258">
+      <c r="E31" s="257">
         <v>90834.65</v>
       </c>
       <c r="F31" s="196">
@@ -20640,19 +20666,19 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="249">
+      <c r="A32" s="248">
         <v>44673</v>
       </c>
-      <c r="B32" s="248" t="s">
+      <c r="B32" s="247" t="s">
         <v>266</v>
       </c>
       <c r="C32" s="115">
         <v>6798</v>
       </c>
-      <c r="D32" s="257">
+      <c r="D32" s="256">
         <v>44673</v>
       </c>
-      <c r="E32" s="258">
+      <c r="E32" s="257">
         <v>6798</v>
       </c>
       <c r="F32" s="196">
@@ -20662,10 +20688,10 @@
       <c r="G32" s="162"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="249">
+      <c r="A33" s="248">
         <v>44674</v>
       </c>
-      <c r="B33" s="248" t="s">
+      <c r="B33" s="247" t="s">
         <v>267</v>
       </c>
       <c r="C33" s="115">
@@ -20683,10 +20709,10 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="249">
+      <c r="A34" s="248">
         <v>44676</v>
       </c>
-      <c r="B34" s="248" t="s">
+      <c r="B34" s="247" t="s">
         <v>268</v>
       </c>
       <c r="C34" s="115">
@@ -20704,10 +20730,10 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="249">
+      <c r="A35" s="248">
         <v>44677</v>
       </c>
-      <c r="B35" s="248" t="s">
+      <c r="B35" s="247" t="s">
         <v>269</v>
       </c>
       <c r="C35" s="115">
@@ -20725,10 +20751,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="249">
+      <c r="A36" s="248">
         <v>44678</v>
       </c>
-      <c r="B36" s="248" t="s">
+      <c r="B36" s="247" t="s">
         <v>270</v>
       </c>
       <c r="C36" s="115">
@@ -20746,10 +20772,10 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="249">
+      <c r="A37" s="248">
         <v>44679</v>
       </c>
-      <c r="B37" s="248" t="s">
+      <c r="B37" s="247" t="s">
         <v>271</v>
       </c>
       <c r="C37" s="115">
@@ -20767,10 +20793,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="249">
+      <c r="A38" s="248">
         <v>44679</v>
       </c>
-      <c r="B38" s="248" t="s">
+      <c r="B38" s="247" t="s">
         <v>272</v>
       </c>
       <c r="C38" s="115">
@@ -20788,10 +20814,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="249">
+      <c r="A39" s="248">
         <v>44680</v>
       </c>
-      <c r="B39" s="248" t="s">
+      <c r="B39" s="247" t="s">
         <v>273</v>
       </c>
       <c r="C39" s="115">
@@ -20809,10 +20835,10 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="249" t="s">
+      <c r="A40" s="248" t="s">
         <v>274</v>
       </c>
-      <c r="B40" s="248" t="s">
+      <c r="B40" s="247" t="s">
         <v>275</v>
       </c>
       <c r="C40" s="115">
@@ -20826,10 +20852,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="249" t="s">
+      <c r="A41" s="248" t="s">
         <v>274</v>
       </c>
-      <c r="B41" s="248" t="s">
+      <c r="B41" s="247" t="s">
         <v>276</v>
       </c>
       <c r="C41" s="115">
@@ -21254,7 +21280,7 @@
     <row r="79" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="212"/>
       <c r="B79" s="232"/>
-      <c r="C79" s="251">
+      <c r="C79" s="250">
         <f>SUM(C3:C78)</f>
         <v>2227493.48</v>
       </c>
@@ -21420,10 +21446,10 @@
   <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="J17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P26" sqref="P26"/>
+      <selection pane="bottomRight" activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21441,28 +21467,28 @@
     <col min="13" max="13" width="18.140625" style="4" customWidth="1"/>
     <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="18.42578125" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" style="245" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" style="244" customWidth="1"/>
     <col min="18" max="18" width="14.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="301"/>
-      <c r="C1" s="303" t="s">
+      <c r="B1" s="277"/>
+      <c r="C1" s="279" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="304"/>
-      <c r="E1" s="304"/>
-      <c r="F1" s="304"/>
-      <c r="G1" s="304"/>
-      <c r="H1" s="304"/>
-      <c r="I1" s="304"/>
-      <c r="J1" s="304"/>
-      <c r="K1" s="304"/>
-      <c r="L1" s="304"/>
-      <c r="M1" s="304"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="280"/>
+      <c r="F1" s="280"/>
+      <c r="G1" s="280"/>
+      <c r="H1" s="280"/>
+      <c r="I1" s="280"/>
+      <c r="J1" s="280"/>
+      <c r="K1" s="280"/>
+      <c r="L1" s="280"/>
+      <c r="M1" s="280"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="302"/>
+      <c r="B2" s="278"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -21472,21 +21498,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="305" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="306"/>
+      <c r="B3" s="281" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="282"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="307" t="s">
+      <c r="H3" s="283" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="307"/>
+      <c r="I3" s="283"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="274" t="s">
+      <c r="R3" s="288" t="s">
         <v>38</v>
       </c>
     </row>
@@ -21501,14 +21527,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="308" t="s">
+      <c r="E4" s="284" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="309"/>
-      <c r="H4" s="310" t="s">
+      <c r="F4" s="285"/>
+      <c r="H4" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="311"/>
+      <c r="I4" s="287"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -21518,11 +21544,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="281" t="s">
+      <c r="P4" s="295" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="282"/>
-      <c r="R4" s="275"/>
+      <c r="Q4" s="296"/>
+      <c r="R4" s="289"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -22577,26 +22603,26 @@
       <c r="B27" s="25">
         <v>44705</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="274">
         <v>0</v>
       </c>
       <c r="D27" s="41"/>
       <c r="E27" s="28">
         <v>44705</v>
       </c>
-      <c r="F27" s="29"/>
+      <c r="F27" s="272"/>
       <c r="G27" s="2"/>
       <c r="H27" s="30">
         <v>44705</v>
       </c>
-      <c r="I27" s="31"/>
+      <c r="I27" s="273"/>
       <c r="J27" s="67"/>
       <c r="K27" s="68"/>
       <c r="L27" s="66"/>
-      <c r="M27" s="32">
-        <v>0</v>
-      </c>
-      <c r="N27" s="33">
+      <c r="M27" s="275">
+        <v>0</v>
+      </c>
+      <c r="N27" s="276">
         <v>0</v>
       </c>
       <c r="P27" s="34">
@@ -22617,26 +22643,26 @@
       <c r="B28" s="25">
         <v>44706</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="274">
         <v>0</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="28">
         <v>44706</v>
       </c>
-      <c r="F28" s="29"/>
+      <c r="F28" s="272"/>
       <c r="G28" s="2"/>
       <c r="H28" s="30">
         <v>44706</v>
       </c>
-      <c r="I28" s="31"/>
+      <c r="I28" s="273"/>
       <c r="J28" s="69"/>
       <c r="K28" s="70"/>
       <c r="L28" s="66"/>
-      <c r="M28" s="32">
-        <v>0</v>
-      </c>
-      <c r="N28" s="33">
+      <c r="M28" s="275">
+        <v>0</v>
+      </c>
+      <c r="N28" s="276">
         <v>0</v>
       </c>
       <c r="P28" s="34">
@@ -22657,26 +22683,26 @@
       <c r="B29" s="25">
         <v>44707</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="274">
         <v>0</v>
       </c>
       <c r="D29" s="71"/>
       <c r="E29" s="28">
         <v>44707</v>
       </c>
-      <c r="F29" s="29"/>
+      <c r="F29" s="272"/>
       <c r="G29" s="2"/>
       <c r="H29" s="30">
         <v>44707</v>
       </c>
-      <c r="I29" s="31"/>
+      <c r="I29" s="273"/>
       <c r="J29" s="67"/>
       <c r="K29" s="72"/>
       <c r="L29" s="66"/>
-      <c r="M29" s="32">
-        <v>0</v>
-      </c>
-      <c r="N29" s="33">
+      <c r="M29" s="275">
+        <v>0</v>
+      </c>
+      <c r="N29" s="276">
         <v>0</v>
       </c>
       <c r="P29" s="34">
@@ -22698,30 +22724,37 @@
         <v>44708</v>
       </c>
       <c r="C30" s="26">
-        <v>0</v>
-      </c>
-      <c r="D30" s="71"/>
+        <v>2182</v>
+      </c>
+      <c r="D30" s="71" t="s">
+        <v>312</v>
+      </c>
       <c r="E30" s="28">
         <v>44708</v>
       </c>
-      <c r="F30" s="29"/>
+      <c r="F30" s="29">
+        <v>109848</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="30">
         <v>44708</v>
       </c>
-      <c r="I30" s="31"/>
+      <c r="I30" s="31">
+        <v>49</v>
+      </c>
       <c r="J30" s="73"/>
       <c r="K30" s="74"/>
       <c r="L30" s="75"/>
       <c r="M30" s="32">
-        <v>0</v>
+        <f>35000+50000+22617</f>
+        <v>107617</v>
       </c>
       <c r="N30" s="33">
         <v>0</v>
       </c>
       <c r="P30" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>109848</v>
       </c>
       <c r="Q30" s="13">
         <f t="shared" si="1"/>
@@ -22741,24 +22774,35 @@
       <c r="E31" s="28">
         <v>44709</v>
       </c>
-      <c r="F31" s="29"/>
+      <c r="F31" s="29">
+        <v>105508</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="30">
         <v>44709</v>
       </c>
-      <c r="I31" s="31"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="77"/>
+      <c r="I31" s="31">
+        <v>83</v>
+      </c>
+      <c r="J31" s="73">
+        <v>44709</v>
+      </c>
+      <c r="K31" s="76" t="s">
+        <v>313</v>
+      </c>
+      <c r="L31" s="77">
+        <v>9500</v>
+      </c>
       <c r="M31" s="32">
-        <v>0</v>
+        <f>40000+46388</f>
+        <v>86388</v>
       </c>
       <c r="N31" s="33">
-        <v>0</v>
+        <v>9537</v>
       </c>
       <c r="P31" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>105508</v>
       </c>
       <c r="Q31" s="13">
         <f t="shared" si="1"/>
@@ -22778,24 +22822,29 @@
       <c r="E32" s="28">
         <v>44710</v>
       </c>
-      <c r="F32" s="29"/>
+      <c r="F32" s="29">
+        <v>141140</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="30">
         <v>44710</v>
       </c>
-      <c r="I32" s="31"/>
+      <c r="I32" s="31">
+        <v>0</v>
+      </c>
       <c r="J32" s="73"/>
       <c r="K32" s="74"/>
       <c r="L32" s="75"/>
       <c r="M32" s="32">
-        <v>0</v>
+        <f>75000+55000+10909</f>
+        <v>140909</v>
       </c>
       <c r="N32" s="33">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="P32" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>141140</v>
       </c>
       <c r="Q32" s="13">
         <f t="shared" si="1"/>
@@ -22875,9 +22924,15 @@
       <c r="G35" s="2"/>
       <c r="H35" s="30"/>
       <c r="I35" s="31"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="80"/>
+      <c r="J35" s="73">
+        <v>44684</v>
+      </c>
+      <c r="K35" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="L35" s="80">
+        <v>638.99</v>
+      </c>
       <c r="M35" s="32">
         <v>0</v>
       </c>
@@ -22886,11 +22941,11 @@
       </c>
       <c r="P35" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>638.99</v>
       </c>
       <c r="Q35" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>638.99</v>
       </c>
       <c r="R35" s="8"/>
     </row>
@@ -22904,9 +22959,15 @@
       <c r="G36" s="2"/>
       <c r="H36" s="30"/>
       <c r="I36" s="31"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="80"/>
+      <c r="J36" s="73">
+        <v>44704</v>
+      </c>
+      <c r="K36" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="L36" s="80">
+        <v>1392</v>
+      </c>
       <c r="M36" s="32">
         <v>0</v>
       </c>
@@ -22915,11 +22976,11 @@
       </c>
       <c r="P36" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1392</v>
       </c>
       <c r="Q36" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1392</v>
       </c>
       <c r="R36" s="8"/>
     </row>
@@ -22934,8 +22995,12 @@
       <c r="H37" s="30"/>
       <c r="I37" s="31"/>
       <c r="J37" s="73"/>
-      <c r="K37" s="221"/>
-      <c r="L37" s="80"/>
+      <c r="K37" s="221" t="s">
+        <v>321</v>
+      </c>
+      <c r="L37" s="80">
+        <v>1195.68</v>
+      </c>
       <c r="M37" s="32">
         <v>0</v>
       </c>
@@ -22944,11 +23009,11 @@
       </c>
       <c r="P37" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1195.68</v>
       </c>
       <c r="Q37" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1195.68</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22962,8 +23027,12 @@
       <c r="H38" s="30"/>
       <c r="I38" s="31"/>
       <c r="J38" s="73"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="80"/>
+      <c r="K38" s="76" t="s">
+        <v>321</v>
+      </c>
+      <c r="L38" s="80">
+        <v>1754.3</v>
+      </c>
       <c r="M38" s="32">
         <v>0</v>
       </c>
@@ -22972,11 +23041,11 @@
       </c>
       <c r="P38" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1754.3</v>
       </c>
       <c r="Q38" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1754.3</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22990,8 +23059,12 @@
       <c r="H39" s="30"/>
       <c r="I39" s="31"/>
       <c r="J39" s="73"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="75"/>
+      <c r="K39" s="76" t="s">
+        <v>321</v>
+      </c>
+      <c r="L39" s="75">
+        <v>870</v>
+      </c>
       <c r="M39" s="32">
         <v>0</v>
       </c>
@@ -23000,11 +23073,11 @@
       </c>
       <c r="P39" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>870</v>
       </c>
       <c r="Q39" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>870</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -23017,24 +23090,30 @@
       <c r="G40" s="2"/>
       <c r="H40" s="37"/>
       <c r="I40" s="88"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="273"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="283">
+      <c r="J40" s="73">
+        <v>44680</v>
+      </c>
+      <c r="K40" s="318" t="s">
+        <v>320</v>
+      </c>
+      <c r="L40" s="75">
+        <v>1770.75</v>
+      </c>
+      <c r="M40" s="297">
         <f>SUM(M5:M39)</f>
-        <v>1671182</v>
-      </c>
-      <c r="N40" s="285">
+        <v>2006096</v>
+      </c>
+      <c r="N40" s="299">
         <f>SUM(N5:N39)</f>
-        <v>52025</v>
+        <v>61793</v>
       </c>
       <c r="P40" s="34">
         <f>SUM(P5:P39)</f>
-        <v>1816109</v>
+        <v>2178455.9700000002</v>
       </c>
       <c r="Q40" s="13">
         <f t="shared" si="1"/>
-        <v>1816109</v>
+        <v>2178455.9700000002</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23043,15 +23122,15 @@
       <c r="C41" s="86"/>
       <c r="D41" s="84"/>
       <c r="E41" s="28"/>
-      <c r="F41" s="260"/>
+      <c r="F41" s="259"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="261"/>
+      <c r="H41" s="260"/>
       <c r="I41" s="88"/>
       <c r="J41" s="73"/>
-      <c r="K41" s="246"/>
+      <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="284"/>
-      <c r="N41" s="286"/>
+      <c r="M41" s="298"/>
+      <c r="N41" s="300"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -23060,9 +23139,9 @@
       <c r="B42" s="159"/>
       <c r="C42" s="86"/>
       <c r="D42" s="84"/>
-      <c r="E42" s="263"/>
-      <c r="F42" s="246"/>
-      <c r="G42" s="262"/>
+      <c r="E42" s="262"/>
+      <c r="F42" s="245"/>
+      <c r="G42" s="261"/>
       <c r="H42" s="37"/>
       <c r="I42" s="95"/>
       <c r="J42" s="73"/>
@@ -23078,9 +23157,9 @@
       <c r="B43" s="159"/>
       <c r="C43" s="86"/>
       <c r="D43" s="84"/>
-      <c r="E43" s="263"/>
-      <c r="F43" s="246"/>
-      <c r="G43" s="262"/>
+      <c r="E43" s="262"/>
+      <c r="F43" s="245"/>
+      <c r="G43" s="261"/>
       <c r="H43" s="37"/>
       <c r="I43" s="95"/>
       <c r="J43" s="73"/>
@@ -23096,9 +23175,9 @@
       <c r="B44" s="159"/>
       <c r="C44" s="86"/>
       <c r="D44" s="84"/>
-      <c r="E44" s="263"/>
-      <c r="F44" s="246"/>
-      <c r="G44" s="262"/>
+      <c r="E44" s="262"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="261"/>
       <c r="H44" s="37"/>
       <c r="I44" s="95"/>
       <c r="J44" s="73"/>
@@ -23114,9 +23193,9 @@
       <c r="B45" s="159"/>
       <c r="C45" s="86"/>
       <c r="D45" s="84"/>
-      <c r="E45" s="263"/>
-      <c r="F45" s="246"/>
-      <c r="G45" s="262"/>
+      <c r="E45" s="262"/>
+      <c r="F45" s="245"/>
+      <c r="G45" s="261"/>
       <c r="H45" s="37"/>
       <c r="I45" s="95"/>
       <c r="J45" s="73"/>
@@ -23129,7 +23208,7 @@
     </row>
     <row r="46" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="24"/>
-      <c r="B46" s="264"/>
+      <c r="B46" s="263"/>
       <c r="C46" s="90"/>
       <c r="D46" s="91"/>
       <c r="E46" s="92"/>
@@ -23224,7 +23303,7 @@
       </c>
       <c r="C51" s="106">
         <f>SUM(C5:C50)</f>
-        <v>58459</v>
+        <v>60641</v>
       </c>
       <c r="D51" s="107"/>
       <c r="E51" s="108" t="s">
@@ -23232,7 +23311,7 @@
       </c>
       <c r="F51" s="109">
         <f>SUM(F5:F50)</f>
-        <v>1804642</v>
+        <v>2161138</v>
       </c>
       <c r="G51" s="107"/>
       <c r="H51" s="110" t="s">
@@ -23240,7 +23319,7 @@
       </c>
       <c r="I51" s="111">
         <f>SUM(I5:I50)</f>
-        <v>2026</v>
+        <v>2158</v>
       </c>
       <c r="J51" s="112"/>
       <c r="K51" s="113" t="s">
@@ -23248,7 +23327,7 @@
       </c>
       <c r="L51" s="114">
         <f>SUM(L5:L50)</f>
-        <v>32417</v>
+        <v>49538.720000000001</v>
       </c>
       <c r="M51" s="115"/>
       <c r="N51" s="115"/>
@@ -23266,32 +23345,32 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="287" t="s">
+      <c r="H53" s="301" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="288"/>
+      <c r="I53" s="302"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="289">
+      <c r="K53" s="303">
         <f>I51+L51</f>
-        <v>34443</v>
-      </c>
-      <c r="L53" s="290"/>
-      <c r="M53" s="291">
+        <v>51696.72</v>
+      </c>
+      <c r="L53" s="304"/>
+      <c r="M53" s="305">
         <f>N40+M40</f>
-        <v>1723207</v>
-      </c>
-      <c r="N53" s="292"/>
+        <v>2067889</v>
+      </c>
+      <c r="N53" s="306"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="293" t="s">
+      <c r="D54" s="307" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="293"/>
+      <c r="E54" s="307"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
-        <v>1711740</v>
+        <v>2048800.2799999998</v>
       </c>
       <c r="I54" s="121"/>
       <c r="J54" s="122"/>
@@ -23299,22 +23378,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="294" t="s">
+      <c r="D55" s="308" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="294"/>
+      <c r="E55" s="308"/>
       <c r="F55" s="115">
-        <v>0</v>
-      </c>
-      <c r="I55" s="295" t="s">
+        <v>-2251924.65</v>
+      </c>
+      <c r="I55" s="309" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="296"/>
-      <c r="K55" s="297">
+      <c r="J55" s="310"/>
+      <c r="K55" s="311">
         <f>F57+F58+F59</f>
-        <v>1711740</v>
-      </c>
-      <c r="L55" s="298"/>
+        <v>-53185.560000000114</v>
+      </c>
+      <c r="L55" s="312"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -23338,18 +23417,18 @@
       </c>
       <c r="F57" s="115">
         <f>SUM(F54:F56)</f>
-        <v>1711740</v>
+        <v>-203124.37000000011</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="129" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="299">
+      <c r="K57" s="313">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="300"/>
+      <c r="L57" s="314"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -23363,21 +23442,23 @@
       </c>
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C59" s="133"/>
-      <c r="D59" s="276" t="s">
+      <c r="C59" s="133">
+        <v>44710</v>
+      </c>
+      <c r="D59" s="290" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="277"/>
+      <c r="E59" s="291"/>
       <c r="F59" s="134">
-        <v>0</v>
-      </c>
-      <c r="I59" s="278"/>
-      <c r="J59" s="279"/>
-      <c r="K59" s="280">
+        <v>149938.81</v>
+      </c>
+      <c r="I59" s="292"/>
+      <c r="J59" s="293"/>
+      <c r="K59" s="294">
         <f>K55+K57</f>
-        <v>1413865.41</v>
-      </c>
-      <c r="L59" s="280"/>
+        <v>-351060.15000000014</v>
+      </c>
+      <c r="L59" s="294"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -23521,18 +23602,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -23542,6 +23611,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/BALANCE   HERRADURA  MAYO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/BALANCE   HERRADURA  MAYO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="324">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1290,6 +1290,12 @@
   </si>
   <si>
     <t>xxxxxxxxxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEGURO </t>
+  </si>
+  <si>
+    <t>SEGURO</t>
   </si>
 </sst>
 </file>
@@ -2570,7 +2576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="319">
+  <cellXfs count="322">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3074,38 +3080,8 @@
     <xf numFmtId="44" fontId="2" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="17" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="16" fontId="27" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3188,17 +3164,54 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="27" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5648,23 +5661,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="277"/>
-      <c r="C1" s="279" t="s">
+      <c r="B1" s="305"/>
+      <c r="C1" s="307" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="280"/>
-      <c r="H1" s="280"/>
-      <c r="I1" s="280"/>
-      <c r="J1" s="280"/>
-      <c r="K1" s="280"/>
-      <c r="L1" s="280"/>
-      <c r="M1" s="280"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="308"/>
+      <c r="F1" s="308"/>
+      <c r="G1" s="308"/>
+      <c r="H1" s="308"/>
+      <c r="I1" s="308"/>
+      <c r="J1" s="308"/>
+      <c r="K1" s="308"/>
+      <c r="L1" s="308"/>
+      <c r="M1" s="308"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="278"/>
+      <c r="B2" s="306"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -5674,21 +5687,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="281" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="282"/>
+      <c r="B3" s="309" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="310"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="283" t="s">
+      <c r="H3" s="311" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="283"/>
+      <c r="I3" s="311"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="288" t="s">
+      <c r="R3" s="278" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5703,14 +5716,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="284" t="s">
+      <c r="E4" s="312" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="285"/>
-      <c r="H4" s="286" t="s">
+      <c r="F4" s="313"/>
+      <c r="H4" s="314" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="287"/>
+      <c r="I4" s="315"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -5720,11 +5733,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="295" t="s">
+      <c r="P4" s="285" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="296"/>
-      <c r="R4" s="289"/>
+      <c r="Q4" s="286"/>
+      <c r="R4" s="279"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -7225,11 +7238,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="297">
+      <c r="M40" s="287">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="299">
+      <c r="N40" s="289">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -7255,8 +7268,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="298"/>
-      <c r="N41" s="300"/>
+      <c r="M41" s="288"/>
+      <c r="N41" s="290"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -7471,29 +7484,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="301" t="s">
+      <c r="H53" s="291" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="302"/>
+      <c r="I53" s="292"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="303">
+      <c r="K53" s="293">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="304"/>
-      <c r="M53" s="305">
+      <c r="L53" s="294"/>
+      <c r="M53" s="295">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="306"/>
+      <c r="N53" s="296"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="307" t="s">
+      <c r="D54" s="297" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="307"/>
+      <c r="E54" s="297"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -7504,22 +7517,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="308" t="s">
+      <c r="D55" s="298" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="308"/>
+      <c r="E55" s="298"/>
       <c r="F55" s="115">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="309" t="s">
+      <c r="I55" s="299" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="310"/>
-      <c r="K55" s="311">
+      <c r="J55" s="300"/>
+      <c r="K55" s="301">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="312"/>
+      <c r="L55" s="302"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -7550,11 +7563,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="313">
+      <c r="K57" s="303">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="314"/>
+      <c r="L57" s="304"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -7571,22 +7584,22 @@
       <c r="C59" s="133">
         <v>44591</v>
       </c>
-      <c r="D59" s="290" t="s">
+      <c r="D59" s="280" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="291"/>
+      <c r="E59" s="281"/>
       <c r="F59" s="134">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="292" t="s">
+      <c r="I59" s="282" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="293"/>
-      <c r="K59" s="294">
+      <c r="J59" s="283"/>
+      <c r="K59" s="284">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="294"/>
+      <c r="L59" s="284"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -7730,6 +7743,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -7745,12 +7764,6 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10840,23 +10853,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="277"/>
-      <c r="C1" s="279" t="s">
+      <c r="B1" s="305"/>
+      <c r="C1" s="307" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="280"/>
-      <c r="H1" s="280"/>
-      <c r="I1" s="280"/>
-      <c r="J1" s="280"/>
-      <c r="K1" s="280"/>
-      <c r="L1" s="280"/>
-      <c r="M1" s="280"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="308"/>
+      <c r="F1" s="308"/>
+      <c r="G1" s="308"/>
+      <c r="H1" s="308"/>
+      <c r="I1" s="308"/>
+      <c r="J1" s="308"/>
+      <c r="K1" s="308"/>
+      <c r="L1" s="308"/>
+      <c r="M1" s="308"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="278"/>
+      <c r="B2" s="306"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -10866,21 +10879,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="281" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="282"/>
+      <c r="B3" s="309" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="310"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="283" t="s">
+      <c r="H3" s="311" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="283"/>
+      <c r="I3" s="311"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="288" t="s">
+      <c r="R3" s="278" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10895,14 +10908,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="284" t="s">
+      <c r="E4" s="312" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="285"/>
-      <c r="H4" s="286" t="s">
+      <c r="F4" s="313"/>
+      <c r="H4" s="314" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="287"/>
+      <c r="I4" s="315"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -10912,11 +10925,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="295" t="s">
+      <c r="P4" s="285" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="296"/>
-      <c r="R4" s="289"/>
+      <c r="Q4" s="286"/>
+      <c r="R4" s="279"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -12400,11 +12413,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="80"/>
-      <c r="M40" s="315">
+      <c r="M40" s="316">
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="299">
+      <c r="N40" s="289">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -12430,8 +12443,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="298"/>
-      <c r="N41" s="300"/>
+      <c r="M41" s="288"/>
+      <c r="N41" s="290"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -12646,29 +12659,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="301" t="s">
+      <c r="H53" s="291" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="302"/>
+      <c r="I53" s="292"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="303">
+      <c r="K53" s="293">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="304"/>
-      <c r="M53" s="305">
+      <c r="L53" s="294"/>
+      <c r="M53" s="295">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="306"/>
+      <c r="N53" s="296"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="307" t="s">
+      <c r="D54" s="297" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="307"/>
+      <c r="E54" s="297"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -12679,22 +12692,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="308" t="s">
+      <c r="D55" s="298" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="308"/>
+      <c r="E55" s="298"/>
       <c r="F55" s="115">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="309" t="s">
+      <c r="I55" s="299" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="310"/>
-      <c r="K55" s="311">
+      <c r="J55" s="300"/>
+      <c r="K55" s="301">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="312"/>
+      <c r="L55" s="302"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -12725,11 +12738,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="313">
+      <c r="K57" s="303">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="314"/>
+      <c r="L57" s="304"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -12746,22 +12759,22 @@
       <c r="C59" s="133">
         <v>44619</v>
       </c>
-      <c r="D59" s="290" t="s">
+      <c r="D59" s="280" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="291"/>
+      <c r="E59" s="281"/>
       <c r="F59" s="134">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="292" t="s">
+      <c r="I59" s="282" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="293"/>
-      <c r="K59" s="294">
+      <c r="J59" s="283"/>
+      <c r="K59" s="284">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="294"/>
+      <c r="L59" s="284"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -12905,6 +12918,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -12914,18 +12939,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14207,7 +14220,7 @@
   <dimension ref="A1:U77"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14230,23 +14243,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="277"/>
-      <c r="C1" s="279" t="s">
+      <c r="B1" s="305"/>
+      <c r="C1" s="307" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="280"/>
-      <c r="H1" s="280"/>
-      <c r="I1" s="280"/>
-      <c r="J1" s="280"/>
-      <c r="K1" s="280"/>
-      <c r="L1" s="280"/>
-      <c r="M1" s="280"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="308"/>
+      <c r="F1" s="308"/>
+      <c r="G1" s="308"/>
+      <c r="H1" s="308"/>
+      <c r="I1" s="308"/>
+      <c r="J1" s="308"/>
+      <c r="K1" s="308"/>
+      <c r="L1" s="308"/>
+      <c r="M1" s="308"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="278"/>
+      <c r="B2" s="306"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14256,21 +14269,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="281" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="282"/>
+      <c r="B3" s="309" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="310"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="283" t="s">
+      <c r="H3" s="311" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="283"/>
+      <c r="I3" s="311"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="288" t="s">
+      <c r="R3" s="278" t="s">
         <v>38</v>
       </c>
     </row>
@@ -14285,14 +14298,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="284" t="s">
+      <c r="E4" s="312" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="285"/>
-      <c r="H4" s="286" t="s">
+      <c r="F4" s="313"/>
+      <c r="H4" s="314" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="287"/>
+      <c r="I4" s="315"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -14302,11 +14315,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="295" t="s">
+      <c r="P4" s="285" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="296"/>
-      <c r="R4" s="289"/>
+      <c r="Q4" s="286"/>
+      <c r="R4" s="279"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -15601,13 +15614,13 @@
       <c r="H34" s="30"/>
       <c r="I34" s="31"/>
       <c r="J34" s="73">
-        <v>44629</v>
-      </c>
-      <c r="K34" s="81" t="s">
-        <v>317</v>
-      </c>
-      <c r="L34" s="82">
-        <v>3133.5</v>
+        <v>44627</v>
+      </c>
+      <c r="K34" s="317" t="s">
+        <v>322</v>
+      </c>
+      <c r="L34" s="320">
+        <v>1195.68</v>
       </c>
       <c r="M34" s="32">
         <v>0</v>
@@ -15617,11 +15630,11 @@
       </c>
       <c r="P34" s="34">
         <f t="shared" si="0"/>
-        <v>3133.5</v>
+        <v>1195.68</v>
       </c>
       <c r="Q34" s="13">
         <f t="shared" si="1"/>
-        <v>3133.5</v>
+        <v>1195.68</v>
       </c>
       <c r="R34" s="8"/>
     </row>
@@ -15636,13 +15649,13 @@
       <c r="H35" s="30"/>
       <c r="I35" s="31"/>
       <c r="J35" s="73">
-        <v>44645</v>
-      </c>
-      <c r="K35" s="76" t="s">
-        <v>318</v>
+        <v>44629</v>
+      </c>
+      <c r="K35" s="221" t="s">
+        <v>317</v>
       </c>
       <c r="L35" s="80">
-        <v>1392</v>
+        <v>3133.5</v>
       </c>
       <c r="M35" s="220">
         <v>0</v>
@@ -15652,11 +15665,11 @@
       </c>
       <c r="P35" s="34">
         <f t="shared" si="0"/>
-        <v>1392</v>
+        <v>3133.5</v>
       </c>
       <c r="Q35" s="13">
         <f t="shared" si="1"/>
-        <v>1392</v>
+        <v>3133.5</v>
       </c>
       <c r="R35" s="8"/>
     </row>
@@ -15671,13 +15684,13 @@
       <c r="H36" s="30"/>
       <c r="I36" s="31"/>
       <c r="J36" s="73">
-        <v>44649</v>
-      </c>
-      <c r="K36" s="316" t="s">
-        <v>319</v>
+        <v>44645</v>
+      </c>
+      <c r="K36" s="319" t="s">
+        <v>318</v>
       </c>
       <c r="L36" s="80">
-        <v>1749.14</v>
+        <v>1392</v>
       </c>
       <c r="M36" s="220">
         <v>0</v>
@@ -15687,11 +15700,11 @@
       </c>
       <c r="P36" s="34">
         <f t="shared" si="0"/>
-        <v>1749.14</v>
+        <v>1392</v>
       </c>
       <c r="Q36" s="13">
         <f t="shared" si="1"/>
-        <v>1749.14</v>
+        <v>1392</v>
       </c>
       <c r="R36" s="8"/>
     </row>
@@ -15705,9 +15718,15 @@
       <c r="G37" s="2"/>
       <c r="H37" s="30"/>
       <c r="I37" s="31"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="317"/>
-      <c r="L37" s="80"/>
+      <c r="J37" s="73">
+        <v>44649</v>
+      </c>
+      <c r="K37" s="318" t="s">
+        <v>319</v>
+      </c>
+      <c r="L37" s="80">
+        <v>1749.14</v>
+      </c>
       <c r="M37" s="220">
         <v>0</v>
       </c>
@@ -15716,11 +15735,11 @@
       </c>
       <c r="P37" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1749.14</v>
       </c>
       <c r="Q37" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1749.14</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15736,7 +15755,7 @@
       <c r="J38" s="73">
         <v>44649</v>
       </c>
-      <c r="K38" s="76" t="s">
+      <c r="K38" s="321" t="s">
         <v>190</v>
       </c>
       <c r="L38" s="80">
@@ -15798,21 +15817,21 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="297">
+      <c r="M40" s="287">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="299">
+      <c r="N40" s="289">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
       <c r="P40" s="34">
         <f>SUM(P5:P39)</f>
-        <v>2013409.3499999999</v>
+        <v>2014605.0299999998</v>
       </c>
       <c r="Q40" s="13">
         <f t="shared" si="1"/>
-        <v>2013409.3499999999</v>
+        <v>2014605.0299999998</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15828,8 +15847,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="298"/>
-      <c r="N41" s="300"/>
+      <c r="M41" s="288"/>
+      <c r="N41" s="290"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -15954,7 +15973,7 @@
       </c>
       <c r="L47" s="114">
         <f>SUM(L5:L46)</f>
-        <v>85538.35</v>
+        <v>86734.03</v>
       </c>
       <c r="M47" s="115"/>
       <c r="N47" s="115"/>
@@ -15972,32 +15991,32 @@
       <c r="A49" s="117"/>
       <c r="B49" s="118"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="301" t="s">
+      <c r="H49" s="291" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="302"/>
+      <c r="I49" s="292"/>
       <c r="J49" s="119"/>
-      <c r="K49" s="303">
+      <c r="K49" s="293">
         <f>I47+L47</f>
-        <v>89238.35</v>
-      </c>
-      <c r="L49" s="304"/>
-      <c r="M49" s="305">
+        <v>90434.03</v>
+      </c>
+      <c r="L49" s="294"/>
+      <c r="M49" s="295">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="306"/>
+      <c r="N49" s="296"/>
       <c r="P49" s="34"/>
       <c r="Q49" s="9"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="307" t="s">
+      <c r="D50" s="297" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="307"/>
+      <c r="E50" s="297"/>
       <c r="F50" s="120">
         <f>F47-K49-C47</f>
-        <v>1825456.65</v>
+        <v>1824260.97</v>
       </c>
       <c r="I50" s="121"/>
       <c r="J50" s="122"/>
@@ -16005,22 +16024,22 @@
       <c r="Q50" s="9"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="308" t="s">
+      <c r="D51" s="298" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="308"/>
+      <c r="E51" s="298"/>
       <c r="F51" s="115">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="309" t="s">
+      <c r="I51" s="299" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="310"/>
-      <c r="K51" s="311">
+      <c r="J51" s="300"/>
+      <c r="K51" s="301">
         <f>F53+F54+F55</f>
-        <v>196737.38</v>
-      </c>
-      <c r="L51" s="312"/>
+        <v>195541.70000000007</v>
+      </c>
+      <c r="L51" s="302"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
@@ -16044,18 +16063,18 @@
       </c>
       <c r="F53" s="115">
         <f>SUM(F50:F52)</f>
-        <v>-22679.989999999991</v>
+        <v>-23875.669999999925</v>
       </c>
       <c r="H53" s="24"/>
       <c r="I53" s="129" t="s">
         <v>17</v>
       </c>
       <c r="J53" s="130"/>
-      <c r="K53" s="313">
+      <c r="K53" s="303">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="314"/>
+      <c r="L53" s="304"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="131" t="s">
@@ -16072,22 +16091,22 @@
       <c r="C55" s="133">
         <v>44647</v>
       </c>
-      <c r="D55" s="290" t="s">
+      <c r="D55" s="280" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="291"/>
+      <c r="E55" s="281"/>
       <c r="F55" s="134">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="292" t="s">
+      <c r="I55" s="282" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="293"/>
-      <c r="K55" s="294">
+      <c r="J55" s="283"/>
+      <c r="K55" s="284">
         <f>K51+K53</f>
-        <v>12395.190000000002</v>
-      </c>
-      <c r="L55" s="294"/>
+        <v>11199.510000000068</v>
+      </c>
+      <c r="L55" s="284"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="135"/>
@@ -16230,19 +16249,10 @@
       <c r="F77" s="150"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
+  <sortState ref="J34:L38">
+    <sortCondition ref="J34:J38"/>
+  </sortState>
+  <mergeCells count="21">
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -16252,7 +16262,18 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:N49"/>
-    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17703,8 +17724,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17727,23 +17748,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="277"/>
-      <c r="C1" s="279" t="s">
+      <c r="B1" s="305"/>
+      <c r="C1" s="307" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="280"/>
-      <c r="H1" s="280"/>
-      <c r="I1" s="280"/>
-      <c r="J1" s="280"/>
-      <c r="K1" s="280"/>
-      <c r="L1" s="280"/>
-      <c r="M1" s="280"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="308"/>
+      <c r="F1" s="308"/>
+      <c r="G1" s="308"/>
+      <c r="H1" s="308"/>
+      <c r="I1" s="308"/>
+      <c r="J1" s="308"/>
+      <c r="K1" s="308"/>
+      <c r="L1" s="308"/>
+      <c r="M1" s="308"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="278"/>
+      <c r="B2" s="306"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -17753,21 +17774,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="281" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="282"/>
+      <c r="B3" s="309" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="310"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="283" t="s">
+      <c r="H3" s="311" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="283"/>
+      <c r="I3" s="311"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="288" t="s">
+      <c r="R3" s="278" t="s">
         <v>38</v>
       </c>
     </row>
@@ -17782,14 +17803,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="284" t="s">
+      <c r="E4" s="312" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="285"/>
-      <c r="H4" s="286" t="s">
+      <c r="F4" s="313"/>
+      <c r="H4" s="314" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="287"/>
+      <c r="I4" s="315"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -17799,11 +17820,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="295" t="s">
+      <c r="P4" s="285" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="296"/>
-      <c r="R4" s="289"/>
+      <c r="Q4" s="286"/>
+      <c r="R4" s="279"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -19438,19 +19459,20 @@
       <c r="H40" s="37"/>
       <c r="I40" s="88"/>
       <c r="J40" s="73">
-        <v>44676</v>
-      </c>
-      <c r="K40" s="246" t="s">
-        <v>190</v>
+        <v>44651</v>
+      </c>
+      <c r="K40" s="245" t="s">
+        <v>204</v>
       </c>
       <c r="L40" s="75">
-        <v>30225</v>
-      </c>
-      <c r="M40" s="297">
+        <f>927.48+128</f>
+        <v>1055.48</v>
+      </c>
+      <c r="M40" s="287">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="299">
+      <c r="N40" s="289">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -19474,17 +19496,16 @@
       <c r="H41" s="260"/>
       <c r="I41" s="88"/>
       <c r="J41" s="73">
-        <v>44651</v>
-      </c>
-      <c r="K41" s="245" t="s">
-        <v>204</v>
+        <v>44658</v>
+      </c>
+      <c r="K41" s="76" t="s">
+        <v>323</v>
       </c>
       <c r="L41" s="75">
-        <f>927.48+128</f>
-        <v>1055.48</v>
-      </c>
-      <c r="M41" s="298"/>
-      <c r="N41" s="300"/>
+        <v>1195.68</v>
+      </c>
+      <c r="M41" s="288"/>
+      <c r="N41" s="290"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -19523,13 +19544,13 @@
       <c r="H43" s="37"/>
       <c r="I43" s="95"/>
       <c r="J43" s="73">
-        <v>44681</v>
-      </c>
-      <c r="K43" s="76" t="s">
-        <v>320</v>
+        <v>44676</v>
+      </c>
+      <c r="K43" s="246" t="s">
+        <v>190</v>
       </c>
       <c r="L43" s="80">
-        <v>1498.61</v>
+        <v>30225</v>
       </c>
       <c r="M43" s="96"/>
       <c r="N43" s="97"/>
@@ -19545,10 +19566,18 @@
       <c r="F44" s="245"/>
       <c r="G44" s="261"/>
       <c r="H44" s="37"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="73"/>
-      <c r="K44" s="76"/>
-      <c r="L44" s="80"/>
+      <c r="I44" s="95">
+        <v>7</v>
+      </c>
+      <c r="J44" s="73">
+        <v>44681</v>
+      </c>
+      <c r="K44" s="76" t="s">
+        <v>320</v>
+      </c>
+      <c r="L44" s="80">
+        <v>1498.61</v>
+      </c>
       <c r="M44" s="96"/>
       <c r="N44" s="97"/>
       <c r="P44" s="34"/>
@@ -19685,7 +19714,7 @@
       </c>
       <c r="I51" s="111">
         <f>SUM(I5:I50)</f>
-        <v>5682</v>
+        <v>5689</v>
       </c>
       <c r="J51" s="112"/>
       <c r="K51" s="113" t="s">
@@ -19693,7 +19722,7 @@
       </c>
       <c r="L51" s="114">
         <f>SUM(L5:L50)</f>
-        <v>84388.09</v>
+        <v>85583.77</v>
       </c>
       <c r="M51" s="115"/>
       <c r="N51" s="115"/>
@@ -19711,32 +19740,32 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="301" t="s">
+      <c r="H53" s="291" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="302"/>
+      <c r="I53" s="292"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="303">
+      <c r="K53" s="293">
         <f>I51+L51</f>
-        <v>90070.09</v>
-      </c>
-      <c r="L53" s="304"/>
-      <c r="M53" s="305">
+        <v>91272.77</v>
+      </c>
+      <c r="L53" s="294"/>
+      <c r="M53" s="295">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="306"/>
+      <c r="N53" s="296"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="307" t="s">
+      <c r="D54" s="297" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="307"/>
+      <c r="E54" s="297"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
-        <v>2181081.91</v>
+        <v>2179879.23</v>
       </c>
       <c r="I54" s="121"/>
       <c r="J54" s="122"/>
@@ -19744,22 +19773,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="308" t="s">
+      <c r="D55" s="298" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="308"/>
+      <c r="E55" s="298"/>
       <c r="F55" s="115">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="309" t="s">
+      <c r="I55" s="299" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="310"/>
-      <c r="K55" s="311">
+      <c r="J55" s="300"/>
+      <c r="K55" s="301">
         <f>F57+F58+F59</f>
-        <v>262724.02000000019</v>
-      </c>
-      <c r="L55" s="312"/>
+        <v>261521.34000000003</v>
+      </c>
+      <c r="L55" s="302"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -19783,18 +19812,18 @@
       </c>
       <c r="F57" s="115">
         <f>SUM(F54:F56)</f>
-        <v>-46411.569999999832</v>
+        <v>-47614.25</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="129" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="313">
+      <c r="K57" s="303">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="314"/>
+      <c r="L57" s="304"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -19811,22 +19840,22 @@
       <c r="C59" s="133">
         <v>44682</v>
       </c>
-      <c r="D59" s="290" t="s">
+      <c r="D59" s="280" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="291"/>
+      <c r="E59" s="281"/>
       <c r="F59" s="134">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="292" t="s">
+      <c r="I59" s="282" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="293"/>
-      <c r="K59" s="294">
+      <c r="J59" s="283"/>
+      <c r="K59" s="284">
         <f>K55+K57</f>
-        <v>43306.650000000198</v>
-      </c>
-      <c r="L59" s="294"/>
+        <v>42103.97000000003</v>
+      </c>
+      <c r="L59" s="284"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -19969,19 +19998,10 @@
       <c r="F81" s="150"/>
     </row>
   </sheetData>
+  <sortState ref="J40:L44">
+    <sortCondition ref="J40:J44"/>
+  </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -19991,6 +20011,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21445,8 +21477,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="L41" sqref="L41"/>
@@ -21472,23 +21504,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="277"/>
-      <c r="C1" s="279" t="s">
+      <c r="B1" s="305"/>
+      <c r="C1" s="307" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="280"/>
-      <c r="H1" s="280"/>
-      <c r="I1" s="280"/>
-      <c r="J1" s="280"/>
-      <c r="K1" s="280"/>
-      <c r="L1" s="280"/>
-      <c r="M1" s="280"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="308"/>
+      <c r="F1" s="308"/>
+      <c r="G1" s="308"/>
+      <c r="H1" s="308"/>
+      <c r="I1" s="308"/>
+      <c r="J1" s="308"/>
+      <c r="K1" s="308"/>
+      <c r="L1" s="308"/>
+      <c r="M1" s="308"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="278"/>
+      <c r="B2" s="306"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -21498,21 +21530,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="281" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="282"/>
+      <c r="B3" s="309" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="310"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="283" t="s">
+      <c r="H3" s="311" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="283"/>
+      <c r="I3" s="311"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="288" t="s">
+      <c r="R3" s="278" t="s">
         <v>38</v>
       </c>
     </row>
@@ -21527,14 +21559,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="284" t="s">
+      <c r="E4" s="312" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="285"/>
-      <c r="H4" s="286" t="s">
+      <c r="F4" s="313"/>
+      <c r="H4" s="314" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="287"/>
+      <c r="I4" s="315"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -21544,11 +21576,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="295" t="s">
+      <c r="P4" s="285" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="296"/>
-      <c r="R4" s="289"/>
+      <c r="Q4" s="286"/>
+      <c r="R4" s="279"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -23093,17 +23125,17 @@
       <c r="J40" s="73">
         <v>44680</v>
       </c>
-      <c r="K40" s="318" t="s">
+      <c r="K40" s="277" t="s">
         <v>320</v>
       </c>
       <c r="L40" s="75">
         <v>1770.75</v>
       </c>
-      <c r="M40" s="297">
+      <c r="M40" s="287">
         <f>SUM(M5:M39)</f>
         <v>2006096</v>
       </c>
-      <c r="N40" s="299">
+      <c r="N40" s="289">
         <f>SUM(N5:N39)</f>
         <v>61793</v>
       </c>
@@ -23129,8 +23161,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="298"/>
-      <c r="N41" s="300"/>
+      <c r="M41" s="288"/>
+      <c r="N41" s="290"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -23345,29 +23377,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="301" t="s">
+      <c r="H53" s="291" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="302"/>
+      <c r="I53" s="292"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="303">
+      <c r="K53" s="293">
         <f>I51+L51</f>
         <v>51696.72</v>
       </c>
-      <c r="L53" s="304"/>
-      <c r="M53" s="305">
+      <c r="L53" s="294"/>
+      <c r="M53" s="295">
         <f>N40+M40</f>
         <v>2067889</v>
       </c>
-      <c r="N53" s="306"/>
+      <c r="N53" s="296"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="307" t="s">
+      <c r="D54" s="297" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="307"/>
+      <c r="E54" s="297"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2048800.2799999998</v>
@@ -23378,22 +23410,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="308" t="s">
+      <c r="D55" s="298" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="308"/>
+      <c r="E55" s="298"/>
       <c r="F55" s="115">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="309" t="s">
+      <c r="I55" s="299" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="310"/>
-      <c r="K55" s="311">
+      <c r="J55" s="300"/>
+      <c r="K55" s="301">
         <f>F57+F58+F59</f>
         <v>-53185.560000000114</v>
       </c>
-      <c r="L55" s="312"/>
+      <c r="L55" s="302"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -23424,11 +23456,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="313">
+      <c r="K57" s="303">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="314"/>
+      <c r="L57" s="304"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -23445,20 +23477,20 @@
       <c r="C59" s="133">
         <v>44710</v>
       </c>
-      <c r="D59" s="290" t="s">
+      <c r="D59" s="280" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="291"/>
+      <c r="E59" s="281"/>
       <c r="F59" s="134">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="292"/>
-      <c r="J59" s="293"/>
-      <c r="K59" s="294">
+      <c r="I59" s="282"/>
+      <c r="J59" s="283"/>
+      <c r="K59" s="284">
         <f>K55+K57</f>
         <v>-351060.15000000014</v>
       </c>
-      <c r="L59" s="294"/>
+      <c r="L59" s="284"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -23602,6 +23634,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -23611,18 +23655,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/BALANCE   HERRADURA  MAYO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/BALANCE   HERRADURA  MAYO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="326">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1289,13 +1289,19 @@
     <t>Comisiones Banco</t>
   </si>
   <si>
-    <t>xxxxxxxxxx</t>
-  </si>
-  <si>
     <t xml:space="preserve">SEGURO </t>
   </si>
   <si>
     <t>SEGURO</t>
+  </si>
+  <si>
+    <t>COMPRAS CENTRAL-CHORIZO-ARABE</t>
+  </si>
+  <si>
+    <t>BASCULA</t>
+  </si>
+  <si>
+    <t>PERDIDA</t>
   </si>
 </sst>
 </file>
@@ -3080,8 +3086,51 @@
     <xf numFmtId="44" fontId="2" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="17" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="27" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3164,54 +3213,11 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5661,23 +5667,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="305"/>
-      <c r="C1" s="307" t="s">
+      <c r="B1" s="282"/>
+      <c r="C1" s="284" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="308"/>
-      <c r="E1" s="308"/>
-      <c r="F1" s="308"/>
-      <c r="G1" s="308"/>
-      <c r="H1" s="308"/>
-      <c r="I1" s="308"/>
-      <c r="J1" s="308"/>
-      <c r="K1" s="308"/>
-      <c r="L1" s="308"/>
-      <c r="M1" s="308"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
+      <c r="H1" s="285"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="306"/>
+      <c r="B2" s="283"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -5687,21 +5693,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="309" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="310"/>
+      <c r="B3" s="286" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="287"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="311" t="s">
+      <c r="H3" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="311"/>
+      <c r="I3" s="288"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="278" t="s">
+      <c r="R3" s="293" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5716,14 +5722,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="312" t="s">
+      <c r="E4" s="289" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="313"/>
-      <c r="H4" s="314" t="s">
+      <c r="F4" s="290"/>
+      <c r="H4" s="291" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="315"/>
+      <c r="I4" s="292"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -5733,11 +5739,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="285" t="s">
+      <c r="P4" s="300" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="286"/>
-      <c r="R4" s="279"/>
+      <c r="Q4" s="301"/>
+      <c r="R4" s="294"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -7238,11 +7244,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="287">
+      <c r="M40" s="302">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="289">
+      <c r="N40" s="304">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -7268,8 +7274,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="288"/>
-      <c r="N41" s="290"/>
+      <c r="M41" s="303"/>
+      <c r="N41" s="305"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -7484,29 +7490,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="291" t="s">
+      <c r="H53" s="306" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="292"/>
+      <c r="I53" s="307"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="293">
+      <c r="K53" s="308">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="294"/>
-      <c r="M53" s="295">
+      <c r="L53" s="309"/>
+      <c r="M53" s="310">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="296"/>
+      <c r="N53" s="311"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="297" t="s">
+      <c r="D54" s="312" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="297"/>
+      <c r="E54" s="312"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -7517,22 +7523,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="298" t="s">
+      <c r="D55" s="313" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="298"/>
+      <c r="E55" s="313"/>
       <c r="F55" s="115">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="299" t="s">
+      <c r="I55" s="314" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="300"/>
-      <c r="K55" s="301">
+      <c r="J55" s="315"/>
+      <c r="K55" s="316">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="302"/>
+      <c r="L55" s="317"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -7563,11 +7569,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="303">
+      <c r="K57" s="318">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="304"/>
+      <c r="L57" s="319"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -7584,22 +7590,22 @@
       <c r="C59" s="133">
         <v>44591</v>
       </c>
-      <c r="D59" s="280" t="s">
+      <c r="D59" s="295" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="281"/>
+      <c r="E59" s="296"/>
       <c r="F59" s="134">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="282" t="s">
+      <c r="I59" s="297" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="283"/>
-      <c r="K59" s="284">
+      <c r="J59" s="298"/>
+      <c r="K59" s="299">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="284"/>
+      <c r="L59" s="299"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -7743,12 +7749,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -7764,6 +7764,12 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10853,23 +10859,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="305"/>
-      <c r="C1" s="307" t="s">
+      <c r="B1" s="282"/>
+      <c r="C1" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="308"/>
-      <c r="E1" s="308"/>
-      <c r="F1" s="308"/>
-      <c r="G1" s="308"/>
-      <c r="H1" s="308"/>
-      <c r="I1" s="308"/>
-      <c r="J1" s="308"/>
-      <c r="K1" s="308"/>
-      <c r="L1" s="308"/>
-      <c r="M1" s="308"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
+      <c r="H1" s="285"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="306"/>
+      <c r="B2" s="283"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -10879,21 +10885,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="309" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="310"/>
+      <c r="B3" s="286" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="287"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="311" t="s">
+      <c r="H3" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="311"/>
+      <c r="I3" s="288"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="278" t="s">
+      <c r="R3" s="293" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10908,14 +10914,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="312" t="s">
+      <c r="E4" s="289" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="313"/>
-      <c r="H4" s="314" t="s">
+      <c r="F4" s="290"/>
+      <c r="H4" s="291" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="315"/>
+      <c r="I4" s="292"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -10925,11 +10931,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="285" t="s">
+      <c r="P4" s="300" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="286"/>
-      <c r="R4" s="279"/>
+      <c r="Q4" s="301"/>
+      <c r="R4" s="294"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -12413,11 +12419,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="80"/>
-      <c r="M40" s="316">
+      <c r="M40" s="320">
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="289">
+      <c r="N40" s="304">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -12443,8 +12449,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="288"/>
-      <c r="N41" s="290"/>
+      <c r="M41" s="303"/>
+      <c r="N41" s="305"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -12659,29 +12665,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="291" t="s">
+      <c r="H53" s="306" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="292"/>
+      <c r="I53" s="307"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="293">
+      <c r="K53" s="308">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="294"/>
-      <c r="M53" s="295">
+      <c r="L53" s="309"/>
+      <c r="M53" s="310">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="296"/>
+      <c r="N53" s="311"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="297" t="s">
+      <c r="D54" s="312" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="297"/>
+      <c r="E54" s="312"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -12692,22 +12698,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="298" t="s">
+      <c r="D55" s="313" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="298"/>
+      <c r="E55" s="313"/>
       <c r="F55" s="115">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="299" t="s">
+      <c r="I55" s="314" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="300"/>
-      <c r="K55" s="301">
+      <c r="J55" s="315"/>
+      <c r="K55" s="316">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="302"/>
+      <c r="L55" s="317"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -12738,11 +12744,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="303">
+      <c r="K57" s="318">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="304"/>
+      <c r="L57" s="319"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -12759,22 +12765,22 @@
       <c r="C59" s="133">
         <v>44619</v>
       </c>
-      <c r="D59" s="280" t="s">
+      <c r="D59" s="295" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="281"/>
+      <c r="E59" s="296"/>
       <c r="F59" s="134">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="282" t="s">
+      <c r="I59" s="297" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="283"/>
-      <c r="K59" s="284">
+      <c r="J59" s="298"/>
+      <c r="K59" s="299">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="284"/>
+      <c r="L59" s="299"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -12918,18 +12924,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -12939,6 +12933,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14243,23 +14249,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="305"/>
-      <c r="C1" s="307" t="s">
+      <c r="B1" s="282"/>
+      <c r="C1" s="284" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="308"/>
-      <c r="E1" s="308"/>
-      <c r="F1" s="308"/>
-      <c r="G1" s="308"/>
-      <c r="H1" s="308"/>
-      <c r="I1" s="308"/>
-      <c r="J1" s="308"/>
-      <c r="K1" s="308"/>
-      <c r="L1" s="308"/>
-      <c r="M1" s="308"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
+      <c r="H1" s="285"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="306"/>
+      <c r="B2" s="283"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14269,21 +14275,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="309" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="310"/>
+      <c r="B3" s="286" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="287"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="311" t="s">
+      <c r="H3" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="311"/>
+      <c r="I3" s="288"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="278" t="s">
+      <c r="R3" s="293" t="s">
         <v>38</v>
       </c>
     </row>
@@ -14298,14 +14304,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="312" t="s">
+      <c r="E4" s="289" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="313"/>
-      <c r="H4" s="314" t="s">
+      <c r="F4" s="290"/>
+      <c r="H4" s="291" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="315"/>
+      <c r="I4" s="292"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -14315,11 +14321,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="285" t="s">
+      <c r="P4" s="300" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="286"/>
-      <c r="R4" s="279"/>
+      <c r="Q4" s="301"/>
+      <c r="R4" s="294"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -15616,10 +15622,10 @@
       <c r="J34" s="73">
         <v>44627</v>
       </c>
-      <c r="K34" s="317" t="s">
-        <v>322</v>
-      </c>
-      <c r="L34" s="320">
+      <c r="K34" s="277" t="s">
+        <v>321</v>
+      </c>
+      <c r="L34" s="280">
         <v>1195.68</v>
       </c>
       <c r="M34" s="32">
@@ -15686,7 +15692,7 @@
       <c r="J36" s="73">
         <v>44645</v>
       </c>
-      <c r="K36" s="319" t="s">
+      <c r="K36" s="279" t="s">
         <v>318</v>
       </c>
       <c r="L36" s="80">
@@ -15721,7 +15727,7 @@
       <c r="J37" s="73">
         <v>44649</v>
       </c>
-      <c r="K37" s="318" t="s">
+      <c r="K37" s="278" t="s">
         <v>319</v>
       </c>
       <c r="L37" s="80">
@@ -15755,7 +15761,7 @@
       <c r="J38" s="73">
         <v>44649</v>
       </c>
-      <c r="K38" s="321" t="s">
+      <c r="K38" s="281" t="s">
         <v>190</v>
       </c>
       <c r="L38" s="80">
@@ -15817,11 +15823,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="287">
+      <c r="M40" s="302">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="289">
+      <c r="N40" s="304">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -15847,8 +15853,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="288"/>
-      <c r="N41" s="290"/>
+      <c r="M41" s="303"/>
+      <c r="N41" s="305"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -15991,29 +15997,29 @@
       <c r="A49" s="117"/>
       <c r="B49" s="118"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="291" t="s">
+      <c r="H49" s="306" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="292"/>
+      <c r="I49" s="307"/>
       <c r="J49" s="119"/>
-      <c r="K49" s="293">
+      <c r="K49" s="308">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="294"/>
-      <c r="M49" s="295">
+      <c r="L49" s="309"/>
+      <c r="M49" s="310">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="296"/>
+      <c r="N49" s="311"/>
       <c r="P49" s="34"/>
       <c r="Q49" s="9"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="297" t="s">
+      <c r="D50" s="312" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="297"/>
+      <c r="E50" s="312"/>
       <c r="F50" s="120">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -16024,22 +16030,22 @@
       <c r="Q50" s="9"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="298" t="s">
+      <c r="D51" s="313" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="298"/>
+      <c r="E51" s="313"/>
       <c r="F51" s="115">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="299" t="s">
+      <c r="I51" s="314" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="300"/>
-      <c r="K51" s="301">
+      <c r="J51" s="315"/>
+      <c r="K51" s="316">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="302"/>
+      <c r="L51" s="317"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
@@ -16070,11 +16076,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="130"/>
-      <c r="K53" s="303">
+      <c r="K53" s="318">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="304"/>
+      <c r="L53" s="319"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="131" t="s">
@@ -16091,22 +16097,22 @@
       <c r="C55" s="133">
         <v>44647</v>
       </c>
-      <c r="D55" s="280" t="s">
+      <c r="D55" s="295" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="281"/>
+      <c r="E55" s="296"/>
       <c r="F55" s="134">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="282" t="s">
+      <c r="I55" s="297" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="283"/>
-      <c r="K55" s="284">
+      <c r="J55" s="298"/>
+      <c r="K55" s="299">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="284"/>
+      <c r="L55" s="299"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="135"/>
@@ -16253,6 +16259,18 @@
     <sortCondition ref="J34:J38"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -16262,18 +16280,6 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:N49"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17724,7 +17730,7 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
@@ -17748,23 +17754,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="305"/>
-      <c r="C1" s="307" t="s">
+      <c r="B1" s="282"/>
+      <c r="C1" s="284" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="308"/>
-      <c r="E1" s="308"/>
-      <c r="F1" s="308"/>
-      <c r="G1" s="308"/>
-      <c r="H1" s="308"/>
-      <c r="I1" s="308"/>
-      <c r="J1" s="308"/>
-      <c r="K1" s="308"/>
-      <c r="L1" s="308"/>
-      <c r="M1" s="308"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
+      <c r="H1" s="285"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="306"/>
+      <c r="B2" s="283"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -17774,21 +17780,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="309" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="310"/>
+      <c r="B3" s="286" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="287"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="311" t="s">
+      <c r="H3" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="311"/>
+      <c r="I3" s="288"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="278" t="s">
+      <c r="R3" s="293" t="s">
         <v>38</v>
       </c>
     </row>
@@ -17803,14 +17809,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="312" t="s">
+      <c r="E4" s="289" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="313"/>
-      <c r="H4" s="314" t="s">
+      <c r="F4" s="290"/>
+      <c r="H4" s="291" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="315"/>
+      <c r="I4" s="292"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -17820,11 +17826,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="285" t="s">
+      <c r="P4" s="300" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="286"/>
-      <c r="R4" s="279"/>
+      <c r="Q4" s="301"/>
+      <c r="R4" s="294"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -19468,11 +19474,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="287">
+      <c r="M40" s="302">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="289">
+      <c r="N40" s="304">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -19499,13 +19505,13 @@
         <v>44658</v>
       </c>
       <c r="K41" s="76" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L41" s="75">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="288"/>
-      <c r="N41" s="290"/>
+      <c r="M41" s="303"/>
+      <c r="N41" s="305"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -19740,29 +19746,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="291" t="s">
+      <c r="H53" s="306" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="292"/>
+      <c r="I53" s="307"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="293">
+      <c r="K53" s="308">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="294"/>
-      <c r="M53" s="295">
+      <c r="L53" s="309"/>
+      <c r="M53" s="310">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="296"/>
+      <c r="N53" s="311"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="297" t="s">
+      <c r="D54" s="312" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="297"/>
+      <c r="E54" s="312"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -19773,22 +19779,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="298" t="s">
+      <c r="D55" s="313" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="298"/>
+      <c r="E55" s="313"/>
       <c r="F55" s="115">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="299" t="s">
+      <c r="I55" s="314" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="300"/>
-      <c r="K55" s="301">
+      <c r="J55" s="315"/>
+      <c r="K55" s="316">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="302"/>
+      <c r="L55" s="317"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -19819,11 +19825,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="303">
+      <c r="K57" s="318">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="304"/>
+      <c r="L57" s="319"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -19840,22 +19846,22 @@
       <c r="C59" s="133">
         <v>44682</v>
       </c>
-      <c r="D59" s="280" t="s">
+      <c r="D59" s="295" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="281"/>
+      <c r="E59" s="296"/>
       <c r="F59" s="134">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="282" t="s">
+      <c r="I59" s="297" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="283"/>
-      <c r="K59" s="284">
+      <c r="J59" s="298"/>
+      <c r="K59" s="299">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="284"/>
+      <c r="L59" s="299"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -20002,6 +20008,18 @@
     <sortCondition ref="J40:J44"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -20011,18 +20029,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21477,11 +21483,11 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L41" sqref="L41"/>
+      <selection pane="bottomRight" activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21504,23 +21510,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="305"/>
-      <c r="C1" s="307" t="s">
+      <c r="B1" s="282"/>
+      <c r="C1" s="284" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="308"/>
-      <c r="E1" s="308"/>
-      <c r="F1" s="308"/>
-      <c r="G1" s="308"/>
-      <c r="H1" s="308"/>
-      <c r="I1" s="308"/>
-      <c r="J1" s="308"/>
-      <c r="K1" s="308"/>
-      <c r="L1" s="308"/>
-      <c r="M1" s="308"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
+      <c r="H1" s="285"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="306"/>
+      <c r="B2" s="283"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -21530,21 +21536,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="309" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="310"/>
+      <c r="B3" s="286" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="287"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="311" t="s">
+      <c r="H3" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="311"/>
+      <c r="I3" s="288"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="278" t="s">
+      <c r="R3" s="293" t="s">
         <v>38</v>
       </c>
     </row>
@@ -21559,14 +21565,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="312" t="s">
+      <c r="E4" s="289" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="313"/>
-      <c r="H4" s="314" t="s">
+      <c r="F4" s="290"/>
+      <c r="H4" s="291" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="315"/>
+      <c r="I4" s="292"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -21576,11 +21582,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="285" t="s">
+      <c r="P4" s="300" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="286"/>
-      <c r="R4" s="279"/>
+      <c r="Q4" s="301"/>
+      <c r="R4" s="294"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -22636,30 +22642,37 @@
         <v>44705</v>
       </c>
       <c r="C27" s="274">
-        <v>0</v>
-      </c>
-      <c r="D27" s="41"/>
+        <v>2800</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>47</v>
+      </c>
       <c r="E27" s="28">
         <v>44705</v>
       </c>
-      <c r="F27" s="272"/>
+      <c r="F27" s="272">
+        <v>68453</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="30">
         <v>44705</v>
       </c>
-      <c r="I27" s="273"/>
+      <c r="I27" s="273">
+        <v>43</v>
+      </c>
       <c r="J27" s="67"/>
       <c r="K27" s="68"/>
       <c r="L27" s="66"/>
-      <c r="M27" s="275">
-        <v>0</v>
-      </c>
-      <c r="N27" s="276">
+      <c r="M27" s="32">
+        <f>45610+20000</f>
+        <v>65610</v>
+      </c>
+      <c r="N27" s="33">
         <v>0</v>
       </c>
       <c r="P27" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>68453</v>
       </c>
       <c r="Q27" s="13">
         <f t="shared" si="1"/>
@@ -22682,24 +22695,29 @@
       <c r="E28" s="28">
         <v>44706</v>
       </c>
-      <c r="F28" s="272"/>
+      <c r="F28" s="272">
+        <v>28820</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="30">
         <v>44706</v>
       </c>
-      <c r="I28" s="273"/>
+      <c r="I28" s="273">
+        <v>1153</v>
+      </c>
       <c r="J28" s="69"/>
       <c r="K28" s="70"/>
       <c r="L28" s="66"/>
-      <c r="M28" s="275">
-        <v>0</v>
+      <c r="M28" s="32">
+        <f>16978+10000</f>
+        <v>26978</v>
       </c>
       <c r="N28" s="276">
-        <v>0</v>
+        <v>689</v>
       </c>
       <c r="P28" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28820</v>
       </c>
       <c r="Q28" s="13">
         <f t="shared" si="1"/>
@@ -22716,30 +22734,37 @@
         <v>44707</v>
       </c>
       <c r="C29" s="274">
-        <v>0</v>
-      </c>
-      <c r="D29" s="71"/>
+        <v>20289</v>
+      </c>
+      <c r="D29" s="71" t="s">
+        <v>323</v>
+      </c>
       <c r="E29" s="28">
         <v>44707</v>
       </c>
-      <c r="F29" s="272"/>
+      <c r="F29" s="272">
+        <v>65956</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="30">
         <v>44707</v>
       </c>
-      <c r="I29" s="273"/>
+      <c r="I29" s="273">
+        <v>93</v>
+      </c>
       <c r="J29" s="67"/>
       <c r="K29" s="72"/>
       <c r="L29" s="66"/>
       <c r="M29" s="275">
-        <v>0</v>
+        <f>20000+25531</f>
+        <v>45531</v>
       </c>
       <c r="N29" s="276">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="P29" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>65956</v>
       </c>
       <c r="Q29" s="13">
         <f t="shared" si="1"/>
@@ -22972,12 +22997,11 @@
         <v>0</v>
       </c>
       <c r="P35" s="34">
-        <f t="shared" si="0"/>
-        <v>638.99</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="13">
         <f t="shared" si="1"/>
-        <v>638.99</v>
+        <v>0</v>
       </c>
       <c r="R35" s="8"/>
     </row>
@@ -22992,13 +23016,13 @@
       <c r="H36" s="30"/>
       <c r="I36" s="31"/>
       <c r="J36" s="73">
-        <v>44704</v>
-      </c>
-      <c r="K36" s="42" t="s">
-        <v>318</v>
+        <v>44690</v>
+      </c>
+      <c r="K36" s="221" t="s">
+        <v>322</v>
       </c>
       <c r="L36" s="80">
-        <v>1392</v>
+        <v>1195.68</v>
       </c>
       <c r="M36" s="32">
         <v>0</v>
@@ -23007,12 +23031,11 @@
         <v>0</v>
       </c>
       <c r="P36" s="34">
-        <f t="shared" si="0"/>
-        <v>1392</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="13">
         <f t="shared" si="1"/>
-        <v>1392</v>
+        <v>0</v>
       </c>
       <c r="R36" s="8"/>
     </row>
@@ -23026,12 +23049,14 @@
       <c r="G37" s="2"/>
       <c r="H37" s="30"/>
       <c r="I37" s="31"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="221" t="s">
-        <v>321</v>
+      <c r="J37" s="73">
+        <v>44699</v>
+      </c>
+      <c r="K37" s="76" t="s">
+        <v>324</v>
       </c>
       <c r="L37" s="80">
-        <v>1195.68</v>
+        <v>870</v>
       </c>
       <c r="M37" s="32">
         <v>0</v>
@@ -23040,12 +23065,11 @@
         <v>0</v>
       </c>
       <c r="P37" s="34">
-        <f t="shared" si="0"/>
-        <v>1195.68</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="13">
         <f t="shared" si="1"/>
-        <v>1195.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23058,12 +23082,14 @@
       <c r="G38" s="2"/>
       <c r="H38" s="30"/>
       <c r="I38" s="31"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="76" t="s">
-        <v>321</v>
+      <c r="J38" s="73">
+        <v>44704</v>
+      </c>
+      <c r="K38" s="42" t="s">
+        <v>318</v>
       </c>
       <c r="L38" s="80">
-        <v>1754.3</v>
+        <v>1392</v>
       </c>
       <c r="M38" s="32">
         <v>0</v>
@@ -23072,12 +23098,11 @@
         <v>0</v>
       </c>
       <c r="P38" s="34">
-        <f t="shared" si="0"/>
-        <v>1754.3</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="61">
         <f t="shared" si="1"/>
-        <v>1754.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23090,12 +23115,14 @@
       <c r="G39" s="2"/>
       <c r="H39" s="30"/>
       <c r="I39" s="31"/>
-      <c r="J39" s="73"/>
-      <c r="K39" s="76" t="s">
-        <v>321</v>
+      <c r="J39" s="73">
+        <v>44710</v>
+      </c>
+      <c r="K39" s="321" t="s">
+        <v>320</v>
       </c>
       <c r="L39" s="75">
-        <v>870</v>
+        <v>1770.75</v>
       </c>
       <c r="M39" s="32">
         <v>0</v>
@@ -23104,12 +23131,11 @@
         <v>0</v>
       </c>
       <c r="P39" s="34">
-        <f t="shared" si="0"/>
-        <v>870</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="13">
         <f t="shared" si="1"/>
-        <v>870</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -23122,30 +23148,24 @@
       <c r="G40" s="2"/>
       <c r="H40" s="37"/>
       <c r="I40" s="88"/>
-      <c r="J40" s="73">
-        <v>44680</v>
-      </c>
-      <c r="K40" s="277" t="s">
-        <v>320</v>
-      </c>
-      <c r="L40" s="75">
-        <v>1770.75</v>
-      </c>
-      <c r="M40" s="287">
+      <c r="J40" s="73"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="302">
         <f>SUM(M5:M39)</f>
-        <v>2006096</v>
-      </c>
-      <c r="N40" s="289">
+        <v>2144215</v>
+      </c>
+      <c r="N40" s="304">
         <f>SUM(N5:N39)</f>
-        <v>61793</v>
+        <v>62525</v>
       </c>
       <c r="P40" s="34">
         <f>SUM(P5:P39)</f>
-        <v>2178455.9700000002</v>
+        <v>2335834</v>
       </c>
       <c r="Q40" s="13">
         <f t="shared" si="1"/>
-        <v>2178455.9700000002</v>
+        <v>2335834</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23161,12 +23181,12 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="288"/>
-      <c r="N41" s="290"/>
+      <c r="M41" s="303"/>
+      <c r="N41" s="305"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
-    <row r="42" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" ht="17.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="24"/>
       <c r="B42" s="159"/>
       <c r="C42" s="86"/>
@@ -23184,7 +23204,7 @@
       <c r="P42" s="34"/>
       <c r="Q42" s="9"/>
     </row>
-    <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="24"/>
       <c r="B43" s="159"/>
       <c r="C43" s="86"/>
@@ -23202,7 +23222,7 @@
       <c r="P43" s="34"/>
       <c r="Q43" s="9"/>
     </row>
-    <row r="44" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="24"/>
       <c r="B44" s="159"/>
       <c r="C44" s="86"/>
@@ -23220,7 +23240,7 @@
       <c r="P44" s="34"/>
       <c r="Q44" s="9"/>
     </row>
-    <row r="45" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="24"/>
       <c r="B45" s="159"/>
       <c r="C45" s="86"/>
@@ -23335,7 +23355,7 @@
       </c>
       <c r="C51" s="106">
         <f>SUM(C5:C50)</f>
-        <v>60641</v>
+        <v>83730</v>
       </c>
       <c r="D51" s="107"/>
       <c r="E51" s="108" t="s">
@@ -23343,7 +23363,7 @@
       </c>
       <c r="F51" s="109">
         <f>SUM(F5:F50)</f>
-        <v>2161138</v>
+        <v>2324367</v>
       </c>
       <c r="G51" s="107"/>
       <c r="H51" s="110" t="s">
@@ -23351,7 +23371,7 @@
       </c>
       <c r="I51" s="111">
         <f>SUM(I5:I50)</f>
-        <v>2158</v>
+        <v>3447</v>
       </c>
       <c r="J51" s="112"/>
       <c r="K51" s="113" t="s">
@@ -23359,7 +23379,7 @@
       </c>
       <c r="L51" s="114">
         <f>SUM(L5:L50)</f>
-        <v>49538.720000000001</v>
+        <v>47784.42</v>
       </c>
       <c r="M51" s="115"/>
       <c r="N51" s="115"/>
@@ -23377,32 +23397,32 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="291" t="s">
+      <c r="H53" s="306" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="292"/>
+      <c r="I53" s="307"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="293">
+      <c r="K53" s="308">
         <f>I51+L51</f>
-        <v>51696.72</v>
-      </c>
-      <c r="L53" s="294"/>
-      <c r="M53" s="295">
+        <v>51231.42</v>
+      </c>
+      <c r="L53" s="309"/>
+      <c r="M53" s="310">
         <f>N40+M40</f>
-        <v>2067889</v>
-      </c>
-      <c r="N53" s="296"/>
+        <v>2206740</v>
+      </c>
+      <c r="N53" s="311"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="297" t="s">
+      <c r="D54" s="312" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="297"/>
+      <c r="E54" s="312"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
-        <v>2048800.2799999998</v>
+        <v>2189405.58</v>
       </c>
       <c r="I54" s="121"/>
       <c r="J54" s="122"/>
@@ -23410,22 +23430,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="298" t="s">
+      <c r="D55" s="313" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="298"/>
+      <c r="E55" s="313"/>
       <c r="F55" s="115">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="299" t="s">
+      <c r="I55" s="314" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="300"/>
-      <c r="K55" s="301">
+      <c r="J55" s="315"/>
+      <c r="K55" s="316">
         <f>F57+F58+F59</f>
-        <v>-53185.560000000114</v>
-      </c>
-      <c r="L55" s="302"/>
+        <v>112552.74000000017</v>
+      </c>
+      <c r="L55" s="317"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -23449,18 +23469,18 @@
       </c>
       <c r="F57" s="115">
         <f>SUM(F54:F56)</f>
-        <v>-203124.37000000011</v>
+        <v>-62519.069999999832</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="129" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="303">
+      <c r="K57" s="318">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="304"/>
+      <c r="L57" s="319"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -23470,27 +23490,29 @@
         <v>19</v>
       </c>
       <c r="F58" s="132">
-        <v>0</v>
+        <v>25133</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C59" s="133">
         <v>44710</v>
       </c>
-      <c r="D59" s="280" t="s">
+      <c r="D59" s="295" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="281"/>
+      <c r="E59" s="296"/>
       <c r="F59" s="134">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="282"/>
-      <c r="J59" s="283"/>
-      <c r="K59" s="284">
+      <c r="I59" s="297" t="s">
+        <v>325</v>
+      </c>
+      <c r="J59" s="298"/>
+      <c r="K59" s="299">
         <f>K55+K57</f>
-        <v>-351060.15000000014</v>
-      </c>
-      <c r="L59" s="284"/>
+        <v>-185321.84999999986</v>
+      </c>
+      <c r="L59" s="299"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -23633,19 +23655,10 @@
       <c r="F81" s="150"/>
     </row>
   </sheetData>
+  <sortState ref="J35:L40">
+    <sortCondition ref="J35:J40"/>
+  </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -23655,9 +23668,22 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>